--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="5" r:id="rId2"/>
     <sheet name="CheckOut" sheetId="7" r:id="rId3"/>
-    <sheet name="Products" sheetId="8" r:id="rId4"/>
+    <sheet name="products" sheetId="8" r:id="rId4"/>
     <sheet name="cards" sheetId="9" r:id="rId5"/>
-    <sheet name="Addresses" sheetId="10" r:id="rId6"/>
+    <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -323,9 +323,6 @@
     <t>firstName</t>
   </si>
   <si>
-    <t>adddress</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>adddressLine</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" ht="90">
+    <row r="2" spans="1:18" s="9" customFormat="1" ht="165">
       <c r="A2" s="13" t="s">
         <v>40</v>
       </c>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" ht="75">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="30">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1341,10 +1341,10 @@
         <v>60</v>
       </c>
       <c r="F1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>61</v>
@@ -1353,19 +1353,19 @@
         <v>65</v>
       </c>
       <c r="J1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
@@ -1392,14 +1392,14 @@
         <v>68</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="17"/>
@@ -1431,14 +1431,14 @@
         <v>69</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
@@ -1463,16 +1463,16 @@
         <v>70</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="17"/>
@@ -1491,20 +1491,20 @@
         <v>56</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="17"/>
@@ -1523,20 +1523,20 @@
         <v>56</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="17"/>
@@ -1557,7 +1557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1598,7 +1598,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
@@ -1615,7 +1615,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1670,13 +1670,13 @@
         <v>85</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1690,13 +1690,13 @@
         <v>85</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="F3" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1710,13 +1710,13 @@
         <v>85</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="F4" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1730,13 +1730,13 @@
         <v>85</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="F5" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1750,13 +1750,13 @@
         <v>85</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="F6" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1770,7 +1770,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1786,7 +1786,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>98</v>
@@ -1795,21 +1795,21 @@
         <v>97</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>16</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>16</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M7"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
   <si>
     <t>TCID</t>
   </si>
@@ -393,6 +394,12 @@
   </si>
   <si>
     <t>adddressLine</t>
+  </si>
+  <si>
+    <t>run_test</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -531,7 +538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -615,6 +622,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1293,261 +1303,277 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1">
+    <row r="1" spans="1:22" s="12" customFormat="1">
       <c r="A1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="21"/>
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
-    </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="60">
-      <c r="A2" s="13" t="s">
+      <c r="V1" s="21"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="60">
+      <c r="A2" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="18"/>
-      <c r="O2"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21" ht="60">
-      <c r="A3" s="13" t="s">
+      <c r="V2"/>
+    </row>
+    <row r="3" spans="1:22" ht="60">
+      <c r="A3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" ht="60">
-      <c r="A4" s="13" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:22" ht="60">
+      <c r="A4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>103</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" ht="60">
-      <c r="A5" s="13" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:22" ht="60">
+      <c r="A5" s="32"/>
+      <c r="B5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" ht="60">
-      <c r="A6" s="13" t="s">
+      <c r="M5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" ht="60">
+      <c r="A6" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="18"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3:I6" r:id="rId2" display="ibatta@dbi.com"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3:J6" r:id="rId2" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1557,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1627,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M7"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -200,9 +199,6 @@
     <t>qty</t>
   </si>
   <si>
-    <t>shipping</t>
-  </si>
-  <si>
     <t xml:space="preserve">payment </t>
   </si>
   <si>
@@ -396,10 +392,13 @@
     <t>adddressLine</t>
   </si>
   <si>
-    <t>run_test</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>runTest</t>
+  </si>
+  <si>
+    <t>shippingMethod</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,139 +1324,118 @@
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1">
+    <row r="1" spans="1:15" s="12" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="60">
+      <c r="A2" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="60">
-      <c r="A2" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="16"/>
       <c r="O2" s="18"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22" ht="60">
+    </row>
+    <row r="3" spans="1:15" ht="60">
       <c r="A3" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
@@ -1465,36 +1443,36 @@
       <c r="N3" s="16"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:22" ht="60">
+    <row r="4" spans="1:15" ht="60">
       <c r="A4" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
@@ -1502,32 +1480,32 @@
       <c r="N4" s="16"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:22" ht="60">
+    <row r="5" spans="1:15" ht="60">
       <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
@@ -1535,34 +1513,34 @@
       <c r="N5" s="16"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:22" ht="60">
+    <row r="6" spans="1:15" ht="60">
       <c r="A6" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
@@ -1624,7 +1602,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
@@ -1641,7 +1619,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1667,122 +1645,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>82</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="F3" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="F4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="F5" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>115</v>
-      </c>
       <c r="F6" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1812,30 +1790,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>16</v>
@@ -1844,21 +1822,21 @@
         <v>17</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>16</v>
@@ -1867,16 +1845,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M7"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -1016,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,7 +1304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -202,203 +203,203 @@
     <t xml:space="preserve">payment </t>
   </si>
   <si>
-    <t>giftcard</t>
+    <t>P1
+P2</t>
+  </si>
+  <si>
+    <t>PREMIUM DELIVERY</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>proprties</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>amex</t>
+  </si>
+  <si>
+    <t>maistro</t>
+  </si>
+  <si>
+    <t>diner</t>
+  </si>
+  <si>
+    <t>test_gc</t>
+  </si>
+  <si>
+    <t>logged in user with saved visa payment and shipping address</t>
+  </si>
+  <si>
+    <t>logged in user with saved master payment and shipping address</t>
+  </si>
+  <si>
+    <t>logged in user with saved amex payment and shipping address</t>
+  </si>
+  <si>
+    <t>logged in user with saved maistro payment and shipping address</t>
+  </si>
+  <si>
+    <t>logged in user with saved diner payment and shipping address</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>expire year</t>
+  </si>
+  <si>
+    <t>expire month</t>
+  </si>
+  <si>
+    <t>CVCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>Accept Tester</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>378282246310005</t>
+  </si>
+  <si>
+    <t>38520000023237</t>
+  </si>
+  <si>
+    <t>5555555555554444</t>
+  </si>
+  <si>
+    <t>6759649826438453</t>
+  </si>
+  <si>
+    <t>49 Featherstone Street</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>EC1Y 8SY</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>HP19 3EQ</t>
+  </si>
+  <si>
+    <t>Ardenham Court</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postal</t>
+  </si>
+  <si>
+    <t>countery</t>
+  </si>
+  <si>
+    <t>addressCode</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>shippingAddress</t>
+  </si>
+  <si>
+    <t>billingAddress</t>
+  </si>
+  <si>
+    <t>STANDARD DELIVERY</t>
+  </si>
+  <si>
+    <t>orderTotal</t>
+  </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>orderSubtotal</t>
+  </si>
+  <si>
+    <t>orderTax</t>
+  </si>
+  <si>
+    <t>orderShipping</t>
+  </si>
+  <si>
+    <t>ibatta@dbi.com</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>adddressLine</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>runTest</t>
+  </si>
+  <si>
+    <t>shippingMethod</t>
+  </si>
+  <si>
+    <t>coupon</t>
   </si>
   <si>
     <t>loggedin
 old-user
 saved-shipping
-save-payment</t>
-  </si>
-  <si>
-    <t>P1
-P2</t>
-  </si>
-  <si>
-    <t>PREMIUM DELIVERY</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>proprties</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>visa</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>amex</t>
-  </si>
-  <si>
-    <t>maistro</t>
-  </si>
-  <si>
-    <t>diner</t>
-  </si>
-  <si>
-    <t>test_gc</t>
-  </si>
-  <si>
-    <t>logged in user with saved visa payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved master payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved amex payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved maistro payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved diner payment and shipping address</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>expire year</t>
-  </si>
-  <si>
-    <t>expire month</t>
-  </si>
-  <si>
-    <t>CVCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name </t>
-  </si>
-  <si>
-    <t>Accept Tester</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
-    <t>378282246310005</t>
-  </si>
-  <si>
-    <t>38520000023237</t>
-  </si>
-  <si>
-    <t>5555555555554444</t>
-  </si>
-  <si>
-    <t>6759649826438453</t>
-  </si>
-  <si>
-    <t>49 Featherstone Street</t>
-  </si>
-  <si>
-    <t>LONDON</t>
-  </si>
-  <si>
-    <t>EC1Y 8SY</t>
-  </si>
-  <si>
-    <t>UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>HP19 3EQ</t>
-  </si>
-  <si>
-    <t>Ardenham Court</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>postal</t>
-  </si>
-  <si>
-    <t>countery</t>
-  </si>
-  <si>
-    <t>addressCode</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>shippingAddress</t>
-  </si>
-  <si>
-    <t>billingAddress</t>
-  </si>
-  <si>
-    <t>STANDARD DELIVERY</t>
-  </si>
-  <si>
-    <t>orderTotal</t>
-  </si>
-  <si>
-    <t>orderId</t>
-  </si>
-  <si>
-    <t>orderSubtotal</t>
-  </si>
-  <si>
-    <t>orderTax</t>
-  </si>
-  <si>
-    <t>orderShipping</t>
-  </si>
-  <si>
-    <t>ibatta@dbi.com</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>337</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>adddressLine</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>runTest</t>
-  </si>
-  <si>
-    <t>shippingMethod</t>
+saved-payment</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1328,79 +1329,79 @@
   <sheetData>
     <row r="1" spans="1:15" s="12" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="60">
       <c r="A2" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -1410,32 +1411,32 @@
     </row>
     <row r="3" spans="1:15" ht="60">
       <c r="A3" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
@@ -1445,34 +1446,34 @@
     </row>
     <row r="4" spans="1:15" ht="60">
       <c r="A4" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
@@ -1483,29 +1484,29 @@
     <row r="5" spans="1:15" ht="60">
       <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
@@ -1515,32 +1516,32 @@
     </row>
     <row r="6" spans="1:15" ht="60">
       <c r="A6" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
@@ -1602,7 +1603,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45">
@@ -1619,7 +1620,7 @@
         <v>57</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1645,122 +1646,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1790,30 +1791,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>16</v>
@@ -1822,21 +1823,21 @@
         <v>17</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>16</v>
@@ -1845,16 +1846,16 @@
         <v>17</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>91</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -15,13 +15,13 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N6"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
   <si>
     <t>TCID</t>
   </si>
@@ -173,40 +173,21 @@
     <t>name</t>
   </si>
   <si>
-    <t>/yacceleratorstorefront/en/Categories/Bags%2BBoardbags/Bags/Seizure-Satchel/p/300613490</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
-    <t>Size Uni, £34.79  21</t>
-  </si>
-  <si>
     <t xml:space="preserve">products </t>
   </si>
   <si>
-    <t>/yacceleratorstorefront/en/Categories/Bags%2BBoardbags/Bags/Seizure-Bag/p/300441924</t>
-  </si>
-  <si>
-    <t>clay court</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>Size Uni, £24.26  4</t>
-  </si>
-  <si>
     <t>qty</t>
   </si>
   <si>
     <t xml:space="preserve">payment </t>
   </si>
   <si>
-    <t>P1
-P2</t>
-  </si>
-  <si>
     <t>PREMIUM DELIVERY</t>
   </si>
   <si>
@@ -376,9 +357,6 @@
   </si>
   <si>
     <t>337</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>adddressLine</t>
@@ -399,6 +377,59 @@
     <t>loggedin
 old-user
 saved-shipping
+saved-payment</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t>NEW YORK</t>
+  </si>
+  <si>
+    <t>254 park Ave</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Categories/Bags%2BBoardbags/Bags/Seizure-Satchel/p/300613491</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Size Uni, £34.79  21</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Brands/Toko/Snowboard-Ski-Tool-Toko-Waxremover-HC3-500ml/p/45572</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>P1
+P2
+P3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Brands/Playboard/T-Shirt-Men-Playboard-Raster-SS/p/300046037</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Size XL, £26.68  99</t>
+  </si>
+  <si>
+    <t>loggedin
+old-user
+new-shipping
 saved-payment</t>
   </si>
 </sst>
@@ -1303,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1329,79 +1360,79 @@
   <sheetData>
     <row r="1" spans="1:15" s="12" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="60">
       <c r="A2" s="32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -1409,34 +1440,34 @@
       <c r="N2" s="16"/>
       <c r="O2" s="18"/>
     </row>
-    <row r="3" spans="1:15" ht="60">
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="60">
       <c r="A3" s="32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
@@ -1444,36 +1475,32 @@
       <c r="N3" s="16"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" ht="60">
-      <c r="A4" s="32" t="s">
-        <v>120</v>
-      </c>
+    <row r="4" spans="1:15" customFormat="1" ht="60">
+      <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>70</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
@@ -1481,32 +1508,34 @@
       <c r="N4" s="16"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" ht="60">
+    <row r="5" spans="1:15" customFormat="1" ht="60">
       <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
@@ -1514,34 +1543,32 @@
       <c r="N5" s="16"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="60">
-      <c r="A6" s="32" t="s">
-        <v>120</v>
-      </c>
+    <row r="6" spans="1:15" customFormat="1" ht="60">
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
@@ -1549,26 +1576,96 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
     </row>
+    <row r="7" spans="1:15" customFormat="1" ht="60">
+      <c r="A7" s="32"/>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" customFormat="1" ht="60">
+      <c r="A8" s="32"/>
+      <c r="B8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="18"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3:J6" r:id="rId2" display="ibatta@dbi.com"/>
+    <hyperlink ref="J4:J7" r:id="rId2" display="ibatta@dbi.com"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1586,41 +1683,54 @@
         <v>47</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60">
       <c r="A2" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60">
+      <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="B3" s="27" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>118</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60">
+      <c r="A4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1743,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1646,122 +1756,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1772,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1791,30 +1901,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>16</v>
@@ -1823,21 +1933,21 @@
         <v>17</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>16</v>
@@ -1846,16 +1956,39 @@
         <v>17</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="28">
+        <v>10167</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="6390" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
   <si>
     <t>TCID</t>
   </si>
@@ -431,6 +431,9 @@
 old-user
 new-shipping
 saved-payment</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1340,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1430,7 +1433,9 @@
       <c r="H2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="J2" s="13" t="s">
         <v>104</v>
       </c>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,12 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N6"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="139">
   <si>
     <t>TCID</t>
   </si>
@@ -239,16 +238,7 @@
     <t>number</t>
   </si>
   <si>
-    <t>expire year</t>
-  </si>
-  <si>
-    <t>expire month</t>
-  </si>
-  <si>
     <t>CVCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">name </t>
   </si>
   <si>
     <t>Accept Tester</t>
@@ -427,13 +417,37 @@
     <t>Size XL, £26.68  99</t>
   </si>
   <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>MR.</t>
+  </si>
+  <si>
+    <t>14725836952</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>expireYear</t>
+  </si>
+  <si>
+    <t>expireMonth</t>
+  </si>
+  <si>
     <t>loggedin
 old-user
 new-shipping
 saved-payment</t>
   </si>
   <si>
-    <t>invalid</t>
+    <t>loggedin
+old-user
+saved-shipping
+new-payment</t>
   </si>
 </sst>
 </file>
@@ -500,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -564,6 +578,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -572,7 +597,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -659,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="12" customFormat="1">
       <c r="A1" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>58</v>
@@ -1375,51 +1403,51 @@
         <v>51</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>56</v>
       </c>
       <c r="K1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1" ht="60">
       <c r="A2" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>55</v>
@@ -1428,16 +1456,16 @@
         <v>59</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="17"/>
@@ -1446,17 +1474,15 @@
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="60">
-      <c r="A3" s="32" t="s">
-        <v>113</v>
-      </c>
+      <c r="A3" s="32"/>
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>55</v>
@@ -1465,14 +1491,14 @@
         <v>59</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
@@ -1480,13 +1506,13 @@
       <c r="N3" s="16"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1" ht="60">
+    <row r="4" spans="1:15" ht="60">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>45</v>
@@ -1498,14 +1524,14 @@
         <v>60</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
@@ -1513,13 +1539,13 @@
       <c r="N4" s="16"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1" ht="60">
+    <row r="5" spans="1:15" ht="60">
       <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>52</v>
@@ -1531,16 +1557,16 @@
         <v>61</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
@@ -1548,32 +1574,32 @@
       <c r="N5" s="16"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" customFormat="1" ht="60">
+    <row r="6" spans="1:15" ht="60">
       <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
@@ -1581,32 +1607,32 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" customFormat="1" ht="60">
+    <row r="7" spans="1:15" ht="60">
       <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="17"/>
@@ -1614,32 +1640,32 @@
       <c r="N7" s="16"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" customFormat="1" ht="60">
+    <row r="8" spans="1:15" ht="60">
       <c r="A8" s="32"/>
       <c r="B8" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="17"/>
@@ -1696,16 +1722,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -1713,29 +1739,29 @@
         <v>52</v>
       </c>
       <c r="B3" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1747,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1767,16 +1793,16 @@
         <v>71</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D1" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1784,19 +1810,19 @@
         <v>59</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1804,19 +1830,19 @@
         <v>60</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1824,19 +1850,19 @@
         <v>62</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1844,19 +1870,19 @@
         <v>61</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1864,19 +1890,19 @@
         <v>63</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1887,49 +1913,56 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="I1" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="28" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>94</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>16</v>
@@ -1937,22 +1970,28 @@
       <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>16</v>
@@ -1960,22 +1999,28 @@
       <c r="C3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>87</v>
+      <c r="D3" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="E3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>16</v>
@@ -1984,16 +2029,22 @@
         <v>17</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="28">
+        <v>117</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="28">
         <v>10167</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>118</v>
+      <c r="H4" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N7"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
   <si>
     <t>TCID</t>
   </si>
@@ -1365,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1640,7 +1641,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="60">
+    <row r="8" spans="1:15" customFormat="1" ht="60">
       <c r="A8" s="32"/>
       <c r="B8" s="13" t="s">
         <v>68</v>
@@ -1672,6 +1673,39 @@
       <c r="M8" s="17"/>
       <c r="N8" s="16"/>
       <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" ht="60">
+      <c r="A9" s="32"/>
+      <c r="B9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1679,9 +1713,10 @@
     <hyperlink ref="J4:J7" r:id="rId2" display="ibatta@dbi.com"/>
     <hyperlink ref="J8" r:id="rId3"/>
     <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1773,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="products" sheetId="8" r:id="rId4"/>
     <sheet name="cards" sheetId="9" r:id="rId5"/>
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
+    <sheet name="CheckOut.bak" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="139">
   <si>
     <t>TCID</t>
   </si>
@@ -1365,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1673,15 +1674,49 @@
       <c r="N8" s="16"/>
       <c r="O8" s="18"/>
     </row>
+    <row r="9" spans="1:15" ht="60">
+      <c r="A9" s="32"/>
+      <c r="B9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="18"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J4:J7" r:id="rId2" display="ibatta@dbi.com"/>
-    <hyperlink ref="J8" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J4:J7" r:id="rId5" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1773,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2051,4 +2086,360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="12" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="60">
+      <c r="A2" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" ht="60">
+      <c r="A3" s="32"/>
+      <c r="B3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" ht="60">
+      <c r="A4" s="32"/>
+      <c r="B4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" ht="60">
+      <c r="A5" s="32"/>
+      <c r="B5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" ht="60">
+      <c r="A6" s="32"/>
+      <c r="B6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="18"/>
+    </row>
+    <row r="7" spans="1:15" ht="60">
+      <c r="A7" s="32"/>
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" ht="60">
+      <c r="A8" s="32"/>
+      <c r="B8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="60">
+      <c r="A9" s="32"/>
+      <c r="B9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="18"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J4:J7" r:id="rId2" display="ibatta@dbi.com"/>
+    <hyperlink ref="J8" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+</worksheet>
 </file>
--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="5670" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="5" r:id="rId2"/>
     <sheet name="CheckOut" sheetId="7" r:id="rId3"/>
-    <sheet name="products" sheetId="8" r:id="rId4"/>
-    <sheet name="cards" sheetId="9" r:id="rId5"/>
-    <sheet name="addresses" sheetId="10" r:id="rId6"/>
-    <sheet name="CheckOut.bak" sheetId="12" r:id="rId7"/>
+    <sheet name="users" sheetId="13" r:id="rId4"/>
+    <sheet name="products" sheetId="8" r:id="rId5"/>
+    <sheet name="cards" sheetId="9" r:id="rId6"/>
+    <sheet name="addresses" sheetId="10" r:id="rId7"/>
+    <sheet name="CheckOut.bak" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="145">
   <si>
     <t>TCID</t>
   </si>
@@ -448,6 +449,27 @@
     <t>loggedin
 old-user
 saved-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>ibatta</t>
+  </si>
+  <si>
+    <t>loggedin
+old-user
+new-shipping
 new-payment</t>
   </si>
 </sst>
@@ -598,7 +620,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -688,6 +710,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,7 +1394,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1445,7 +1470,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>125</v>
@@ -1460,10 +1485,7 @@
         <v>91</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>101</v>
@@ -1631,7 +1653,9 @@
       <c r="H7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="J7" s="13" t="s">
         <v>101</v>
       </c>
@@ -1722,10 +1746,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1234567</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1804,7 +1878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1946,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2088,7 +2162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="16065" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="products" sheetId="8" r:id="rId4"/>
     <sheet name="cards" sheetId="9" r:id="rId5"/>
     <sheet name="addresses" sheetId="10" r:id="rId6"/>
-    <sheet name="CheckOut.bak" sheetId="12" r:id="rId7"/>
+    <sheet name="CheckOutRegression_bak" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="162">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -445,12 +445,6 @@
     <t>ibatta</t>
   </si>
   <si>
-    <t>loggedin
-old-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
     <t>caseId</t>
   </si>
   <si>
@@ -479,13 +473,56 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>2226</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001255</t>
+  </si>
+  <si>
+    <t>£38.58</t>
+  </si>
+  <si>
+    <t>£10.99</t>
+  </si>
+  <si>
+    <t>Your order includes £6.43 tax.</t>
+  </si>
+  <si>
+    <t>£49.57</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001257</t>
+  </si>
+  <si>
+    <t>£53.36</t>
+  </si>
+  <si>
+    <t>Your order includes £8.89 tax.</t>
+  </si>
+  <si>
+    <t>£64.35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -623,7 +660,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,6 +750,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1069,23 +1115,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
@@ -1340,7 +1386,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId22" display="cc@dd.cc"/>
+    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1355,30 +1401,30 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.74609375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.1953125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.8984375" collapsed="true"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>106</v>
@@ -1404,7 +1450,7 @@
       <c r="I1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="32" t="s">
         <v>108</v>
       </c>
       <c r="K1" s="18" t="s">
@@ -1428,7 +1474,7 @@
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>105</v>
@@ -1437,7 +1483,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>120</v>
@@ -1454,28 +1500,29 @@
       <c r="I2" s="13" t="s">
         <v>87</v>
       </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>148</v>
+      <c r="L2" s="34" t="s">
+        <v>153</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
@@ -1499,23 +1546,31 @@
       <c r="I3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
+      <c r="L3" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
         <v>61</v>
       </c>
@@ -1537,21 +1592,33 @@
       <c r="I4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
+      <c r="L4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="60">
       <c r="A5" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
@@ -1579,15 +1646,25 @@
       <c r="K5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
+      <c r="L5" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
@@ -1615,19 +1692,27 @@
       <c r="K6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
+      <c r="L6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="60">
       <c r="A7" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B7" s="29"/>
       <c r="C7" s="10" t="s">
         <v>64</v>
       </c>
@@ -1655,15 +1740,25 @@
       <c r="K7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
+      <c r="L7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="60">
       <c r="A8" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
@@ -1691,15 +1786,25 @@
       <c r="K8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
+      <c r="L8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="60">
       <c r="A9" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
@@ -1727,19 +1832,29 @@
       <c r="K9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
+      <c r="L9" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId102"/>
-    <hyperlink ref="K9" r:id="rId103"/>
-    <hyperlink ref="K3" r:id="rId104"/>
-    <hyperlink ref="K8" r:id="rId105"/>
-    <hyperlink ref="K4:K7" r:id="rId106" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
@@ -1759,8 +1874,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
@@ -1793,7 +1908,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId21"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1812,9 +1927,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1899,10 +2014,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2044,14 +2159,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2183,31 +2298,31 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>106</v>
@@ -2255,9 +2370,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="90">
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>105</v>
@@ -2266,7 +2381,7 @@
         <v>60</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>120</v>
@@ -2287,24 +2402,24 @@
         <v>96</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="90">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
@@ -2338,9 +2453,9 @@
       <c r="O3" s="13"/>
       <c r="P3" s="15"/>
     </row>
-    <row r="4" spans="1:16" ht="90">
+    <row r="4" spans="1:16" ht="60">
       <c r="A4" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
@@ -2374,11 +2489,13 @@
       <c r="O4" s="13"/>
       <c r="P4" s="15"/>
     </row>
-    <row r="5" spans="1:16" ht="90">
+    <row r="5" spans="1:16" ht="60">
       <c r="A5" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
@@ -2406,15 +2523,25 @@
       <c r="K5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" ht="90">
+      <c r="L5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="60">
       <c r="A6" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
@@ -2448,9 +2575,9 @@
       <c r="O6" s="13"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="90">
+    <row r="7" spans="1:16" ht="60">
       <c r="A7" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="10" t="s">
@@ -2486,9 +2613,9 @@
       <c r="O7" s="13"/>
       <c r="P7" s="15"/>
     </row>
-    <row r="8" spans="1:16" ht="90">
+    <row r="8" spans="1:16" ht="60">
       <c r="A8" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
@@ -2522,9 +2649,9 @@
       <c r="O8" s="13"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="90">
+    <row r="9" spans="1:16" ht="60">
       <c r="A9" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
@@ -2560,11 +2687,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId102"/>
-    <hyperlink ref="K9" r:id="rId103"/>
-    <hyperlink ref="K3" r:id="rId104"/>
-    <hyperlink ref="K8" r:id="rId105"/>
-    <hyperlink ref="K4:K7" r:id="rId106" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K9" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="17010" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -490,33 +490,33 @@
     <t>2226</t>
   </si>
   <si>
+    <t>£10.99</t>
+  </si>
+  <si>
+    <t>£53.36</t>
+  </si>
+  <si>
+    <t>Your order includes £8.89 tax.</t>
+  </si>
+  <si>
+    <t>£64.35</t>
+  </si>
+  <si>
     <t>ORDER NUMBER
-00001255</t>
-  </si>
-  <si>
-    <t>£38.58</t>
-  </si>
-  <si>
-    <t>£10.99</t>
-  </si>
-  <si>
-    <t>Your order includes £6.43 tax.</t>
-  </si>
-  <si>
-    <t>£49.57</t>
+00001269</t>
+  </si>
+  <si>
+    <t>£77.16</t>
+  </si>
+  <si>
+    <t>Your order includes £12.86 tax.</t>
+  </si>
+  <si>
+    <t>£88.15</t>
   </si>
   <si>
     <t>ORDER NUMBER
-00001257</t>
-  </si>
-  <si>
-    <t>£53.36</t>
-  </si>
-  <si>
-    <t>Your order includes £8.89 tax.</t>
-  </si>
-  <si>
-    <t>£64.35</t>
+00001271</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1418,7 @@
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1505,19 +1505,19 @@
         <v>96</v>
       </c>
       <c r="L2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
@@ -1647,19 +1647,19 @@
         <v>96</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60">

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17010" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="22680" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="193">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -517,12 +517,123 @@
   <si>
     <t>ORDER NUMBER
 00001271</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>fresh
+new-user
+new-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>£38.58</t>
+  </si>
+  <si>
+    <t>Your order includes £6.43 tax.</t>
+  </si>
+  <si>
+    <t>£49.57</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001279</t>
+  </si>
+  <si>
+    <t>etqpo5826@random.com</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>guest
+new-user
+new-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>guest user with new visa payment and shipping address</t>
+  </si>
+  <si>
+    <t>fresh user with new visa payment and shipping address</t>
+  </si>
+  <si>
+    <t>guest
+new-user
+new-shipping
+new-payment
+register-guest</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>£5.99</t>
+  </si>
+  <si>
+    <t>£44.57</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001306</t>
+  </si>
+  <si>
+    <t>seaa4686@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001307</t>
+  </si>
+  <si>
+    <t>£143.84</t>
+  </si>
+  <si>
+    <t>Your order includes £23.97 tax.</t>
+  </si>
+  <si>
+    <t>£154.83</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001309</t>
+  </si>
+  <si>
+    <t>£265.89</t>
+  </si>
+  <si>
+    <t>Your order includes £44.31 tax.</t>
+  </si>
+  <si>
+    <t>£276.88</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001311</t>
+  </si>
+  <si>
+    <t>abcdd5688@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001313</t>
+  </si>
+  <si>
+    <t>rtkgh630@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001315</t>
+  </si>
+  <si>
+    <t>sanlct6020@random.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1115,23 +1226,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
@@ -1386,7 +1497,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
+    <hyperlink ref="B3" r:id="rId67" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1398,28 +1509,28 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.26953125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.87890625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.74609375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.8984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
@@ -1505,26 +1616,28 @@
         <v>96</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1551,19 +1664,19 @@
         <v>96</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="60">
@@ -1616,9 +1729,7 @@
       <c r="A5" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>105</v>
-      </c>
+      <c r="B5" s="29"/>
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
@@ -1806,21 +1917,23 @@
       <c r="A9" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>86</v>
@@ -1828,33 +1941,175 @@
       <c r="I9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="60">
+      <c r="A10" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P10" s="14" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="60">
+      <c r="A11" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="75">
+      <c r="A12" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K9" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4"/>
-    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId327"/>
+    <hyperlink ref="K10" r:id="rId328"/>
+    <hyperlink ref="K3" r:id="rId329"/>
+    <hyperlink ref="K8" r:id="rId330"/>
+    <hyperlink ref="K4:K7" r:id="rId331" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
@@ -1874,8 +2129,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1">
@@ -1908,7 +2163,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,9 +2182,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2014,10 +2269,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2159,14 +2414,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2304,20 +2559,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
@@ -2687,11 +2942,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K9" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4"/>
-    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId327"/>
+    <hyperlink ref="K9" r:id="rId328"/>
+    <hyperlink ref="K3" r:id="rId329"/>
+    <hyperlink ref="K8" r:id="rId330"/>
+    <hyperlink ref="K4:K7" r:id="rId331" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="25515" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="184">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -433,9 +433,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -500,19 +497,6 @@
   </si>
   <si>
     <t>£64.35</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001269</t>
-  </si>
-  <si>
-    <t>£77.16</t>
-  </si>
-  <si>
-    <t>Your order includes £12.86 tax.</t>
-  </si>
-  <si>
-    <t>£88.15</t>
   </si>
   <si>
     <t>ORDER NUMBER
@@ -535,13 +519,6 @@
   </si>
   <si>
     <t>£49.57</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001279</t>
-  </si>
-  <si>
-    <t>etqpo5826@random.com</t>
   </si>
   <si>
     <t>T10</t>
@@ -576,26 +553,6 @@
   </si>
   <si>
     <t>ORDER NUMBER
-00001306</t>
-  </si>
-  <si>
-    <t>seaa4686@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001307</t>
-  </si>
-  <si>
-    <t>£143.84</t>
-  </si>
-  <si>
-    <t>Your order includes £23.97 tax.</t>
-  </si>
-  <si>
-    <t>£154.83</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
 00001309</t>
   </si>
   <si>
@@ -627,13 +584,25 @@
   </si>
   <si>
     <t>sanlct6020@random.com</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001323</t>
+  </si>
+  <si>
+    <t>takqima2212@random.com</t>
+  </si>
+  <si>
+    <t>userName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1226,23 +1195,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
@@ -1497,7 +1466,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId67" display="cc@dd.cc"/>
+    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1511,31 +1480,31 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="24.26953125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.87890625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.74609375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.8984375" collapsed="true"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>106</v>
@@ -1585,11 +1554,9 @@
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B2" s="29"/>
       <c r="C2" s="10" t="s">
         <v>60</v>
       </c>
@@ -1616,28 +1583,26 @@
         <v>96</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
         <v>60</v>
       </c>
@@ -1664,24 +1629,24 @@
         <v>96</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
@@ -1710,24 +1675,24 @@
         <v>96</v>
       </c>
       <c r="L4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="60">
       <c r="A5" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="10" t="s">
@@ -1758,24 +1723,24 @@
         <v>96</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>155</v>
-      </c>
       <c r="P5" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
@@ -1804,24 +1769,24 @@
         <v>96</v>
       </c>
       <c r="L6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60">
       <c r="A7" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="10" t="s">
@@ -1852,24 +1817,24 @@
         <v>96</v>
       </c>
       <c r="L7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P7" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="60">
       <c r="A8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
@@ -1898,33 +1863,33 @@
         <v>96</v>
       </c>
       <c r="L8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="O8" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="P8" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="60">
       <c r="A9" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>120</v>
@@ -1943,27 +1908,27 @@
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="60">
       <c r="A10" s="29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
@@ -1992,33 +1957,31 @@
         <v>96</v>
       </c>
       <c r="L10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="O10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="P10" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="60">
       <c r="A11" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>120</v>
@@ -2037,36 +2000,34 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="10" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="75">
       <c r="A12" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>120</v>
@@ -2085,31 +2046,31 @@
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="10" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId327"/>
-    <hyperlink ref="K10" r:id="rId328"/>
-    <hyperlink ref="K3" r:id="rId329"/>
-    <hyperlink ref="K8" r:id="rId330"/>
-    <hyperlink ref="K4:K7" r:id="rId331" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K10" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
@@ -2121,51 +2082,72 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1234567</v>
-      </c>
-      <c r="D2" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId66"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2182,9 +2164,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2269,10 +2251,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2414,14 +2396,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2551,33 +2533,33 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>106</v>
@@ -2603,7 +2585,7 @@
       <c r="I1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="32" t="s">
         <v>108</v>
       </c>
       <c r="K1" s="18" t="s">
@@ -2627,7 +2609,7 @@
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>105</v>
@@ -2653,30 +2635,33 @@
       <c r="I2" s="13" t="s">
         <v>87</v>
       </c>
+      <c r="J2" s="5"/>
       <c r="K2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>147</v>
+      <c r="L2" s="34" t="s">
+        <v>146</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="29"/>
+        <v>139</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>60</v>
       </c>
@@ -2698,19 +2683,29 @@
       <c r="I3" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="13"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="15"/>
+      <c r="L3" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
@@ -2734,23 +2729,31 @@
       <c r="I4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="13"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="1:16" ht="60">
+      <c r="L4" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="75">
       <c r="A5" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B5" s="29"/>
       <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
@@ -2778,25 +2781,25 @@
       <c r="K5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>147</v>
+      <c r="L5" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>147</v>
+        <v>153</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
@@ -2824,15 +2827,25 @@
       <c r="K6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15"/>
+      <c r="L6" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="60">
       <c r="A7" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="10" t="s">
@@ -2862,15 +2875,25 @@
       <c r="K7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15"/>
+      <c r="L7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="60">
       <c r="A8" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
@@ -2898,31 +2921,43 @@
       <c r="K8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" spans="1:16" ht="60">
+      <c r="L8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="75">
       <c r="A9" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="C9" s="10" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>86</v>
@@ -2930,23 +2965,175 @@
       <c r="I9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="60">
+      <c r="A10" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="15"/>
+      <c r="L10" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="60">
+      <c r="A11" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="75">
+      <c r="A12" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId327"/>
-    <hyperlink ref="K9" r:id="rId328"/>
-    <hyperlink ref="K3" r:id="rId329"/>
-    <hyperlink ref="K8" r:id="rId330"/>
-    <hyperlink ref="K4:K7" r:id="rId331" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K10" r:id="rId2"/>
+    <hyperlink ref="K3" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="25515" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="27405" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="275">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -200,22 +200,10 @@
     <t>diner</t>
   </si>
   <si>
-    <t>test_gc</t>
-  </si>
-  <si>
     <t>logged in user with saved visa payment and shipping address</t>
   </si>
   <si>
     <t>logged in user with saved master payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved amex payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved maistro payment and shipping address</t>
-  </si>
-  <si>
-    <t>logged in user with saved diner payment and shipping address</t>
   </si>
   <si>
     <t>card</t>
@@ -403,9 +391,6 @@
     <t>Size XL, £26.68  99</t>
   </si>
   <si>
-    <t>invalid</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -472,53 +457,7 @@
     <t/>
   </si>
   <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>2223</t>
-  </si>
-  <si>
-    <t>2224</t>
-  </si>
-  <si>
-    <t>2225</t>
-  </si>
-  <si>
-    <t>2226</t>
-  </si>
-  <si>
-    <t>£10.99</t>
-  </si>
-  <si>
-    <t>£53.36</t>
-  </si>
-  <si>
-    <t>Your order includes £8.89 tax.</t>
-  </si>
-  <si>
-    <t>£64.35</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001271</t>
-  </si>
-  <si>
     <t>T9</t>
-  </si>
-  <si>
-    <t>fresh
-new-user
-new-shipping
-new-payment</t>
-  </si>
-  <si>
-    <t>£38.58</t>
-  </si>
-  <si>
-    <t>Your order includes £6.43 tax.</t>
-  </si>
-  <si>
-    <t>£49.57</t>
   </si>
   <si>
     <t>T10</t>
@@ -530,30 +469,357 @@
 new-payment</t>
   </si>
   <si>
-    <t>guest user with new visa payment and shipping address</t>
-  </si>
-  <si>
-    <t>fresh user with new visa payment and shipping address</t>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>logged in user with saved visa payment and shipping address same address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logged in user with saved visa payment and shipping address different addresses </t>
+  </si>
+  <si>
+    <t>loggedin
+old-user
+saved-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>loggedin
+old-user
+new-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>fresh
+old-user
+new-shipping
+new-payment</t>
   </si>
   <si>
     <t>guest
-new-user
+old-user
 new-shipping
-new-payment
-register-guest</t>
-  </si>
-  <si>
-    <t>T11</t>
+new-payment</t>
+  </si>
+  <si>
+    <t>fresh user with saved visa payment and shipping address same address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh user with saved visa payment and shipping address different addresses </t>
+  </si>
+  <si>
+    <t>fresh user with saved visa payment and shipping address</t>
+  </si>
+  <si>
+    <t>guest user with saved visa payment and shipping address same address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest user with saved visa payment and shipping address different addresses </t>
+  </si>
+  <si>
+    <t>guest user with saved visa payment and shipping address</t>
+  </si>
+  <si>
+    <t>logged in user with saved master payment and shipping address same address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logged in user with saved master payment and shipping address different addresses </t>
+  </si>
+  <si>
+    <t>fresh user with saved master payment and shipping address same address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresh user with saved master payment and shipping address different addresses </t>
+  </si>
+  <si>
+    <t>fresh user with saved master payment and shipping address</t>
+  </si>
+  <si>
+    <t>guest user with saved master payment and shipping address same address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest user with saved master payment and shipping address different addresses </t>
+  </si>
+  <si>
+    <t>guest user with saved master payment and shipping address</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001325</t>
+  </si>
+  <si>
+    <t>£77.16</t>
+  </si>
+  <si>
+    <t>£10.99</t>
+  </si>
+  <si>
+    <t>Your order includes £12.86 tax.</t>
+  </si>
+  <si>
+    <t>£88.15</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001327</t>
+  </si>
+  <si>
+    <t>£38.58</t>
   </si>
   <si>
     <t>£5.99</t>
   </si>
   <si>
+    <t>Your order includes £6.43 tax.</t>
+  </si>
+  <si>
     <t>£44.57</t>
   </si>
   <si>
     <t>ORDER NUMBER
-00001309</t>
+00001329</t>
+  </si>
+  <si>
+    <t>£49.57</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001331</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001333</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001335</t>
+  </si>
+  <si>
+    <t>£83.15</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001337</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001339</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001341</t>
+  </si>
+  <si>
+    <t>wnsko4129@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001343</t>
+  </si>
+  <si>
+    <t>estpg9843@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001345</t>
+  </si>
+  <si>
+    <t>mjued3851@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001347</t>
+  </si>
+  <si>
+    <t>dmlp4981@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001349</t>
+  </si>
+  <si>
+    <t>rtkgh2395@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001351</t>
+  </si>
+  <si>
+    <t>repbm501@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001353</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001355</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001357</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001359</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001361</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001363</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001365</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001367</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001369</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001371</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001373</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001375</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001377</t>
+  </si>
+  <si>
+    <t>nogqi3172@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001379</t>
+  </si>
+  <si>
+    <t>cvsg7052@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001381</t>
+  </si>
+  <si>
+    <t>lawb1695@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001383</t>
+  </si>
+  <si>
+    <t>esdt4767@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001386</t>
+  </si>
+  <si>
+    <t>voptht2336@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001388</t>
+  </si>
+  <si>
+    <t>dmlp811@random.com</t>
   </si>
   <si>
     <t>£265.89</t>
@@ -562,47 +828,104 @@
     <t>Your order includes £44.31 tax.</t>
   </si>
   <si>
-    <t>£276.88</t>
+    <t>£271.88</t>
   </si>
   <si>
     <t>ORDER NUMBER
-00001311</t>
-  </si>
-  <si>
-    <t>abcdd5688@random.com</t>
+00001390</t>
   </si>
   <si>
     <t>ORDER NUMBER
-00001313</t>
-  </si>
-  <si>
-    <t>rtkgh630@random.com</t>
+00001392</t>
   </si>
   <si>
     <t>ORDER NUMBER
-00001315</t>
-  </si>
-  <si>
-    <t>sanlct6020@random.com</t>
-  </si>
-  <si>
-    <t>1234567</t>
+00001394</t>
   </si>
   <si>
     <t>ORDER NUMBER
-00001323</t>
-  </si>
-  <si>
-    <t>takqima2212@random.com</t>
-  </si>
-  <si>
-    <t>userName</t>
+00001396</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001398</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001400</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001402</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001404</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001406</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001408</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001412</t>
+  </si>
+  <si>
+    <t>aiqyam1897@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001415</t>
+  </si>
+  <si>
+    <t>lawb3475@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001417</t>
+  </si>
+  <si>
+    <t>nogqi7673@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001419</t>
+  </si>
+  <si>
+    <t>seaa3333@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001421</t>
+  </si>
+  <si>
+    <t>sehe7061@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001423</t>
+  </si>
+  <si>
+    <t>posrt100@random.com</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001425</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001427</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -740,7 +1063,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,9 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1195,23 +1515,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
@@ -1466,7 +1786,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
+    <hyperlink ref="B3" r:id="rId571" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1478,36 +1798,36 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.3359375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.87890625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.74609375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.8984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>53</v>
@@ -1519,52 +1839,54 @@
         <v>46</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>50</v>
@@ -1573,44 +1895,46 @@
         <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>146</v>
+        <v>92</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>251</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="29"/>
+        <v>134</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>50</v>
@@ -1619,280 +1943,286 @@
         <v>54</v>
       </c>
       <c r="H3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="60">
-      <c r="A4" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="33"/>
+        <v>82</v>
+      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="M4" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="60">
-      <c r="A5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="60">
-      <c r="A6" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="G7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="D8" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="60">
-      <c r="A7" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="60">
-      <c r="A8" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="60">
-      <c r="A9" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>50</v>
@@ -1901,179 +2231,1450 @@
         <v>54</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>181</v>
+        <v>92</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="60">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A10" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>258</v>
       </c>
       <c r="M10" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="6" customFormat="1" ht="60">
+      <c r="A11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="60">
-      <c r="A11" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="E11" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>176</v>
+        <v>92</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>259</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="75">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="60">
       <c r="A12" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="60">
+      <c r="A13" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10" t="s">
+      <c r="G13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="60">
+      <c r="A14" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="60">
+      <c r="A15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="60">
+      <c r="A16" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="60">
+      <c r="A17" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="60">
+      <c r="A18" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="60">
+      <c r="A19" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="60">
+      <c r="A20" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="60">
+      <c r="A21" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="60">
+      <c r="A22" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="60">
+      <c r="A23" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="60">
+      <c r="A24" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="B24" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="60">
+      <c r="A25" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="60">
+      <c r="A26" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="P12" s="14" t="s">
-        <v>168</v>
+      <c r="D26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="60">
+      <c r="A27" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="60">
+      <c r="A28" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="60">
+      <c r="A29" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="60">
+      <c r="A30" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="60">
+      <c r="A31" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="60">
+      <c r="A32" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="60">
+      <c r="A33" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="60">
+      <c r="A34" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="60">
+      <c r="A35" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="60">
+      <c r="A36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60">
+      <c r="A37" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="60">
+      <c r="A38" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K10" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4"/>
-    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId13658"/>
+    <hyperlink ref="K3" r:id="rId13659"/>
+    <hyperlink ref="K4" r:id="rId13660"/>
+    <hyperlink ref="K5" r:id="rId13661"/>
+    <hyperlink ref="K6" r:id="rId13662"/>
+    <hyperlink ref="K7" r:id="rId13663"/>
+    <hyperlink ref="K8" r:id="rId13664"/>
+    <hyperlink ref="K9" r:id="rId13665"/>
+    <hyperlink ref="K10" r:id="rId13666"/>
+    <hyperlink ref="K11" r:id="rId13667"/>
+    <hyperlink ref="K12" r:id="rId13668"/>
+    <hyperlink ref="K13" r:id="rId13669"/>
+    <hyperlink ref="K20" r:id="rId13670"/>
+    <hyperlink ref="K21" r:id="rId13671"/>
+    <hyperlink ref="K22" r:id="rId13672"/>
+    <hyperlink ref="K23" r:id="rId13673"/>
+    <hyperlink ref="K24" r:id="rId13674"/>
+    <hyperlink ref="K25" r:id="rId13675"/>
+    <hyperlink ref="K26" r:id="rId13676"/>
+    <hyperlink ref="K27" r:id="rId13677"/>
+    <hyperlink ref="K28" r:id="rId13678"/>
+    <hyperlink ref="K29" r:id="rId13679"/>
+    <hyperlink ref="K30" r:id="rId13680"/>
+    <hyperlink ref="K31" r:id="rId13681"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -2084,16 +3685,16 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -2101,33 +3702,33 @@
         <v>44</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>11</v>
@@ -2136,15 +3737,15 @@
         <v>12</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId571"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -2164,9 +3765,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2191,16 +3792,16 @@
         <v>40</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -2208,29 +3809,29 @@
         <v>47</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2251,30 +3852,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2282,19 +3883,19 @@
         <v>54</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2302,19 +3903,19 @@
         <v>55</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2322,19 +3923,19 @@
         <v>57</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2342,19 +3943,19 @@
         <v>56</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2362,19 +3963,19 @@
         <v>58</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2396,48 +3997,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="I1" s="30" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>11</v>
@@ -2446,27 +4047,27 @@
         <v>12</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>11</v>
@@ -2475,27 +4076,27 @@
         <v>12</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>11</v>
@@ -2504,22 +4105,22 @@
         <v>12</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G4" s="25">
         <v>10167</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2533,36 +4134,36 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:P12"/>
+    <sheetView topLeftCell="A37" zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>53</v>
@@ -2574,54 +4175,52 @@
         <v>46</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A2" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>50</v>
@@ -2630,46 +4229,44 @@
         <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>146</v>
+        <v>92</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="E3" s="23" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>50</v>
@@ -2678,280 +4275,274 @@
         <v>54</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="J3" s="5"/>
       <c r="K3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>170</v>
+        <v>92</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="33"/>
+        <v>82</v>
+      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="60">
       <c r="A5" s="29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="10" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>59</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J5" s="5"/>
       <c r="K5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>156</v>
+        <v>92</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="J6" s="5"/>
       <c r="K6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="60">
       <c r="A7" s="29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>125</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="60">
       <c r="A8" s="29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60">
+      <c r="A9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="75">
-      <c r="A9" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="E9" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>50</v>
@@ -2960,182 +4551,1367 @@
         <v>54</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>174</v>
+        <v>92</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="60">
       <c r="A10" s="29" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="60">
       <c r="A11" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>176</v>
+        <v>92</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="75">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="60">
       <c r="A12" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="60">
+      <c r="A13" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10" t="s">
+      <c r="G13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="60">
+      <c r="A14" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="60">
+      <c r="A15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="60">
+      <c r="A16" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="60">
+      <c r="A17" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="60">
+      <c r="A18" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="60">
+      <c r="A19" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="60">
+      <c r="A20" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="60">
+      <c r="A21" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="60">
+      <c r="A22" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="60">
+      <c r="A23" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="60">
+      <c r="A24" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="O12" s="14" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="60">
+      <c r="A25" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O25" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="60">
+      <c r="A26" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="P12" s="14" t="s">
-        <v>168</v>
+      <c r="D26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="60">
+      <c r="A27" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="60">
+      <c r="A28" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="60">
+      <c r="A29" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="60">
+      <c r="A30" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="60">
+      <c r="A31" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="60">
+      <c r="A32" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="60">
+      <c r="A33" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="60">
+      <c r="A34" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="60">
+      <c r="A35" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P35" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="60">
+      <c r="A36" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60">
+      <c r="A37" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="60">
+      <c r="A38" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K10" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4"/>
-    <hyperlink ref="K4:K7" r:id="rId5" display="ibatta@dbi.com"/>
+    <hyperlink ref="K2" r:id="rId13658"/>
+    <hyperlink ref="K3" r:id="rId13659"/>
+    <hyperlink ref="K4" r:id="rId13660"/>
+    <hyperlink ref="K5" r:id="rId13661"/>
+    <hyperlink ref="K6" r:id="rId13662"/>
+    <hyperlink ref="K7" r:id="rId13663"/>
+    <hyperlink ref="K8" r:id="rId13664"/>
+    <hyperlink ref="K9" r:id="rId13665"/>
+    <hyperlink ref="K10" r:id="rId13666"/>
+    <hyperlink ref="K11" r:id="rId13667"/>
+    <hyperlink ref="K12" r:id="rId13668"/>
+    <hyperlink ref="K13" r:id="rId13669"/>
+    <hyperlink ref="K20" r:id="rId13670"/>
+    <hyperlink ref="K21" r:id="rId13671"/>
+    <hyperlink ref="K22" r:id="rId13672"/>
+    <hyperlink ref="K23" r:id="rId13673"/>
+    <hyperlink ref="K24" r:id="rId13674"/>
+    <hyperlink ref="K25" r:id="rId13675"/>
+    <hyperlink ref="K26" r:id="rId13676"/>
+    <hyperlink ref="K27" r:id="rId13677"/>
+    <hyperlink ref="K28" r:id="rId13678"/>
+    <hyperlink ref="K29" r:id="rId13679"/>
+    <hyperlink ref="K30" r:id="rId13680"/>
+    <hyperlink ref="K31" r:id="rId13681"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId25"/>
 </worksheet>
 </file>
--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="27405" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="28350" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="250">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -628,10 +628,6 @@
     <t>T37</t>
   </si>
   <si>
-    <t>ORDER NUMBER
-00001325</t>
-  </si>
-  <si>
     <t>£77.16</t>
   </si>
   <si>
@@ -644,10 +640,6 @@
     <t>£88.15</t>
   </si>
   <si>
-    <t>ORDER NUMBER
-00001327</t>
-  </si>
-  <si>
     <t>£38.58</t>
   </si>
   <si>
@@ -660,92 +652,7 @@
     <t>£44.57</t>
   </si>
   <si>
-    <t>ORDER NUMBER
-00001329</t>
-  </si>
-  <si>
     <t>£49.57</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001331</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001333</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001335</t>
-  </si>
-  <si>
-    <t>£83.15</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001337</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001339</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001341</t>
-  </si>
-  <si>
-    <t>wnsko4129@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001343</t>
-  </si>
-  <si>
-    <t>estpg9843@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001345</t>
-  </si>
-  <si>
-    <t>mjued3851@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001347</t>
-  </si>
-  <si>
-    <t>dmlp4981@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001349</t>
-  </si>
-  <si>
-    <t>rtkgh2395@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001351</t>
-  </si>
-  <si>
-    <t>repbm501@random.com</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001353</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001355</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001357</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001359</t>
   </si>
   <si>
     <t>ORDER NUMBER
@@ -925,7 +832,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1515,23 +1421,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
@@ -1786,7 +1692,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId571" display="cc@dd.cc"/>
+    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1800,26 +1706,26 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.3359375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.87890625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.74609375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.8984375" collapsed="true"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
@@ -1905,28 +1811,26 @@
         <v>92</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O2" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P2" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
         <v>149</v>
       </c>
@@ -1953,28 +1857,26 @@
         <v>92</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N3" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P3" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A4" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
@@ -2001,28 +1903,26 @@
         <v>92</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N4" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P4" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A5" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B5" s="29"/>
       <c r="C5" s="10" t="s">
         <v>148</v>
       </c>
@@ -2049,28 +1949,26 @@
         <v>92</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N5" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O5" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P5" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A6" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
         <v>149</v>
       </c>
@@ -2097,28 +1995,26 @@
         <v>92</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N6" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P6" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A7" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B7" s="29"/>
       <c r="C7" s="10" t="s">
         <v>59</v>
       </c>
@@ -2145,28 +2041,26 @@
         <v>92</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P7" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A8" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
         <v>148</v>
       </c>
@@ -2212,9 +2106,7 @@
       <c r="A9" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
         <v>149</v>
       </c>
@@ -2241,28 +2133,26 @@
         <v>92</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N9" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A10" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
         <v>59</v>
       </c>
@@ -2289,28 +2179,26 @@
         <v>92</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N10" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O10" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P10" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="6" customFormat="1" ht="60">
       <c r="A11" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="10" t="s">
         <v>148</v>
       </c>
@@ -2337,28 +2225,26 @@
         <v>92</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N11" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P11" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="60">
       <c r="A12" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
         <v>149</v>
       </c>
@@ -2385,28 +2271,26 @@
         <v>92</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N12" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P12" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="60">
       <c r="A13" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
@@ -2452,9 +2336,7 @@
       <c r="A14" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="10" t="s">
         <v>154</v>
       </c>
@@ -2478,31 +2360,29 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="10" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N14" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P14" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="60">
       <c r="A15" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="10" t="s">
         <v>155</v>
       </c>
@@ -2526,31 +2406,29 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="10" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N15" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O15" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="60">
       <c r="A16" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B16" s="29"/>
       <c r="C16" s="10" t="s">
         <v>156</v>
       </c>
@@ -2574,31 +2452,29 @@
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="10" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N16" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O16" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P16" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="60">
       <c r="A17" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B17" s="29"/>
       <c r="C17" s="10" t="s">
         <v>157</v>
       </c>
@@ -2622,31 +2498,29 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="10" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N17" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O17" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P17" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="60">
       <c r="A18" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B18" s="29"/>
       <c r="C18" s="10" t="s">
         <v>158</v>
       </c>
@@ -2670,31 +2544,29 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="10" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N18" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O18" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P18" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="60">
       <c r="A19" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B19" s="29"/>
       <c r="C19" s="10" t="s">
         <v>159</v>
       </c>
@@ -2718,31 +2590,29 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="10" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N19" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P19" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="60">
       <c r="A20" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B20" s="29"/>
       <c r="C20" s="10" t="s">
         <v>160</v>
       </c>
@@ -2788,9 +2658,7 @@
       <c r="A21" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B21" s="29"/>
       <c r="C21" s="10" t="s">
         <v>161</v>
       </c>
@@ -2817,28 +2685,26 @@
         <v>92</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N21" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="P21" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="60">
       <c r="A22" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B22" s="29"/>
       <c r="C22" s="10" t="s">
         <v>60</v>
       </c>
@@ -2865,28 +2731,26 @@
         <v>92</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M22" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N22" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O22" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P22" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="60">
       <c r="A23" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B23" s="29"/>
       <c r="C23" s="10" t="s">
         <v>160</v>
       </c>
@@ -2932,9 +2796,7 @@
       <c r="A24" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B24" s="29"/>
       <c r="C24" s="10" t="s">
         <v>161</v>
       </c>
@@ -2961,28 +2823,26 @@
         <v>92</v>
       </c>
       <c r="L24" s="33" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N24" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O24" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P24" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="60">
       <c r="A25" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B25" s="29"/>
       <c r="C25" s="10" t="s">
         <v>60</v>
       </c>
@@ -3009,28 +2869,26 @@
         <v>92</v>
       </c>
       <c r="L25" s="33" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N25" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O25" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P25" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="60">
       <c r="A26" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B26" s="29"/>
       <c r="C26" s="10" t="s">
         <v>160</v>
       </c>
@@ -3057,28 +2915,26 @@
         <v>92</v>
       </c>
       <c r="L26" s="33" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N26" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O26" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P26" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="60">
       <c r="A27" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B27" s="29"/>
       <c r="C27" s="10" t="s">
         <v>161</v>
       </c>
@@ -3105,28 +2961,26 @@
         <v>92</v>
       </c>
       <c r="L27" s="33" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N27" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O27" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P27" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="60">
       <c r="A28" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B28" s="29"/>
       <c r="C28" s="10" t="s">
         <v>60</v>
       </c>
@@ -3153,28 +3007,26 @@
         <v>92</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N28" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O28" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P28" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="60">
       <c r="A29" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B29" s="29"/>
       <c r="C29" s="10" t="s">
         <v>160</v>
       </c>
@@ -3201,28 +3053,26 @@
         <v>92</v>
       </c>
       <c r="L29" s="33" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O29" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P29" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="60">
       <c r="A30" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B30" s="29"/>
       <c r="C30" s="10" t="s">
         <v>161</v>
       </c>
@@ -3249,28 +3099,26 @@
         <v>92</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N30" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O30" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P30" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="60">
       <c r="A31" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B31" s="29"/>
       <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
@@ -3297,28 +3145,26 @@
         <v>92</v>
       </c>
       <c r="L31" s="33" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N31" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O31" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O31" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P31" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="60">
       <c r="A32" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B32" s="29"/>
       <c r="C32" s="10" t="s">
         <v>162</v>
       </c>
@@ -3342,31 +3188,29 @@
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="10" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="L32" s="33" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O32" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O32" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P32" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="60">
       <c r="A33" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B33" s="29"/>
       <c r="C33" s="10" t="s">
         <v>163</v>
       </c>
@@ -3390,31 +3234,29 @@
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="10" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="L33" s="33" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N33" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O33" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P33" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="60">
       <c r="A34" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B34" s="29"/>
       <c r="C34" s="10" t="s">
         <v>164</v>
       </c>
@@ -3438,31 +3280,29 @@
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="10" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N34" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O34" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P34" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="60">
       <c r="A35" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B35" s="29"/>
       <c r="C35" s="10" t="s">
         <v>165</v>
       </c>
@@ -3486,31 +3326,29 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="10" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="L35" s="33" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N35" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O35" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O35" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P35" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="60">
       <c r="A36" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B36" s="29"/>
       <c r="C36" s="10" t="s">
         <v>166</v>
       </c>
@@ -3554,9 +3392,7 @@
       <c r="A37" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B37" s="29"/>
       <c r="C37" s="10" t="s">
         <v>167</v>
       </c>
@@ -3580,31 +3416,29 @@
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="10" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L37" s="33" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N37" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="O37" s="14" t="s">
-        <v>202</v>
-      </c>
       <c r="P37" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="60">
       <c r="A38" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>101</v>
-      </c>
+      <c r="B38" s="29"/>
       <c r="C38" s="10" t="s">
         <v>167</v>
       </c>
@@ -3628,50 +3462,50 @@
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="10" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="L38" s="33" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="N38" s="14" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="P38" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId13658"/>
-    <hyperlink ref="K3" r:id="rId13659"/>
-    <hyperlink ref="K4" r:id="rId13660"/>
-    <hyperlink ref="K5" r:id="rId13661"/>
-    <hyperlink ref="K6" r:id="rId13662"/>
-    <hyperlink ref="K7" r:id="rId13663"/>
-    <hyperlink ref="K8" r:id="rId13664"/>
-    <hyperlink ref="K9" r:id="rId13665"/>
-    <hyperlink ref="K10" r:id="rId13666"/>
-    <hyperlink ref="K11" r:id="rId13667"/>
-    <hyperlink ref="K12" r:id="rId13668"/>
-    <hyperlink ref="K13" r:id="rId13669"/>
-    <hyperlink ref="K20" r:id="rId13670"/>
-    <hyperlink ref="K21" r:id="rId13671"/>
-    <hyperlink ref="K22" r:id="rId13672"/>
-    <hyperlink ref="K23" r:id="rId13673"/>
-    <hyperlink ref="K24" r:id="rId13674"/>
-    <hyperlink ref="K25" r:id="rId13675"/>
-    <hyperlink ref="K26" r:id="rId13676"/>
-    <hyperlink ref="K27" r:id="rId13677"/>
-    <hyperlink ref="K28" r:id="rId13678"/>
-    <hyperlink ref="K29" r:id="rId13679"/>
-    <hyperlink ref="K30" r:id="rId13680"/>
-    <hyperlink ref="K31" r:id="rId13681"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K20" r:id="rId13"/>
+    <hyperlink ref="K21" r:id="rId14"/>
+    <hyperlink ref="K22" r:id="rId15"/>
+    <hyperlink ref="K23" r:id="rId16"/>
+    <hyperlink ref="K24" r:id="rId17"/>
+    <hyperlink ref="K25" r:id="rId18"/>
+    <hyperlink ref="K26" r:id="rId19"/>
+    <hyperlink ref="K27" r:id="rId20"/>
+    <hyperlink ref="K28" r:id="rId21"/>
+    <hyperlink ref="K29" r:id="rId22"/>
+    <hyperlink ref="K30" r:id="rId23"/>
+    <hyperlink ref="K31" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId25"/>
@@ -3691,10 +3525,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3745,7 +3579,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId571"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -3765,9 +3599,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3852,10 +3686,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3997,14 +3831,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4142,20 +3976,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
@@ -5886,30 +5720,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId13658"/>
-    <hyperlink ref="K3" r:id="rId13659"/>
-    <hyperlink ref="K4" r:id="rId13660"/>
-    <hyperlink ref="K5" r:id="rId13661"/>
-    <hyperlink ref="K6" r:id="rId13662"/>
-    <hyperlink ref="K7" r:id="rId13663"/>
-    <hyperlink ref="K8" r:id="rId13664"/>
-    <hyperlink ref="K9" r:id="rId13665"/>
-    <hyperlink ref="K10" r:id="rId13666"/>
-    <hyperlink ref="K11" r:id="rId13667"/>
-    <hyperlink ref="K12" r:id="rId13668"/>
-    <hyperlink ref="K13" r:id="rId13669"/>
-    <hyperlink ref="K20" r:id="rId13670"/>
-    <hyperlink ref="K21" r:id="rId13671"/>
-    <hyperlink ref="K22" r:id="rId13672"/>
-    <hyperlink ref="K23" r:id="rId13673"/>
-    <hyperlink ref="K24" r:id="rId13674"/>
-    <hyperlink ref="K25" r:id="rId13675"/>
-    <hyperlink ref="K26" r:id="rId13676"/>
-    <hyperlink ref="K27" r:id="rId13677"/>
-    <hyperlink ref="K28" r:id="rId13678"/>
-    <hyperlink ref="K29" r:id="rId13679"/>
-    <hyperlink ref="K30" r:id="rId13680"/>
-    <hyperlink ref="K31" r:id="rId13681"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId4"/>
+    <hyperlink ref="K6" r:id="rId5"/>
+    <hyperlink ref="K7" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId8"/>
+    <hyperlink ref="K10" r:id="rId9"/>
+    <hyperlink ref="K11" r:id="rId10"/>
+    <hyperlink ref="K12" r:id="rId11"/>
+    <hyperlink ref="K13" r:id="rId12"/>
+    <hyperlink ref="K20" r:id="rId13"/>
+    <hyperlink ref="K21" r:id="rId14"/>
+    <hyperlink ref="K22" r:id="rId15"/>
+    <hyperlink ref="K23" r:id="rId16"/>
+    <hyperlink ref="K24" r:id="rId17"/>
+    <hyperlink ref="K25" r:id="rId18"/>
+    <hyperlink ref="K26" r:id="rId19"/>
+    <hyperlink ref="K27" r:id="rId20"/>
+    <hyperlink ref="K28" r:id="rId21"/>
+    <hyperlink ref="K29" r:id="rId22"/>
+    <hyperlink ref="K30" r:id="rId23"/>
+    <hyperlink ref="K31" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId25"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28350" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="33030" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="255">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -739,14 +739,6 @@
   </si>
   <si>
     <t>ORDER NUMBER
-00001390</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
-00001392</t>
-  </si>
-  <si>
-    <t>ORDER NUMBER
 00001394</t>
   </si>
   <si>
@@ -826,12 +818,37 @@
   <si>
     <t>ORDER NUMBER
 00001427</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001478</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001534</t>
+  </si>
+  <si>
+    <t>ORDER NUMBER
+00001572</t>
+  </si>
+  <si>
+    <t>£115.74</t>
+  </si>
+  <si>
+    <t>Your order includes £19.29 tax.</t>
+  </si>
+  <si>
+    <t>£126.73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1421,23 +1438,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.7109375" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="9" customFormat="1">
@@ -1692,7 +1709,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="cc@dd.cc"/>
+    <hyperlink ref="B3" r:id="rId32" display="cc@dd.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1704,28 +1721,28 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B38"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.87890625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.74609375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.8984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
@@ -1811,16 +1828,16 @@
         <v>92</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>195</v>
@@ -1830,7 +1847,9 @@
       <c r="A3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>149</v>
       </c>
@@ -1857,19 +1876,19 @@
         <v>92</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" ht="60">
@@ -1903,7 +1922,7 @@
         <v>92</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>201</v>
@@ -1949,7 +1968,7 @@
         <v>92</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M5" s="14" t="s">
         <v>202</v>
@@ -1995,7 +2014,7 @@
         <v>92</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>202</v>
@@ -2041,7 +2060,7 @@
         <v>92</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M7" s="14" t="s">
         <v>201</v>
@@ -2133,7 +2152,7 @@
         <v>92</v>
       </c>
       <c r="L9" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M9" s="14" t="s">
         <v>197</v>
@@ -2179,7 +2198,7 @@
         <v>92</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>201</v>
@@ -2225,7 +2244,7 @@
         <v>92</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>202</v>
@@ -2271,7 +2290,7 @@
         <v>92</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M12" s="14" t="s">
         <v>202</v>
@@ -2360,10 +2379,10 @@
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>202</v>
@@ -2406,10 +2425,10 @@
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>202</v>
@@ -2452,10 +2471,10 @@
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M16" s="14" t="s">
         <v>201</v>
@@ -2498,10 +2517,10 @@
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>202</v>
@@ -2544,10 +2563,10 @@
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>202</v>
@@ -2590,10 +2609,10 @@
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>201</v>
@@ -2685,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>197</v>
@@ -2731,7 +2750,7 @@
         <v>92</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>201</v>
@@ -3480,32 +3499,76 @@
         <v>199</v>
       </c>
     </row>
+    <row r="39" spans="1:16" ht="60">
+      <c r="A39" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M39" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O39" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K20" r:id="rId13"/>
-    <hyperlink ref="K21" r:id="rId14"/>
-    <hyperlink ref="K22" r:id="rId15"/>
-    <hyperlink ref="K23" r:id="rId16"/>
-    <hyperlink ref="K24" r:id="rId17"/>
-    <hyperlink ref="K25" r:id="rId18"/>
-    <hyperlink ref="K26" r:id="rId19"/>
-    <hyperlink ref="K27" r:id="rId20"/>
-    <hyperlink ref="K28" r:id="rId21"/>
-    <hyperlink ref="K29" r:id="rId22"/>
-    <hyperlink ref="K30" r:id="rId23"/>
-    <hyperlink ref="K31" r:id="rId24"/>
+    <hyperlink ref="K2" r:id="rId722"/>
+    <hyperlink ref="K3" r:id="rId723"/>
+    <hyperlink ref="K4" r:id="rId724"/>
+    <hyperlink ref="K5" r:id="rId725"/>
+    <hyperlink ref="K6" r:id="rId726"/>
+    <hyperlink ref="K7" r:id="rId727"/>
+    <hyperlink ref="K8" r:id="rId728"/>
+    <hyperlink ref="K9" r:id="rId729"/>
+    <hyperlink ref="K10" r:id="rId730"/>
+    <hyperlink ref="K11" r:id="rId731"/>
+    <hyperlink ref="K12" r:id="rId732"/>
+    <hyperlink ref="K13" r:id="rId733"/>
+    <hyperlink ref="K20" r:id="rId734"/>
+    <hyperlink ref="K21" r:id="rId735"/>
+    <hyperlink ref="K22" r:id="rId736"/>
+    <hyperlink ref="K23" r:id="rId737"/>
+    <hyperlink ref="K24" r:id="rId738"/>
+    <hyperlink ref="K25" r:id="rId739"/>
+    <hyperlink ref="K26" r:id="rId740"/>
+    <hyperlink ref="K27" r:id="rId741"/>
+    <hyperlink ref="K28" r:id="rId742"/>
+    <hyperlink ref="K29" r:id="rId743"/>
+    <hyperlink ref="K30" r:id="rId744"/>
+    <hyperlink ref="K31" r:id="rId745"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId25"/>
@@ -3525,10 +3588,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
@@ -3579,7 +3642,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -3594,14 +3657,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3681,15 +3744,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3831,14 +3894,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3970,26 +4033,26 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:P38"/>
+    <sheetView topLeftCell="A31" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="9" customFormat="1">
@@ -4046,7 +4109,9 @@
       <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C2" s="10" t="s">
         <v>148</v>
       </c>
@@ -4092,7 +4157,9 @@
       <c r="A3" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="29" t="s">
+        <v>101</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>149</v>
       </c>
@@ -5720,30 +5787,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="K8" r:id="rId7"/>
-    <hyperlink ref="K9" r:id="rId8"/>
-    <hyperlink ref="K10" r:id="rId9"/>
-    <hyperlink ref="K11" r:id="rId10"/>
-    <hyperlink ref="K12" r:id="rId11"/>
-    <hyperlink ref="K13" r:id="rId12"/>
-    <hyperlink ref="K20" r:id="rId13"/>
-    <hyperlink ref="K21" r:id="rId14"/>
-    <hyperlink ref="K22" r:id="rId15"/>
-    <hyperlink ref="K23" r:id="rId16"/>
-    <hyperlink ref="K24" r:id="rId17"/>
-    <hyperlink ref="K25" r:id="rId18"/>
-    <hyperlink ref="K26" r:id="rId19"/>
-    <hyperlink ref="K27" r:id="rId20"/>
-    <hyperlink ref="K28" r:id="rId21"/>
-    <hyperlink ref="K29" r:id="rId22"/>
-    <hyperlink ref="K30" r:id="rId23"/>
-    <hyperlink ref="K31" r:id="rId24"/>
+    <hyperlink ref="K2" r:id="rId722"/>
+    <hyperlink ref="K3" r:id="rId723"/>
+    <hyperlink ref="K4" r:id="rId724"/>
+    <hyperlink ref="K5" r:id="rId725"/>
+    <hyperlink ref="K6" r:id="rId726"/>
+    <hyperlink ref="K7" r:id="rId727"/>
+    <hyperlink ref="K8" r:id="rId728"/>
+    <hyperlink ref="K9" r:id="rId729"/>
+    <hyperlink ref="K10" r:id="rId730"/>
+    <hyperlink ref="K11" r:id="rId731"/>
+    <hyperlink ref="K12" r:id="rId732"/>
+    <hyperlink ref="K13" r:id="rId733"/>
+    <hyperlink ref="K20" r:id="rId734"/>
+    <hyperlink ref="K21" r:id="rId735"/>
+    <hyperlink ref="K22" r:id="rId736"/>
+    <hyperlink ref="K23" r:id="rId737"/>
+    <hyperlink ref="K24" r:id="rId738"/>
+    <hyperlink ref="K25" r:id="rId739"/>
+    <hyperlink ref="K26" r:id="rId740"/>
+    <hyperlink ref="K27" r:id="rId741"/>
+    <hyperlink ref="K28" r:id="rId742"/>
+    <hyperlink ref="K29" r:id="rId743"/>
+    <hyperlink ref="K30" r:id="rId744"/>
+    <hyperlink ref="K31" r:id="rId745"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId25"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="123435" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="133665" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="OrderHistoryRegression" sheetId="23" r:id="rId6"/>
     <sheet name="RegistrationRegression" sheetId="24" r:id="rId7"/>
     <sheet name="AddressBookRegression" sheetId="19" r:id="rId8"/>
-    <sheet name="users" sheetId="13" r:id="rId9"/>
-    <sheet name="products" sheetId="8" r:id="rId10"/>
-    <sheet name="cards" sheetId="9" r:id="rId11"/>
-    <sheet name="addresses" sheetId="10" r:id="rId12"/>
-    <sheet name="users_alternatives" sheetId="20" r:id="rId13"/>
+    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId9"/>
+    <sheet name="users" sheetId="13" r:id="rId10"/>
+    <sheet name="products" sheetId="8" r:id="rId11"/>
+    <sheet name="cards" sheetId="9" r:id="rId12"/>
+    <sheet name="addresses" sheetId="10" r:id="rId13"/>
+    <sheet name="users_alternatives" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="744">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -1727,9 +1728,6 @@
     <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>set address as default</t>
   </si>
   <si>
@@ -2256,6 +2254,18 @@
   </si>
   <si>
     <t>£111.25;£46.45</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>update default payment</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/payment-details</t>
+  </si>
+  <si>
+    <t>delete payment</t>
   </si>
   <si>
     <t>fieldsValidation</t>
@@ -2309,9 +2319,6 @@
     <t>passwordMismatch</t>
   </si>
   <si>
-    <t>passwordMisatchError:Password and password confirmation do not match</t>
-  </si>
-  <si>
     <t>Try to register with invalid password.</t>
   </si>
   <si>
@@ -2320,6 +2327,21 @@
   <si>
     <t>passwordError:Minimum length is 6 characters
 passwordRuleError:Password does not meet minimum requirements.</t>
+  </si>
+  <si>
+    <t>passwordMismatchError:Password and password confirmation do not match</t>
+  </si>
+  <si>
+    <t>14 Tottenham Court Road</t>
+  </si>
+  <si>
+    <t>W1T 1JY</t>
+  </si>
+  <si>
+    <t>Add a new payment throuth checkout and update the default payment</t>
+  </si>
+  <si>
+    <t>Add a new payment throuth checkout then delete it from payment page</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2551,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2651,12 +2673,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2674,9 +2690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2733,20 +2746,44 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3097,7 +3134,7 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -3386,6 +3423,928 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
@@ -3420,7 +4379,7 @@
       <c r="A2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="40" t="s">
@@ -3437,7 +4396,7 @@
       <c r="A3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -3454,7 +4413,7 @@
       <c r="A4" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
         <v>260</v>
       </c>
       <c r="C4" s="21"/>
@@ -3467,7 +4426,7 @@
       <c r="A5" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="27"/>
@@ -3480,7 +4439,7 @@
       <c r="A6" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>260</v>
       </c>
       <c r="C6" s="21"/>
@@ -3495,7 +4454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -3640,15 +4599,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3779,13 +4738,42 @@
         <v>119</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3846,7 +4834,7 @@
       <c r="F2" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="48" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3892,7 +4880,7 @@
       <c r="F4" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="50" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3915,7 +4903,7 @@
       <c r="F5" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="48" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3938,7 +4926,7 @@
       <c r="F6" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3961,7 +4949,7 @@
       <c r="F7" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="48" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3984,7 +4972,7 @@
       <c r="F8" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="48" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4007,7 +4995,7 @@
       <c r="F9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="48" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4030,7 +5018,7 @@
       <c r="F10" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="48" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4053,7 +5041,7 @@
       <c r="F11" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="48" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4076,7 +5064,7 @@
       <c r="F12" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="48" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4099,7 +5087,7 @@
       <c r="F13" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="48" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4122,7 +5110,7 @@
       <c r="F14" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="48" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4145,7 +5133,7 @@
       <c r="F15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="48" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4168,7 +5156,7 @@
       <c r="F16" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="48" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4191,7 +5179,7 @@
       <c r="F17" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="48" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4214,7 +5202,7 @@
       <c r="F18" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="48" t="s">
         <v>283</v>
       </c>
     </row>
@@ -4237,7 +5225,7 @@
       <c r="F19" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="48" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4260,7 +5248,7 @@
       <c r="F20" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="48" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4283,7 +5271,7 @@
       <c r="F21" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="48" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4306,7 +5294,7 @@
       <c r="F22" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="48" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4329,7 +5317,7 @@
       <c r="F23" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="48" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4352,7 +5340,7 @@
       <c r="F24" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="48" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4375,7 +5363,7 @@
       <c r="F25" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="48" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4398,7 +5386,7 @@
       <c r="F26" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="48" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4421,7 +5409,7 @@
       <c r="F27" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="48" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4444,7 +5432,7 @@
       <c r="F28" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="48" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4467,7 +5455,7 @@
       <c r="F29" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="48" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4513,7 +5501,7 @@
       <c r="F31" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="48" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4536,7 +5524,7 @@
       <c r="F32" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="48" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4559,7 +5547,7 @@
       <c r="F33" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="48" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4582,7 +5570,7 @@
       <c r="F34" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="48" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4605,7 +5593,7 @@
       <c r="F35" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="48" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4628,7 +5616,7 @@
       <c r="F36" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="48" t="s">
         <v>328</v>
       </c>
     </row>
@@ -4651,7 +5639,7 @@
       <c r="F37" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="48" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4674,7 +5662,7 @@
       <c r="F38" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="48" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4697,7 +5685,7 @@
       <c r="F39" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="48" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4720,7 +5708,7 @@
       <c r="F40" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="48" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4743,7 +5731,7 @@
       <c r="F41" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="48" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4766,7 +5754,7 @@
       <c r="F42" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="48" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4789,7 +5777,7 @@
       <c r="F43" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="48" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4812,7 +5800,7 @@
       <c r="F44" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="48" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4835,7 +5823,7 @@
       <c r="F45" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="48" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4858,7 +5846,7 @@
       <c r="F46" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="48" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4881,7 +5869,7 @@
       <c r="F47" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="48" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4904,7 +5892,7 @@
       <c r="F48" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="48" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4927,7 +5915,7 @@
       <c r="F49" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="48" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4950,7 +5938,7 @@
       <c r="F50" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="48" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4973,7 +5961,7 @@
       <c r="F51" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="48" t="s">
         <v>343</v>
       </c>
     </row>
@@ -4996,7 +5984,7 @@
       <c r="F52" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G52" s="50" t="s">
+      <c r="G52" s="48" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5019,7 +6007,7 @@
       <c r="F53" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="48" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5042,7 +6030,7 @@
       <c r="F54" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G54" s="50" t="s">
+      <c r="G54" s="48" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5065,7 +6053,7 @@
       <c r="F55" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="50" t="s">
+      <c r="G55" s="48" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5088,7 +6076,7 @@
       <c r="F56" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="50" t="s">
+      <c r="G56" s="48" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5111,7 +6099,7 @@
       <c r="F57" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G57" s="50" t="s">
+      <c r="G57" s="48" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5134,7 +6122,7 @@
       <c r="F58" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="48" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5157,7 +6145,7 @@
       <c r="F59" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G59" s="50" t="s">
+      <c r="G59" s="48" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5180,7 +6168,7 @@
       <c r="F60" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="48" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5203,7 +6191,7 @@
       <c r="F61" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G61" s="50" t="s">
+      <c r="G61" s="48" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5226,7 +6214,7 @@
       <c r="F62" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="50" t="s">
+      <c r="G62" s="48" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5249,7 +6237,7 @@
       <c r="F63" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G63" s="50" t="s">
+      <c r="G63" s="48" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5272,7 +6260,7 @@
       <c r="F64" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="48" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5295,7 +6283,7 @@
       <c r="F65" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="50" t="s">
+      <c r="G65" s="48" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5318,7 +6306,7 @@
       <c r="F66" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="48" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5341,7 +6329,7 @@
       <c r="F67" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G67" s="50" t="s">
+      <c r="G67" s="48" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5364,7 +6352,7 @@
       <c r="F68" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="48" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5387,7 +6375,7 @@
       <c r="F69" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G69" s="48" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5410,7 +6398,7 @@
       <c r="F70" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G70" s="50" t="s">
+      <c r="G70" s="48" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5433,7 +6421,7 @@
       <c r="F71" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G71" s="50" t="s">
+      <c r="G71" s="48" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5456,7 +6444,7 @@
       <c r="F72" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G72" s="50" t="s">
+      <c r="G72" s="48" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5479,7 +6467,7 @@
       <c r="F73" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G73" s="50" t="s">
+      <c r="G73" s="48" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5502,7 +6490,7 @@
       <c r="F74" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="48" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5525,7 +6513,7 @@
       <c r="F75" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G75" s="50" t="s">
+      <c r="G75" s="48" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5548,7 +6536,7 @@
       <c r="F76" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G76" s="50" t="s">
+      <c r="G76" s="48" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5571,7 +6559,7 @@
       <c r="F77" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G77" s="50" t="s">
+      <c r="G77" s="48" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5594,7 +6582,7 @@
       <c r="F78" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G78" s="50" t="s">
+      <c r="G78" s="48" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5617,7 +6605,7 @@
       <c r="F79" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G79" s="50" t="s">
+      <c r="G79" s="48" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5640,7 +6628,7 @@
       <c r="F80" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G80" s="50" t="s">
+      <c r="G80" s="48" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5663,7 +6651,7 @@
       <c r="F81" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G81" s="50" t="s">
+      <c r="G81" s="48" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5686,7 +6674,7 @@
       <c r="F82" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G82" s="50" t="s">
+      <c r="G82" s="48" t="s">
         <v>411</v>
       </c>
     </row>
@@ -5709,7 +6697,7 @@
       <c r="F83" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="50" t="s">
+      <c r="G83" s="48" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5732,7 +6720,7 @@
       <c r="F84" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="50" t="s">
+      <c r="G84" s="48" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5755,7 +6743,7 @@
       <c r="F85" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G85" s="50" t="s">
+      <c r="G85" s="48" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5778,7 +6766,7 @@
       <c r="F86" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G86" s="50" t="s">
+      <c r="G86" s="48" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5801,7 +6789,7 @@
       <c r="F87" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="48" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5824,7 +6812,7 @@
       <c r="F88" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G88" s="50" t="s">
+      <c r="G88" s="48" t="s">
         <v>417</v>
       </c>
     </row>
@@ -5847,7 +6835,7 @@
       <c r="F89" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G89" s="50" t="s">
+      <c r="G89" s="48" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5870,7 +6858,7 @@
       <c r="F90" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G90" s="50" t="s">
+      <c r="G90" s="48" t="s">
         <v>419</v>
       </c>
     </row>
@@ -5893,7 +6881,7 @@
       <c r="F91" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G91" s="50" t="s">
+      <c r="G91" s="48" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5916,7 +6904,7 @@
       <c r="F92" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="50" t="s">
+      <c r="G92" s="48" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5939,7 +6927,7 @@
       <c r="F93" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G93" s="50" t="s">
+      <c r="G93" s="48" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5962,7 +6950,7 @@
       <c r="F94" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="50" t="s">
+      <c r="G94" s="48" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5985,7 +6973,7 @@
       <c r="F95" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G95" s="50" t="s">
+      <c r="G95" s="48" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6008,7 +6996,7 @@
       <c r="F96" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G96" s="50" t="s">
+      <c r="G96" s="48" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6031,7 +7019,7 @@
       <c r="F97" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G97" s="50" t="s">
+      <c r="G97" s="48" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6054,7 +7042,7 @@
       <c r="F98" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G98" s="50" t="s">
+      <c r="G98" s="48" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6077,7 +7065,7 @@
       <c r="F99" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G99" s="50" t="s">
+      <c r="G99" s="48" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6100,7 +7088,7 @@
       <c r="F100" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="48" t="s">
         <v>429</v>
       </c>
     </row>
@@ -6123,7 +7111,7 @@
       <c r="F101" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G101" s="50" t="s">
+      <c r="G101" s="48" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6146,7 +7134,7 @@
       <c r="F102" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G102" s="50" t="s">
+      <c r="G102" s="48" t="s">
         <v>431</v>
       </c>
     </row>
@@ -6169,7 +7157,7 @@
       <c r="F103" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G103" s="50" t="s">
+      <c r="G103" s="48" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6192,7 +7180,7 @@
       <c r="F104" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G104" s="50" t="s">
+      <c r="G104" s="48" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6215,7 +7203,7 @@
       <c r="F105" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G105" s="50" t="s">
+      <c r="G105" s="48" t="s">
         <v>508</v>
       </c>
     </row>
@@ -6238,7 +7226,7 @@
       <c r="F106" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G106" s="50" t="s">
+      <c r="G106" s="48" t="s">
         <v>509</v>
       </c>
     </row>
@@ -6261,7 +7249,7 @@
       <c r="F107" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G107" s="50" t="s">
+      <c r="G107" s="48" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6284,7 +7272,7 @@
       <c r="F108" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G108" s="50" t="s">
+      <c r="G108" s="48" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6307,7 +7295,7 @@
       <c r="F109" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G109" s="50" t="s">
+      <c r="G109" s="48" t="s">
         <v>512</v>
       </c>
     </row>
@@ -6330,7 +7318,7 @@
       <c r="F110" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G110" s="50" t="s">
+      <c r="G110" s="48" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6353,7 +7341,7 @@
       <c r="F111" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G111" s="50" t="s">
+      <c r="G111" s="48" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6376,7 +7364,7 @@
       <c r="F112" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G112" s="50" t="s">
+      <c r="G112" s="48" t="s">
         <v>515</v>
       </c>
     </row>
@@ -6399,7 +7387,7 @@
       <c r="F113" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G113" s="50" t="s">
+      <c r="G113" s="48" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6422,7 +7410,7 @@
       <c r="F114" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G114" s="50" t="s">
+      <c r="G114" s="48" t="s">
         <v>517</v>
       </c>
     </row>
@@ -6445,7 +7433,7 @@
       <c r="F115" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G115" s="50" t="s">
+      <c r="G115" s="48" t="s">
         <v>518</v>
       </c>
     </row>
@@ -6468,7 +7456,7 @@
       <c r="F116" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G116" s="50" t="s">
+      <c r="G116" s="48" t="s">
         <v>519</v>
       </c>
     </row>
@@ -6491,7 +7479,7 @@
       <c r="F117" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G117" s="50" t="s">
+      <c r="G117" s="48" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6514,7 +7502,7 @@
       <c r="F118" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G118" s="50" t="s">
+      <c r="G118" s="48" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6537,7 +7525,7 @@
       <c r="F119" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G119" s="50" t="s">
+      <c r="G119" s="48" t="s">
         <v>522</v>
       </c>
     </row>
@@ -6560,7 +7548,7 @@
       <c r="F120" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G120" s="50" t="s">
+      <c r="G120" s="48" t="s">
         <v>523</v>
       </c>
     </row>
@@ -6583,7 +7571,7 @@
       <c r="F121" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G121" s="50" t="s">
+      <c r="G121" s="48" t="s">
         <v>524</v>
       </c>
     </row>
@@ -6606,7 +7594,7 @@
       <c r="F122" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G122" s="50" t="s">
+      <c r="G122" s="48" t="s">
         <v>525</v>
       </c>
     </row>
@@ -6629,7 +7617,7 @@
       <c r="F123" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G123" s="50" t="s">
+      <c r="G123" s="48" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6652,7 +7640,7 @@
       <c r="F124" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G124" s="50" t="s">
+      <c r="G124" s="48" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6675,7 +7663,7 @@
       <c r="F125" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G125" s="50" t="s">
+      <c r="G125" s="48" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6698,7 +7686,7 @@
       <c r="F126" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G126" s="50" t="s">
+      <c r="G126" s="48" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6721,7 +7709,7 @@
       <c r="F127" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G127" s="50" t="s">
+      <c r="G127" s="48" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6744,7 +7732,7 @@
       <c r="F128" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G128" s="50" t="s">
+      <c r="G128" s="48" t="s">
         <v>531</v>
       </c>
     </row>
@@ -6767,7 +7755,7 @@
       <c r="F129" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G129" s="50" t="s">
+      <c r="G129" s="48" t="s">
         <v>532</v>
       </c>
     </row>
@@ -6790,7 +7778,7 @@
       <c r="F130" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G130" s="50" t="s">
+      <c r="G130" s="48" t="s">
         <v>533</v>
       </c>
     </row>
@@ -6813,7 +7801,7 @@
       <c r="F131" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G131" s="50" t="s">
+      <c r="G131" s="48" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6836,7 +7824,7 @@
       <c r="F132" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G132" s="50" t="s">
+      <c r="G132" s="48" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6859,7 +7847,7 @@
       <c r="F133" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="48" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6882,7 +7870,7 @@
       <c r="F134" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G134" s="50" t="s">
+      <c r="G134" s="48" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6905,7 +7893,7 @@
       <c r="F135" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G135" s="50" t="s">
+      <c r="G135" s="48" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6928,7 +7916,7 @@
       <c r="F136" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G136" s="50" t="s">
+      <c r="G136" s="48" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6951,7 +7939,7 @@
       <c r="F137" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G137" s="50" t="s">
+      <c r="G137" s="48" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6974,7 +7962,7 @@
       <c r="F138" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G138" s="50" t="s">
+      <c r="G138" s="48" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6997,7 +7985,7 @@
       <c r="F139" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G139" s="50" t="s">
+      <c r="G139" s="48" t="s">
         <v>542</v>
       </c>
     </row>
@@ -7020,7 +8008,7 @@
       <c r="F140" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G140" s="50" t="s">
+      <c r="G140" s="48" t="s">
         <v>543</v>
       </c>
     </row>
@@ -7043,13 +8031,13 @@
       <c r="F141" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G141" s="50" t="s">
+      <c r="G141" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="40" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B142" s="41" t="s">
         <v>118</v>
@@ -7066,13 +8054,13 @@
       <c r="F142" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G142" s="50" t="s">
-        <v>553</v>
+      <c r="G142" s="48" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B143" s="41" t="s">
         <v>118</v>
@@ -7089,13 +8077,13 @@
       <c r="F143" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G143" s="50" t="s">
-        <v>554</v>
+      <c r="G143" s="48" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B144" s="41" t="s">
         <v>118</v>
@@ -7112,13 +8100,13 @@
       <c r="F144" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G144" s="50" t="s">
-        <v>555</v>
+      <c r="G144" s="48" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="40" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B145" s="41" t="s">
         <v>118</v>
@@ -7135,13 +8123,13 @@
       <c r="F145" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G145" s="50" t="s">
-        <v>556</v>
+      <c r="G145" s="48" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="40" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B146" s="41" t="s">
         <v>118</v>
@@ -7158,13 +8146,13 @@
       <c r="F146" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G146" s="50" t="s">
-        <v>557</v>
+      <c r="G146" s="48" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="40" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B147" s="41" t="s">
         <v>118</v>
@@ -7181,13 +8169,13 @@
       <c r="F147" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G147" s="50" t="s">
-        <v>558</v>
+      <c r="G147" s="48" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B148" s="41" t="s">
         <v>118</v>
@@ -7204,13 +8192,13 @@
       <c r="F148" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G148" s="50" t="s">
-        <v>559</v>
+      <c r="G148" s="48" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B149" s="41" t="s">
         <v>118</v>
@@ -7227,13 +8215,13 @@
       <c r="F149" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G149" s="50" t="s">
-        <v>560</v>
+      <c r="G149" s="48" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="40" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B150" s="41" t="s">
         <v>118</v>
@@ -7250,13 +8238,13 @@
       <c r="F150" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G150" s="50" t="s">
-        <v>561</v>
+      <c r="G150" s="48" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="40" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B151" s="41" t="s">
         <v>118</v>
@@ -7273,13 +8261,13 @@
       <c r="F151" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G151" s="50" t="s">
-        <v>562</v>
+      <c r="G151" s="48" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B152" s="41" t="s">
         <v>118</v>
@@ -7296,13 +8284,13 @@
       <c r="F152" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G152" s="50" t="s">
-        <v>563</v>
+      <c r="G152" s="48" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B153" s="41" t="s">
         <v>118</v>
@@ -7319,13 +8307,13 @@
       <c r="F153" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G153" s="50" t="s">
-        <v>564</v>
+      <c r="G153" s="48" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B154" s="41" t="s">
         <v>118</v>
@@ -7342,13 +8330,13 @@
       <c r="F154" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G154" s="50" t="s">
-        <v>565</v>
+      <c r="G154" s="48" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B155" s="41" t="s">
         <v>118</v>
@@ -7365,13 +8353,13 @@
       <c r="F155" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G155" s="50" t="s">
-        <v>566</v>
+      <c r="G155" s="48" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B156" s="41" t="s">
         <v>118</v>
@@ -7388,13 +8376,13 @@
       <c r="F156" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G156" s="50" t="s">
-        <v>567</v>
+      <c r="G156" s="48" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B157" s="41" t="s">
         <v>118</v>
@@ -7411,13 +8399,13 @@
       <c r="F157" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G157" s="50" t="s">
-        <v>568</v>
+      <c r="G157" s="48" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B158" s="41" t="s">
         <v>118</v>
@@ -7434,13 +8422,13 @@
       <c r="F158" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G158" s="50" t="s">
-        <v>569</v>
+      <c r="G158" s="48" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B159" s="41" t="s">
         <v>118</v>
@@ -7457,13 +8445,13 @@
       <c r="F159" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G159" s="50" t="s">
-        <v>570</v>
+      <c r="G159" s="48" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="40" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B160" s="41" t="s">
         <v>118</v>
@@ -7480,13 +8468,13 @@
       <c r="F160" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G160" s="50" t="s">
-        <v>571</v>
+      <c r="G160" s="48" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B161" s="41" t="s">
         <v>118</v>
@@ -7503,13 +8491,13 @@
       <c r="F161" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G161" s="50" t="s">
-        <v>572</v>
+      <c r="G161" s="48" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B162" s="41" t="s">
         <v>118</v>
@@ -7526,13 +8514,13 @@
       <c r="F162" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G162" s="50" t="s">
-        <v>573</v>
+      <c r="G162" s="48" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="40" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B163" s="41" t="s">
         <v>118</v>
@@ -7549,13 +8537,13 @@
       <c r="F163" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G163" s="50" t="s">
-        <v>574</v>
+      <c r="G163" s="48" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="40" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B164" s="41" t="s">
         <v>118</v>
@@ -7572,13 +8560,13 @@
       <c r="F164" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G164" s="50" t="s">
-        <v>575</v>
+      <c r="G164" s="48" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B165" s="41" t="s">
         <v>118</v>
@@ -7595,13 +8583,13 @@
       <c r="F165" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G165" s="50" t="s">
-        <v>576</v>
+      <c r="G165" s="48" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B166" s="41" t="s">
         <v>118</v>
@@ -7618,13 +8606,13 @@
       <c r="F166" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G166" s="50" t="s">
-        <v>577</v>
+      <c r="G166" s="48" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B167" s="41" t="s">
         <v>118</v>
@@ -7641,13 +8629,13 @@
       <c r="F167" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G167" s="50" t="s">
-        <v>578</v>
+      <c r="G167" s="48" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="40" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B168" s="41" t="s">
         <v>118</v>
@@ -7664,13 +8652,13 @@
       <c r="F168" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G168" s="50" t="s">
-        <v>579</v>
+      <c r="G168" s="48" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B169" s="41" t="s">
         <v>118</v>
@@ -7687,13 +8675,13 @@
       <c r="F169" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G169" s="50" t="s">
-        <v>580</v>
+      <c r="G169" s="48" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="40" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B170" s="41" t="s">
         <v>118</v>
@@ -7710,13 +8698,13 @@
       <c r="F170" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G170" s="50" t="s">
-        <v>581</v>
+      <c r="G170" s="48" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="40" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B171" s="41" t="s">
         <v>118</v>
@@ -7733,13 +8721,13 @@
       <c r="F171" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G171" s="50" t="s">
-        <v>582</v>
+      <c r="G171" s="48" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="40" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B172" s="41" t="s">
         <v>118</v>
@@ -7756,13 +8744,13 @@
       <c r="F172" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G172" s="50" t="s">
-        <v>583</v>
+      <c r="G172" s="48" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B173" s="41" t="s">
         <v>118</v>
@@ -7779,13 +8767,13 @@
       <c r="F173" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G173" s="50" t="s">
-        <v>584</v>
+      <c r="G173" s="48" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="40" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B174" s="41" t="s">
         <v>118</v>
@@ -7802,13 +8790,13 @@
       <c r="F174" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G174" s="50" t="s">
-        <v>585</v>
+      <c r="G174" s="48" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B175" s="41" t="s">
         <v>118</v>
@@ -7825,13 +8813,13 @@
       <c r="F175" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G175" s="50" t="s">
-        <v>586</v>
+      <c r="G175" s="48" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="40" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B176" s="41" t="s">
         <v>118</v>
@@ -7848,13 +8836,13 @@
       <c r="F176" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G176" s="50" t="s">
-        <v>587</v>
+      <c r="G176" s="48" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B177" s="41" t="s">
         <v>118</v>
@@ -7871,13 +8859,13 @@
       <c r="F177" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G177" s="50" t="s">
-        <v>588</v>
+      <c r="G177" s="48" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="40" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B178" s="41" t="s">
         <v>118</v>
@@ -7894,8 +8882,8 @@
       <c r="F178" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G178" s="50" t="s">
-        <v>589</v>
+      <c r="G178" s="48" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -7911,8 +8899,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8012,7 +9000,7 @@
         <v>82</v>
       </c>
       <c r="J2" s="33"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="48" t="s">
         <v>323</v>
       </c>
       <c r="L2" s="23" t="s">
@@ -8060,7 +9048,7 @@
         <v>83</v>
       </c>
       <c r="J3" s="33"/>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="48" t="s">
         <v>324</v>
       </c>
       <c r="L3" s="23" t="s">
@@ -8108,7 +9096,7 @@
         <v>82</v>
       </c>
       <c r="J4" s="33"/>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="48" t="s">
         <v>325</v>
       </c>
       <c r="L4" s="23" t="s">
@@ -8156,7 +9144,7 @@
         <v>82</v>
       </c>
       <c r="J5" s="33"/>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="48" t="s">
         <v>326</v>
       </c>
       <c r="L5" s="23" t="s">
@@ -8202,7 +9190,7 @@
         <v>83</v>
       </c>
       <c r="J6" s="33"/>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="48" t="s">
         <v>327</v>
       </c>
       <c r="L6" s="23" t="s">
@@ -8248,7 +9236,7 @@
         <v>82</v>
       </c>
       <c r="J7" s="33"/>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="48" t="s">
         <v>328</v>
       </c>
       <c r="L7" s="23" t="s">
@@ -8294,7 +9282,7 @@
         <v>82</v>
       </c>
       <c r="J8" s="33"/>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="48" t="s">
         <v>329</v>
       </c>
       <c r="L8" s="23" t="s">
@@ -8340,7 +9328,7 @@
         <v>83</v>
       </c>
       <c r="J9" s="33"/>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="48" t="s">
         <v>330</v>
       </c>
       <c r="L9" s="23" t="s">
@@ -8386,7 +9374,7 @@
         <v>82</v>
       </c>
       <c r="J10" s="33"/>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="48" t="s">
         <v>331</v>
       </c>
       <c r="L10" s="23" t="s">
@@ -8432,7 +9420,7 @@
         <v>82</v>
       </c>
       <c r="J11" s="33"/>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="48" t="s">
         <v>332</v>
       </c>
       <c r="L11" s="23" t="s">
@@ -8478,7 +9466,7 @@
         <v>83</v>
       </c>
       <c r="J12" s="33"/>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="48" t="s">
         <v>333</v>
       </c>
       <c r="L12" s="23" t="s">
@@ -8524,7 +9512,7 @@
         <v>82</v>
       </c>
       <c r="J13" s="33"/>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="48" t="s">
         <v>334</v>
       </c>
       <c r="L13" s="23" t="s">
@@ -8570,7 +9558,7 @@
         <v>82</v>
       </c>
       <c r="J14" s="33"/>
-      <c r="K14" s="50" t="s">
+      <c r="K14" s="48" t="s">
         <v>335</v>
       </c>
       <c r="L14" s="23" t="s">
@@ -8616,7 +9604,7 @@
         <v>83</v>
       </c>
       <c r="J15" s="33"/>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="48" t="s">
         <v>336</v>
       </c>
       <c r="L15" s="23" t="s">
@@ -8662,7 +9650,7 @@
         <v>82</v>
       </c>
       <c r="J16" s="33"/>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="48" t="s">
         <v>337</v>
       </c>
       <c r="L16" s="23" t="s">
@@ -8708,7 +9696,7 @@
         <v>82</v>
       </c>
       <c r="J17" s="33"/>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="48" t="s">
         <v>338</v>
       </c>
       <c r="L17" s="23" t="s">
@@ -8754,7 +9742,7 @@
         <v>83</v>
       </c>
       <c r="J18" s="33"/>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="48" t="s">
         <v>339</v>
       </c>
       <c r="L18" s="23" t="s">
@@ -8800,7 +9788,7 @@
         <v>82</v>
       </c>
       <c r="J19" s="33"/>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="48" t="s">
         <v>340</v>
       </c>
       <c r="L19" s="23" t="s">
@@ -8846,7 +9834,7 @@
         <v>82</v>
       </c>
       <c r="J20" s="33"/>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="48" t="s">
         <v>341</v>
       </c>
       <c r="L20" s="23" t="s">
@@ -8892,7 +9880,7 @@
         <v>83</v>
       </c>
       <c r="J21" s="33"/>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="48" t="s">
         <v>342</v>
       </c>
       <c r="L21" s="23" t="s">
@@ -8938,7 +9926,7 @@
         <v>82</v>
       </c>
       <c r="J22" s="33"/>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="48" t="s">
         <v>343</v>
       </c>
       <c r="L22" s="23" t="s">
@@ -8984,7 +9972,7 @@
         <v>82</v>
       </c>
       <c r="J23" s="33"/>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="48" t="s">
         <v>344</v>
       </c>
       <c r="L23" s="23" t="s">
@@ -9030,7 +10018,7 @@
         <v>83</v>
       </c>
       <c r="J24" s="33"/>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="48" t="s">
         <v>345</v>
       </c>
       <c r="L24" s="23" t="s">
@@ -9076,7 +10064,7 @@
         <v>82</v>
       </c>
       <c r="J25" s="33"/>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="48" t="s">
         <v>346</v>
       </c>
       <c r="L25" s="23" t="s">
@@ -9122,7 +10110,7 @@
         <v>82</v>
       </c>
       <c r="J26" s="33"/>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="48" t="s">
         <v>347</v>
       </c>
       <c r="L26" s="23" t="s">
@@ -9168,7 +10156,7 @@
         <v>83</v>
       </c>
       <c r="J27" s="33"/>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="48" t="s">
         <v>348</v>
       </c>
       <c r="L27" s="23" t="s">
@@ -9214,7 +10202,7 @@
         <v>82</v>
       </c>
       <c r="J28" s="33"/>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="48" t="s">
         <v>349</v>
       </c>
       <c r="L28" s="23" t="s">
@@ -9260,7 +10248,7 @@
         <v>82</v>
       </c>
       <c r="J29" s="33"/>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="48" t="s">
         <v>350</v>
       </c>
       <c r="L29" s="23" t="s">
@@ -9306,7 +10294,7 @@
         <v>83</v>
       </c>
       <c r="J30" s="33"/>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="48" t="s">
         <v>351</v>
       </c>
       <c r="L30" s="23" t="s">
@@ -9352,7 +10340,7 @@
         <v>82</v>
       </c>
       <c r="J31" s="33"/>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="48" t="s">
         <v>352</v>
       </c>
       <c r="L31" s="23" t="s">
@@ -9398,7 +10386,7 @@
         <v>82</v>
       </c>
       <c r="J32" s="33"/>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="48" t="s">
         <v>353</v>
       </c>
       <c r="L32" s="23" t="s">
@@ -9444,7 +10432,7 @@
         <v>83</v>
       </c>
       <c r="J33" s="33"/>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="48" t="s">
         <v>354</v>
       </c>
       <c r="L33" s="23" t="s">
@@ -9490,7 +10478,7 @@
         <v>82</v>
       </c>
       <c r="J34" s="33"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="48" t="s">
         <v>355</v>
       </c>
       <c r="L34" s="23" t="s">
@@ -9536,7 +10524,7 @@
         <v>82</v>
       </c>
       <c r="J35" s="33"/>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="48" t="s">
         <v>356</v>
       </c>
       <c r="L35" s="23" t="s">
@@ -9582,7 +10570,7 @@
         <v>83</v>
       </c>
       <c r="J36" s="33"/>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="48" t="s">
         <v>357</v>
       </c>
       <c r="L36" s="23" t="s">
@@ -9628,7 +10616,7 @@
         <v>82</v>
       </c>
       <c r="J37" s="33"/>
-      <c r="K37" s="50" t="s">
+      <c r="K37" s="48" t="s">
         <v>358</v>
       </c>
       <c r="L37" s="23" t="s">
@@ -9674,7 +10662,7 @@
         <v>82</v>
       </c>
       <c r="J38" s="33"/>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="48" t="s">
         <v>359</v>
       </c>
       <c r="L38" s="23" t="s">
@@ -9724,10 +10712,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="29" t="s">
@@ -9736,45 +10724,45 @@
       <c r="D1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="51" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="40"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>239</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="E2" s="45" t="s">
+        <v>633</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45">
@@ -9788,12 +10776,12 @@
         <v>242</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="49" t="s">
         <v>324</v>
       </c>
       <c r="G3" s="40"/>
@@ -9809,12 +10797,12 @@
         <v>243</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>325</v>
       </c>
       <c r="G4" s="40" t="s">
@@ -9822,7 +10810,7 @@
       </c>
       <c r="H4" s="40"/>
       <c r="I4" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
@@ -9834,12 +10822,12 @@
         <v>244</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="49" t="s">
         <v>326</v>
       </c>
       <c r="G5" s="40"/>
@@ -9855,12 +10843,12 @@
         <v>245</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="49" t="s">
         <v>327</v>
       </c>
       <c r="G6" s="40" t="s">
@@ -9868,7 +10856,7 @@
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
@@ -9880,12 +10868,12 @@
         <v>246</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="49" t="s">
         <v>328</v>
       </c>
       <c r="G7" s="40" t="s">
@@ -9893,7 +10881,7 @@
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30">
@@ -9905,12 +10893,12 @@
         <v>247</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="49" t="s">
         <v>329</v>
       </c>
       <c r="G8" s="40"/>
@@ -9926,12 +10914,12 @@
         <v>248</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E9" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="49" t="s">
         <v>330</v>
       </c>
       <c r="G9" s="40"/>
@@ -9947,12 +10935,12 @@
         <v>249</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="49" t="s">
         <v>331</v>
       </c>
       <c r="G10" s="40"/>
@@ -9970,20 +10958,20 @@
         <v>269</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="49" t="s">
         <v>332</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45">
@@ -9997,12 +10985,12 @@
         <v>251</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E12" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="49" t="s">
         <v>333</v>
       </c>
       <c r="G12" s="40"/>
@@ -10024,12 +11012,12 @@
         <v>261</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="49" t="s">
         <v>334</v>
       </c>
       <c r="G13" s="40"/>
@@ -10051,17 +11039,17 @@
         <v>266</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E14" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="49" t="s">
         <v>335</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I14" s="33"/>
     </row>
@@ -10079,7 +11067,7 @@
       <c r="E15" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="49" t="s">
         <v>336</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -10087,7 +11075,7 @@
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
@@ -10099,12 +11087,12 @@
         <v>239</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="49" t="s">
         <v>337</v>
       </c>
       <c r="G16" s="40" t="s">
@@ -10112,7 +11100,7 @@
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
@@ -10126,12 +11114,12 @@
         <v>242</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="49" t="s">
         <v>338</v>
       </c>
       <c r="G17" s="40"/>
@@ -10147,12 +11135,12 @@
         <v>243</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="49" t="s">
         <v>339</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -10160,7 +11148,7 @@
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30">
@@ -10172,12 +11160,12 @@
         <v>244</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="49" t="s">
         <v>340</v>
       </c>
       <c r="G19" s="40"/>
@@ -10193,12 +11181,12 @@
         <v>245</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E20" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="49" t="s">
         <v>341</v>
       </c>
       <c r="G20" s="40" t="s">
@@ -10206,7 +11194,7 @@
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30">
@@ -10218,12 +11206,12 @@
         <v>246</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="49" t="s">
         <v>342</v>
       </c>
       <c r="G21" s="40" t="s">
@@ -10231,7 +11219,7 @@
       </c>
       <c r="H21" s="40"/>
       <c r="I21" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
@@ -10243,12 +11231,12 @@
         <v>247</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F22" s="51" t="s">
+      <c r="F22" s="49" t="s">
         <v>343</v>
       </c>
       <c r="G22" s="40"/>
@@ -10264,12 +11252,12 @@
         <v>248</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="49" t="s">
         <v>344</v>
       </c>
       <c r="G23" s="40"/>
@@ -10285,12 +11273,12 @@
         <v>249</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="49" t="s">
         <v>345</v>
       </c>
       <c r="G24" s="40"/>
@@ -10308,20 +11296,20 @@
         <v>250</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="49" t="s">
         <v>346</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30">
@@ -10335,12 +11323,12 @@
         <v>261</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="49" t="s">
         <v>347</v>
       </c>
       <c r="G26" s="40"/>
@@ -10362,17 +11350,17 @@
         <v>266</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="49" t="s">
         <v>348</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="40" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I27" s="33"/>
     </row>
@@ -10387,12 +11375,12 @@
         <v>251</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="49" t="s">
         <v>349</v>
       </c>
       <c r="G28" s="40"/>
@@ -10417,7 +11405,7 @@
       <c r="E29" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="49" t="s">
         <v>350</v>
       </c>
       <c r="G29" s="40" t="s">
@@ -10425,7 +11413,7 @@
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -10452,12 +11440,12 @@
     <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.7109375" style="5" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" style="64" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.7109375" style="64" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="20.7109375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="61" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.7109375" style="61" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="20.7109375" style="61" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="5" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" style="64" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" style="64" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.140625" style="61" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" style="61" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -10478,92 +11466,92 @@
         <v>43</v>
       </c>
       <c r="E1" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="53" t="s">
         <v>645</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="I1" s="53" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="J1" s="53" t="s">
         <v>647</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="53" t="s">
         <v>648</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="L1" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="54" t="s">
         <v>650</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="N1" s="53" t="s">
         <v>651</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="17" t="s">
         <v>652</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="S1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:19" s="5" customFormat="1">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="5" customFormat="1">
-      <c r="A2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="56">
+        <v>300389093</v>
+      </c>
+      <c r="I2" s="56">
+        <v>3003890930</v>
+      </c>
+      <c r="J2" s="57">
+        <v>1</v>
+      </c>
+      <c r="K2" s="57">
+        <v>3</v>
+      </c>
+      <c r="L2" s="58" t="s">
         <v>662</v>
       </c>
-      <c r="H2" s="59">
-        <v>300389093</v>
-      </c>
-      <c r="I2" s="59">
-        <v>3003890930</v>
-      </c>
-      <c r="J2" s="60">
-        <v>1</v>
-      </c>
-      <c r="K2" s="60">
+      <c r="M2" s="59">
         <v>3</v>
       </c>
-      <c r="L2" s="61" t="s">
-        <v>663</v>
-      </c>
-      <c r="M2" s="62">
-        <v>3</v>
-      </c>
-      <c r="N2" s="63">
+      <c r="N2" s="60">
         <v>0</v>
       </c>
       <c r="O2" s="9" t="b">
@@ -10583,44 +11571,44 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>659</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="56">
+        <v>300389094</v>
+      </c>
+      <c r="I3" s="56">
+        <v>3003890940</v>
+      </c>
+      <c r="J3" s="56">
+        <v>1</v>
+      </c>
+      <c r="K3" s="56">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="H3" s="59">
-        <v>300389094</v>
-      </c>
-      <c r="I3" s="59">
-        <v>3003890940</v>
-      </c>
-      <c r="J3" s="59">
-        <v>1</v>
-      </c>
-      <c r="K3" s="59">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="M3" s="62">
+      <c r="M3" s="59">
         <v>2</v>
       </c>
-      <c r="N3" s="63">
+      <c r="N3" s="60">
         <v>0</v>
       </c>
       <c r="O3" s="9" t="b">
@@ -10640,44 +11628,44 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="F4" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="H4" s="56">
+        <v>300389095</v>
+      </c>
+      <c r="I4" s="56">
+        <v>3003890950</v>
+      </c>
+      <c r="J4" s="56">
+        <v>1</v>
+      </c>
+      <c r="K4" s="56">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="H4" s="59">
-        <v>300389095</v>
-      </c>
-      <c r="I4" s="59">
-        <v>3003890950</v>
-      </c>
-      <c r="J4" s="59">
+      <c r="M4" s="59">
         <v>1</v>
       </c>
-      <c r="K4" s="59">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="M4" s="62">
-        <v>1</v>
-      </c>
-      <c r="N4" s="63">
+      <c r="N4" s="60">
         <v>0</v>
       </c>
       <c r="O4" s="9" t="b">
@@ -10697,44 +11685,44 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>659</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>673</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="H5" s="59">
+        <v>661</v>
+      </c>
+      <c r="H5" s="56">
         <v>300389095</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="56">
         <v>3003890960</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="56">
         <v>2</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="56">
         <v>2</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="59">
         <v>0</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="60">
         <v>0</v>
       </c>
       <c r="O5" s="9" t="b">
@@ -10784,8 +11772,8 @@
   </sheetPr>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10794,7 +11782,7 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -10827,326 +11815,326 @@
         <v>117</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>76</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="K1" s="62" t="s">
         <v>675</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="L1" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="M1" s="53" t="s">
         <v>677</v>
       </c>
-      <c r="M1" s="56" t="s">
+      <c r="N1" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="O1" s="53" t="s">
         <v>679</v>
       </c>
-      <c r="O1" s="56" t="s">
+    </row>
+    <row r="2" spans="1:15" ht="45">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="45">
-      <c r="A2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>681</v>
-      </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>682</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="H2" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>685</v>
       </c>
       <c r="J2" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="59" t="b">
+      <c r="K2" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="59" t="b">
+      <c r="L2" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
     </row>
     <row r="3" spans="1:15" ht="45">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="C3" s="63" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G3" s="65" t="s">
         <v>682</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>683</v>
-      </c>
       <c r="H3" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="J3" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="59" t="b">
+      <c r="K3" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="59" t="b">
+      <c r="L3" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15" ht="45">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="63" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="50" t="s">
-        <v>682</v>
-      </c>
-      <c r="G4" s="68" t="s">
+      <c r="F4" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="J4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="69" t="b">
+      <c r="K4" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="L4" s="59" t="b">
+      <c r="L4" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="70" t="s">
+      <c r="M4" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="60">
+      <c r="A5" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>692</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-    </row>
-    <row r="5" spans="1:15" ht="60">
-      <c r="A5" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>693</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G5" s="65" t="s">
         <v>682</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>683</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J5" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="59" t="b">
+      <c r="K5" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="59" t="b">
+      <c r="L5" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="N5" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="56"/>
+    </row>
+    <row r="6" spans="1:15" ht="60">
+      <c r="A6" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>694</v>
       </c>
-      <c r="N5" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="59"/>
-    </row>
-    <row r="6" spans="1:15" ht="60">
-      <c r="A6" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>695</v>
-      </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G6" s="65" t="s">
         <v>682</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="H6" s="9" t="s">
         <v>683</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>684</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="59" t="b">
+      <c r="K6" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="59" t="b">
+      <c r="L6" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="70" t="s">
-        <v>694</v>
-      </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59" t="s">
+      <c r="M6" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="90">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>696</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="63" t="s">
+        <v>695</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G7" s="65" t="s">
         <v>682</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>683</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="59" t="b">
+      <c r="K7" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="59" t="b">
+      <c r="L7" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="70" t="s">
-        <v>694</v>
-      </c>
-      <c r="N7" s="59" t="s">
+      <c r="M7" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="N7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="45">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>697</v>
-      </c>
-      <c r="D8" s="67" t="s">
+      <c r="C8" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="G8" s="65" t="s">
         <v>682</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="H8" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>684</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>685</v>
       </c>
       <c r="J8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="59" t="b">
+      <c r="K8" s="56" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="59" t="b">
+      <c r="L8" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="70" t="s">
-        <v>692</v>
-      </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
+      <c r="M8" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11175,7 +12163,7 @@
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" style="50" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -11200,106 +12188,106 @@
         <v>43</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="M1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="63" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>705</v>
-      </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>706</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="H2" s="68" t="s">
         <v>707</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="I2" s="65" t="s">
         <v>708</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="J2" s="69" t="s">
         <v>709</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="K2" s="65" t="s">
         <v>710</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="L2" s="65" t="s">
         <v>711</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="M2" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>712</v>
       </c>
-      <c r="M2" s="68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="66" t="s">
-        <v>713</v>
-      </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>706</v>
-      </c>
-      <c r="G3" s="68" t="s">
+      <c r="F3" s="48" t="s">
+        <v>705</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>713</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>714</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="I3" s="65" t="s">
+        <v>708</v>
+      </c>
+      <c r="J3" s="69" t="s">
         <v>715</v>
       </c>
-      <c r="I3" s="68" t="s">
-        <v>709</v>
-      </c>
-      <c r="J3" s="72" t="s">
+      <c r="K3" s="65" t="s">
         <v>716</v>
       </c>
-      <c r="K3" s="68" t="s">
-        <v>717</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>712</v>
-      </c>
-      <c r="M3" s="68">
+      <c r="L3" s="65" t="s">
+        <v>711</v>
+      </c>
+      <c r="M3" s="65">
         <v>1</v>
       </c>
     </row>
@@ -11316,140 +12304,152 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="75"/>
+    <col min="1" max="2" width="9.140625" style="70"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="75" customFormat="1">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:5" s="70" customFormat="1">
+      <c r="A1" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="74" t="s">
-        <v>718</v>
+      <c r="E1" s="79" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="80" t="s">
         <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>727</v>
+        <v>729</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="80" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="80" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="80" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>736</v>
+        <v>737</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
+    <hyperlink ref="E2" r:id="rId6" display="tester1@qatesting.com"/>
+    <hyperlink ref="E3" r:id="rId7" display="tester2@qatesting.com"/>
+    <hyperlink ref="E4" r:id="rId8" display="tester3@qatesting.com"/>
+    <hyperlink ref="E5" r:id="rId9" display="tester4@qatesting.com"/>
+    <hyperlink ref="E6" r:id="rId10" display="tester5@qatesting.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -11458,10 +12458,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11472,7 +12472,7 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="30">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11485,1019 +12485,263 @@
       <c r="D1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="36" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45">
-      <c r="A2" s="43" t="s">
+      <c r="E1" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>547</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="E5" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" s="43" t="s">
+      <c r="D6" s="76" t="s">
+        <v>545</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
-      <c r="A3" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>550</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45">
-      <c r="A4" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>548</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>545</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="E2" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="E4" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF002060"/>
+    <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="24" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>627</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="40" t="s">
-        <v>234</v>
+        <v>53</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>742</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>719</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>717</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="41" t="s">
+        <v>130</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>743</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>720</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>719</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>717</v>
+      </c>
+      <c r="K3" s="74" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="40" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="40" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="50" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="50" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="40" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="40" t="s">
-        <v>361</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="40" t="s">
-        <v>362</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="50" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="50" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="40" t="s">
-        <v>364</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="50" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="40" t="s">
-        <v>366</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G37" s="50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>627</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>359</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="133665" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="134595" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -4461,8 +4461,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4494,13 +4494,13 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="21" t="s">
@@ -4514,13 +4514,13 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -4534,13 +4534,13 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -4554,13 +4554,13 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="21" t="s">
@@ -4574,13 +4574,13 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="21" t="s">
@@ -12617,7 +12617,7 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="134595" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="154125" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="740">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -2125,15 +2125,6 @@
     <t xml:space="preserve">firstName </t>
   </si>
   <si>
-    <t>doVerifyCurrent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doClickCancelBtn </t>
-  </si>
-  <si>
-    <t>doClickUpdateBtn</t>
-  </si>
-  <si>
     <t>global-alerts</t>
   </si>
   <si>
@@ -2149,42 +2140,10 @@
     <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/update-profile</t>
   </si>
   <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>Abeer</t>
-  </si>
-  <si>
-    <t>Alia</t>
-  </si>
-  <si>
     <t>Personal Details Cancel</t>
   </si>
   <si>
-    <t>Abeer1</t>
-  </si>
-  <si>
-    <t>Alia2</t>
-  </si>
-  <si>
-    <t>MS.</t>
-  </si>
-  <si>
-    <t>Abeer2</t>
-  </si>
-  <si>
-    <t>Alia3</t>
-  </si>
-  <si>
-    <t>×
-Your profile has been updated</t>
-  </si>
-  <si>
     <t>Personal Details Without firstName</t>
-  </si>
-  <si>
-    <t>×
-Please correct the errors below.</t>
   </si>
   <si>
     <t>Personal Details Without lastName</t>
@@ -2342,6 +2301,35 @@
   </si>
   <si>
     <t>Add a new payment throuth checkout then delete it from payment page</t>
+  </si>
+  <si>
+    <t>Accept2</t>
+  </si>
+  <si>
+    <t>Your profile has been updated</t>
+  </si>
+  <si>
+    <t>Please correct the errors below.</t>
+  </si>
+  <si>
+    <t>Verify current user</t>
+  </si>
+  <si>
+    <t>click cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click update </t>
+  </si>
+  <si>
+    <t>click update
+revert changes</t>
+  </si>
+  <si>
+    <t>Tester2</t>
+  </si>
+  <si>
+    <t>click update 
+revert changes</t>
   </si>
 </sst>
 </file>
@@ -2551,7 +2539,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2722,9 +2710,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2733,12 +2718,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2784,6 +2763,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3426,7 +3408,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G7" sqref="G7:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4461,7 +4443,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="P36" sqref="P36:P37"/>
     </sheetView>
   </sheetViews>
@@ -4740,7 +4722,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="21" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>11</v>
@@ -4752,13 +4734,13 @@
         <v>118</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>71</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>73</v>
@@ -8899,8 +8881,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11770,29 +11752,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:11">
       <c r="A1" s="16" t="s">
         <v>128</v>
       </c>
@@ -11803,340 +11784,253 @@
         <v>53</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>117</v>
+      <c r="G1" s="17" t="s">
+        <v>673</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="53" t="s">
         <v>674</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="J1" s="53" t="s">
         <v>675</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="K1" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="M1" s="53" t="s">
-        <v>677</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>678</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="45">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="55" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>680</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
+      <c r="C2" s="62" t="s">
+        <v>677</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>734</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>327</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="J2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-    </row>
-    <row r="3" spans="1:15" ht="45">
+        <v>12</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="55" t="s">
         <v>130</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>685</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
+      <c r="C3" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>735</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>328</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>731</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="J3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-    </row>
-    <row r="4" spans="1:15" ht="45">
+        <v>738</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="55" t="s">
         <v>131</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="63" t="s">
-        <v>685</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
+      <c r="C4" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>737</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>329</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G4" s="65" t="s">
-        <v>688</v>
+        <v>678</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>731</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="J4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="66" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>691</v>
-      </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-    </row>
-    <row r="5" spans="1:15" ht="60">
+        <v>738</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>692</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
+      <c r="C5" s="62" t="s">
+        <v>680</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>330</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="J5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>693</v>
-      </c>
-      <c r="N5" s="56" t="s">
+        <v>678</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="56"/>
-    </row>
-    <row r="6" spans="1:15" ht="60">
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>694</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
+      <c r="C6" s="62" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>736</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>331</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>693</v>
-      </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56" t="s">
+        <v>678</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="90">
+    <row r="7" spans="1:11">
       <c r="A7" s="55" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>695</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
+      <c r="C7" s="62" t="s">
+        <v>682</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>736</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>332</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>682</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>693</v>
-      </c>
-      <c r="N7" s="56" t="s">
+      <c r="I7" s="80" t="s">
+        <v>733</v>
+      </c>
+      <c r="J7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="K7" s="56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45">
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>696</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
+      <c r="C8" s="62" t="s">
+        <v>683</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>739</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>333</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>731</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="J8" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>691</v>
-      </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
+        <v>738</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>732</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="tester29@qatesting.com"/>
+    <hyperlink ref="E3" r:id="rId2" display="tester30@qatesting.com"/>
+    <hyperlink ref="E4" r:id="rId3" display="tester31@qatesting.com"/>
+    <hyperlink ref="E5" r:id="rId4" display="tester32@qatesting.com"/>
+    <hyperlink ref="E6" r:id="rId5" display="tester33@qatesting.com"/>
+    <hyperlink ref="E7" r:id="rId6" display="tester34@qatesting.com"/>
+    <hyperlink ref="E8" r:id="rId7" display="tester35@qatesting.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12188,25 +12082,25 @@
         <v>43</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12216,37 +12110,37 @@
       <c r="B2" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>704</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="62" t="s">
+        <v>691</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>705</v>
-      </c>
-      <c r="G2" s="65" t="s">
-        <v>706</v>
-      </c>
-      <c r="H2" s="68" t="s">
-        <v>707</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>708</v>
-      </c>
-      <c r="J2" s="69" t="s">
-        <v>709</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>710</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>711</v>
-      </c>
-      <c r="M2" s="65">
+        <v>692</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>693</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>694</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>696</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="M2" s="64">
         <v>0</v>
       </c>
     </row>
@@ -12257,37 +12151,37 @@
       <c r="B3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="63" t="s">
-        <v>712</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="C3" s="62" t="s">
+        <v>699</v>
+      </c>
+      <c r="D3" s="63" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>705</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>713</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>714</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>708</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>715</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>716</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>711</v>
-      </c>
-      <c r="M3" s="65">
+        <v>692</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>701</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>702</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="L3" s="64" t="s">
+        <v>698</v>
+      </c>
+      <c r="M3" s="64">
         <v>1</v>
       </c>
     </row>
@@ -12310,129 +12204,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="70"/>
+    <col min="1" max="2" width="9.140625" style="67"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="70" customFormat="1">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:5" s="67" customFormat="1">
+      <c r="A1" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="76" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105">
+      <c r="A4" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="D6" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E7" s="78" t="s">
         <v>725</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105">
-      <c r="A4" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>732</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -12485,7 +12379,7 @@
       <c r="D1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="68" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="36" t="s">
@@ -12493,102 +12387,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="73" t="s">
         <v>550</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="72" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="73" t="s">
         <v>549</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="75" t="s">
-        <v>717</v>
+      <c r="F3" s="72" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="73" t="s">
         <v>548</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>717</v>
+      <c r="F4" s="72" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>717</v>
+      <c r="F5" s="72" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="71" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="72" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12641,7 +12535,7 @@
       <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="30" t="s">
@@ -12674,13 +12568,13 @@
         <v>101</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>718</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>719</v>
+        <v>705</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>706</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>237</v>
@@ -12688,16 +12582,16 @@
       <c r="G2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="77" t="s">
-        <v>717</v>
-      </c>
-      <c r="K2" s="74" t="s">
+      <c r="J2" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="K2" s="71" t="s">
         <v>324</v>
       </c>
     </row>
@@ -12709,13 +12603,13 @@
         <v>101</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>720</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>719</v>
+        <v>707</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>706</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>237</v>
@@ -12723,16 +12617,16 @@
       <c r="G3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>717</v>
-      </c>
-      <c r="K3" s="74" t="s">
+      <c r="J3" s="74" t="s">
+        <v>704</v>
+      </c>
+      <c r="K3" s="71" t="s">
         <v>323</v>
       </c>
     </row>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="154125" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="157845" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="RegistrationRegression" sheetId="24" r:id="rId7"/>
     <sheet name="AddressBookRegression" sheetId="19" r:id="rId8"/>
     <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId9"/>
-    <sheet name="users" sheetId="13" r:id="rId10"/>
-    <sheet name="products" sheetId="8" r:id="rId11"/>
-    <sheet name="cards" sheetId="9" r:id="rId12"/>
-    <sheet name="addresses" sheetId="10" r:id="rId13"/>
-    <sheet name="users_alternatives" sheetId="20" r:id="rId14"/>
+    <sheet name="StoreLocatorRegression" sheetId="26" r:id="rId10"/>
+    <sheet name="users" sheetId="13" r:id="rId11"/>
+    <sheet name="products" sheetId="8" r:id="rId12"/>
+    <sheet name="cards" sheetId="9" r:id="rId13"/>
+    <sheet name="addresses" sheetId="10" r:id="rId14"/>
+    <sheet name="users_alternatives" sheetId="20" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="747">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -2330,6 +2331,27 @@
   <si>
     <t>click update 
 revert changes</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">existed store </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not existed store </t>
+  </si>
+  <si>
+    <t>empty store</t>
+  </si>
+  <si>
+    <t>NOT VALID</t>
+  </si>
+  <si>
+    <t>London School</t>
+  </si>
+  <si>
+    <t>-Negative:Check that you entered a valid postcode or place name.</t>
   </si>
 </sst>
 </file>
@@ -2539,7 +2561,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2767,6 +2789,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3403,12 +3426,98 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>741</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="81" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="E4" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4322,7 +4431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4436,7 +4545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4581,7 +4690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4589,7 +4698,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4755,14 +4864,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -8881,8 +8990,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32:K36"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11754,8 +11863,8 @@
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11841,9 +11950,7 @@
       <c r="A3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>101</v>
-      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="62" t="s">
         <v>679</v>
       </c>
@@ -11870,9 +11977,7 @@
       <c r="A4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>101</v>
-      </c>
+      <c r="B4" s="55"/>
       <c r="C4" s="62" t="s">
         <v>679</v>
       </c>
@@ -11901,9 +12006,7 @@
       <c r="A5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>101</v>
-      </c>
+      <c r="B5" s="55"/>
       <c r="C5" s="62" t="s">
         <v>680</v>
       </c>
@@ -11932,9 +12035,7 @@
       <c r="A6" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>101</v>
-      </c>
+      <c r="B6" s="55"/>
       <c r="C6" s="62" t="s">
         <v>681</v>
       </c>
@@ -11963,9 +12064,7 @@
       <c r="A7" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>101</v>
-      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="62" t="s">
         <v>682</v>
       </c>
@@ -11994,9 +12093,7 @@
       <c r="A8" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>101</v>
-      </c>
+      <c r="B8" s="55"/>
       <c r="C8" s="62" t="s">
         <v>683</v>
       </c>
@@ -12512,7 +12609,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="157845" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="158775" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -17,11 +17,13 @@
     <sheet name="AddressBookRegression" sheetId="19" r:id="rId8"/>
     <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId9"/>
     <sheet name="StoreLocatorRegression" sheetId="26" r:id="rId10"/>
-    <sheet name="users" sheetId="13" r:id="rId11"/>
-    <sheet name="products" sheetId="8" r:id="rId12"/>
-    <sheet name="cards" sheetId="9" r:id="rId13"/>
-    <sheet name="addresses" sheetId="10" r:id="rId14"/>
-    <sheet name="users_alternatives" sheetId="20" r:id="rId15"/>
+    <sheet name="EmailAddressRegression" sheetId="27" r:id="rId11"/>
+    <sheet name="PasswordRegression" sheetId="28" r:id="rId12"/>
+    <sheet name="users" sheetId="13" r:id="rId13"/>
+    <sheet name="products" sheetId="8" r:id="rId14"/>
+    <sheet name="cards" sheetId="9" r:id="rId15"/>
+    <sheet name="addresses" sheetId="10" r:id="rId16"/>
+    <sheet name="users_alternatives" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="793">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -2159,18 +2161,6 @@
     <t>sortByText</t>
   </si>
   <si>
-    <t>orders Number</t>
-  </si>
-  <si>
-    <t>orders status</t>
-  </si>
-  <si>
-    <t>orders date</t>
-  </si>
-  <si>
-    <t>orders total</t>
-  </si>
-  <si>
     <t>orders nthChildren</t>
   </si>
   <si>
@@ -2186,18 +2176,6 @@
     <t>Order Number</t>
   </si>
   <si>
-    <t>00001785;00001787</t>
-  </si>
-  <si>
-    <t>Completed;Completed</t>
-  </si>
-  <si>
-    <t>Dec 11, 2017 7:58 AM;Dec 11, 2017 8:03 AM</t>
-  </si>
-  <si>
-    <t>£46.45;£111.25</t>
-  </si>
-  <si>
     <t>1;3;5;7</t>
   </si>
   <si>
@@ -2205,15 +2183,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>00001787;00001785</t>
-  </si>
-  <si>
-    <t>Dec 11, 2017 8:03 AM;Dec 11, 2017 7:58 AM</t>
-  </si>
-  <si>
-    <t>£111.25;£46.45</t>
   </si>
   <si>
     <t>A4</t>
@@ -2298,12 +2267,6 @@
     <t>W1T 1JY</t>
   </si>
   <si>
-    <t>Add a new payment throuth checkout and update the default payment</t>
-  </si>
-  <si>
-    <t>Add a new payment throuth checkout then delete it from payment page</t>
-  </si>
-  <si>
     <t>Accept2</t>
   </si>
   <si>
@@ -2352,6 +2315,183 @@
   </si>
   <si>
     <t>-Negative:Check that you entered a valid postcode or place name.</t>
+  </si>
+  <si>
+    <t>currentEmail</t>
+  </si>
+  <si>
+    <t>confirmNewEmail</t>
+  </si>
+  <si>
+    <t>emailErrors</t>
+  </si>
+  <si>
+    <t>confirmEmailEerrors</t>
+  </si>
+  <si>
+    <t>passwordErrors</t>
+  </si>
+  <si>
+    <t>Email Address Check</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/update-email</t>
+  </si>
+  <si>
+    <t>Email Address Cancel</t>
+  </si>
+  <si>
+    <t>tester@qatesting.com</t>
+  </si>
+  <si>
+    <t>Email Address Update</t>
+  </si>
+  <si>
+    <t>etabib@qatesting.com</t>
+  </si>
+  <si>
+    <t>Email Address Update Without  NewEmail</t>
+  </si>
+  <si>
+    <t>utester2@qatesting.com</t>
+  </si>
+  <si>
+    <t>Email Address Update Without ConfirmEmail</t>
+  </si>
+  <si>
+    <t>utester3@qatesting.com</t>
+  </si>
+  <si>
+    <t>Please confirm your email address</t>
+  </si>
+  <si>
+    <t>Email Address Update Without password</t>
+  </si>
+  <si>
+    <t>utester4@qatesting.com</t>
+  </si>
+  <si>
+    <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>Email Address Update With Invalid email</t>
+  </si>
+  <si>
+    <t>tester1</t>
+  </si>
+  <si>
+    <t>utester5@qatesting.com</t>
+  </si>
+  <si>
+    <t>Email Address Update With Invalid confirm email</t>
+  </si>
+  <si>
+    <t>utester6@qatesting.com</t>
+  </si>
+  <si>
+    <t>tester2</t>
+  </si>
+  <si>
+    <t>Email and Re-enter email address does not match</t>
+  </si>
+  <si>
+    <t>Email Address Update With differnt confirm email</t>
+  </si>
+  <si>
+    <t>utester7@qatesting.com</t>
+  </si>
+  <si>
+    <t>utester8@qatesting.com</t>
+  </si>
+  <si>
+    <t>Email Address Update With Invalid password</t>
+  </si>
+  <si>
+    <t>utester9@qatesting.com</t>
+  </si>
+  <si>
+    <t>Please enter your current password</t>
+  </si>
+  <si>
+    <t>Email Address Update With already existing account</t>
+  </si>
+  <si>
+    <t>click update</t>
+  </si>
+  <si>
+    <t>The email you entered is not available</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>confirmNewPassword</t>
+  </si>
+  <si>
+    <t>currentPasswordErrors</t>
+  </si>
+  <si>
+    <t>newPasswordEerrors</t>
+  </si>
+  <si>
+    <t>confirmNewPasswordErrors</t>
+  </si>
+  <si>
+    <t>Password Cancel</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/update-password</t>
+  </si>
+  <si>
+    <t>Password Update</t>
+  </si>
+  <si>
+    <t>Your password has been changed</t>
+  </si>
+  <si>
+    <t>Password Update: Without  current password</t>
+  </si>
+  <si>
+    <t>Password Update: Incorrect current password</t>
+  </si>
+  <si>
+    <t>Password Update: Without new password</t>
+  </si>
+  <si>
+    <t>Password does not meet minimum requirements.</t>
+  </si>
+  <si>
+    <t>Password Update: Invalid new password</t>
+  </si>
+  <si>
+    <t>Password Update: Without confirm new password</t>
+  </si>
+  <si>
+    <t>Password Update: Incorrect confirm new password</t>
+  </si>
+  <si>
+    <t>Password Update: Pasword not match password rules.</t>
+  </si>
+  <si>
+    <t>Password Update: Confirm password not matching.</t>
+  </si>
+  <si>
+    <t>Password and password confirmation do not match</t>
+  </si>
+  <si>
+    <t>Order History with No Orders</t>
+  </si>
+  <si>
+    <t>tester1@ordershistory.com</t>
+  </si>
+  <si>
+    <t>Add a new payment through checkout and update the default payment</t>
+  </si>
+  <si>
+    <t>Add a new payment through checkout then delete it from payment page</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2701,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2735,16 +2875,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2790,6 +2921,32 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3430,8 +3587,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3451,11 +3608,11 @@
       <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="67" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3466,11 +3623,11 @@
         <v>101</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="D2" s="33"/>
-      <c r="E2" s="81" t="s">
-        <v>745</v>
+      <c r="E2" s="78" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3481,11 +3638,11 @@
         <v>101</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3496,10 +3653,10 @@
         <v>101</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="E4" s="21"/>
     </row>
@@ -3510,6 +3667,938 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>674</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>737</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>721</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>740</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+    </row>
+    <row r="3" spans="1:13" ht="60">
+      <c r="A3" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>742</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>742</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+    </row>
+    <row r="4" spans="1:13" ht="60">
+      <c r="A4" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>743</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>724</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>744</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>744</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>719</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="60">
+      <c r="A5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="85" t="s">
+        <v>746</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" ht="60">
+      <c r="A6" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>748</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77" t="s">
+        <v>749</v>
+      </c>
+      <c r="M6" s="77"/>
+    </row>
+    <row r="7" spans="1:13" ht="60">
+      <c r="A7" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G7" s="85" t="s">
+        <v>751</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>751</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60">
+      <c r="A8" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+    </row>
+    <row r="9" spans="1:13" ht="60">
+      <c r="A9" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>756</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>757</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>758</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77" t="s">
+        <v>759</v>
+      </c>
+      <c r="M9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" ht="60">
+      <c r="A10" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>760</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>761</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>762</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77" t="s">
+        <v>759</v>
+      </c>
+      <c r="M10" s="77"/>
+    </row>
+    <row r="11" spans="1:13" ht="60">
+      <c r="A11" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>763</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="60">
+      <c r="A12" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>766</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>767</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="J12" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>768</v>
+      </c>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G12" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="G6" r:id="rId8"/>
+    <hyperlink ref="G7" r:id="rId9"/>
+    <hyperlink ref="H7" r:id="rId10"/>
+    <hyperlink ref="G9" r:id="rId11"/>
+    <hyperlink ref="G10" r:id="rId12"/>
+    <hyperlink ref="H10" r:id="rId13"/>
+    <hyperlink ref="G11" r:id="rId14"/>
+    <hyperlink ref="H11" r:id="rId15"/>
+    <hyperlink ref="H12" r:id="rId16"/>
+    <hyperlink ref="E4" r:id="rId17"/>
+    <hyperlink ref="E2" r:id="rId18"/>
+    <hyperlink ref="E3" r:id="rId19"/>
+    <hyperlink ref="E7" r:id="rId20"/>
+    <hyperlink ref="E5" r:id="rId21"/>
+    <hyperlink ref="E6" r:id="rId22"/>
+    <hyperlink ref="E10" r:id="rId23"/>
+    <hyperlink ref="E8" r:id="rId24"/>
+    <hyperlink ref="E9" r:id="rId25"/>
+    <hyperlink ref="E11" r:id="rId26"/>
+    <hyperlink ref="E12" r:id="rId27"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId28"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="L1" s="53" t="s">
+        <v>773</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>722</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H2" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="I2" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+    </row>
+    <row r="3" spans="1:13" ht="60">
+      <c r="A3" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>777</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>724</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H3" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="I3" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>778</v>
+      </c>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" ht="60">
+      <c r="A4" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>779</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="H4" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="I4" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>765</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="1:13" ht="60">
+      <c r="A5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G5" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="H5" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="I5" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>765</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="56"/>
+    </row>
+    <row r="6" spans="1:13" ht="60">
+      <c r="A6" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>781</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77" t="s">
+        <v>782</v>
+      </c>
+      <c r="M6" s="56"/>
+    </row>
+    <row r="7" spans="1:13" ht="60">
+      <c r="A7" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>783</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H7" s="9">
+        <v>123</v>
+      </c>
+      <c r="I7" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77" t="s">
+        <v>782</v>
+      </c>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="60">
+      <c r="A8" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>784</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H8" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60">
+      <c r="A9" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>785</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H9" s="9">
+        <v>12345678</v>
+      </c>
+      <c r="I9" s="9">
+        <v>123</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60">
+      <c r="A10" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>786</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H10" s="9">
+        <v>123</v>
+      </c>
+      <c r="I10" s="9">
+        <v>123</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77" t="s">
+        <v>782</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="60">
+      <c r="A11" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>723</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>776</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1234567</v>
+      </c>
+      <c r="H11" s="9">
+        <v>123456789</v>
+      </c>
+      <c r="I11" s="9">
+        <v>123456798</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>720</v>
+      </c>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77" t="s">
+        <v>788</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E8" r:id="rId10"/>
+    <hyperlink ref="E9" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4431,7 +5520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4545,7 +5634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4690,7 +5779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -4831,7 +5920,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="21" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>11</v>
@@ -4843,13 +5932,13 @@
         <v>118</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>71</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>73</v>
@@ -4864,7 +5953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -11928,7 +13017,7 @@
         <v>677</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>327</v>
@@ -11955,7 +13044,7 @@
         <v>679</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>328</v>
@@ -11964,10 +13053,10 @@
         <v>678</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -11982,7 +13071,7 @@
         <v>679</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>329</v>
@@ -11991,13 +13080,13 @@
         <v>678</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>732</v>
+        <v>725</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>719</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
@@ -12011,7 +13100,7 @@
         <v>680</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>330</v>
@@ -12021,10 +13110,10 @@
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="I5" s="80" t="s">
-        <v>733</v>
+        <v>725</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>720</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>5</v>
@@ -12040,7 +13129,7 @@
         <v>681</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>331</v>
@@ -12049,11 +13138,11 @@
         <v>678</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="I6" s="80" t="s">
-        <v>733</v>
+      <c r="I6" s="77" t="s">
+        <v>720</v>
       </c>
       <c r="J6" s="56"/>
       <c r="K6" s="56" t="s">
@@ -12069,7 +13158,7 @@
         <v>682</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="E7" s="48" t="s">
         <v>332</v>
@@ -12079,8 +13168,8 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="80" t="s">
-        <v>733</v>
+      <c r="I7" s="77" t="s">
+        <v>720</v>
       </c>
       <c r="J7" s="56" t="s">
         <v>5</v>
@@ -12098,7 +13187,7 @@
         <v>683</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E8" s="48" t="s">
         <v>333</v>
@@ -12107,13 +13196,13 @@
         <v>678</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="I8" s="80" t="s">
-        <v>732</v>
+        <v>725</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>719</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="56"/>
@@ -12137,10 +13226,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12149,7 +13238,7 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
@@ -12159,7 +13248,7 @@
     <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:8" ht="30">
       <c r="A1" s="16" t="s">
         <v>128</v>
       </c>
@@ -12170,37 +13259,22 @@
         <v>53</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="F1" s="16" t="s">
+        <v>684</v>
+      </c>
       <c r="G1" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="I1" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>689</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2" s="55" t="s">
         <v>129</v>
       </c>
@@ -12208,40 +13282,25 @@
         <v>101</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>691</v>
-      </c>
-      <c r="D2" s="63" t="s">
+        <v>687</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="83" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2" s="63">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>692</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>693</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>694</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>695</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>696</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>697</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="M2" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:8" ht="45">
       <c r="A3" s="55" t="s">
         <v>130</v>
       </c>
@@ -12249,42 +13308,51 @@
         <v>101</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>699</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>688</v>
+      </c>
+      <c r="F3" s="63" t="s">
         <v>692</v>
       </c>
-      <c r="G3" s="64" t="s">
-        <v>700</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>701</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>695</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>702</v>
-      </c>
-      <c r="K3" s="64" t="s">
-        <v>703</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="M3" s="64">
+      <c r="G3" s="63" t="s">
+        <v>690</v>
+      </c>
+      <c r="H3" s="63">
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>789</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>790</v>
+      </c>
+      <c r="E4" s="83" t="s">
+        <v>688</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -12301,129 +13369,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="67"/>
+    <col min="1" max="2" width="9.140625" style="64"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="67" customFormat="1">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:5" s="64" customFormat="1">
+      <c r="A1" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="73" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="105">
+      <c r="A4" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="77" t="s">
+      <c r="E5" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="E6" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E7" s="75" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105">
-      <c r="A4" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -12476,7 +13544,7 @@
       <c r="D1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="65" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="36" t="s">
@@ -12484,102 +13552,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="69" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="F3" s="72" t="s">
-        <v>704</v>
+      <c r="F3" s="69" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="72" t="s">
-        <v>704</v>
+      <c r="F4" s="69" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="70" t="s">
         <v>547</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="72" t="s">
-        <v>704</v>
+      <c r="F5" s="69" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="69" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12608,8 +13676,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12632,7 +13700,7 @@
       <c r="C1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="67" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="30" t="s">
@@ -12665,13 +13733,13 @@
         <v>101</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>729</v>
+        <v>791</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>705</v>
-      </c>
-      <c r="E2" s="79" t="s">
-        <v>706</v>
+        <v>694</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>695</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>237</v>
@@ -12679,16 +13747,16 @@
       <c r="G2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="74" t="s">
-        <v>704</v>
-      </c>
-      <c r="K2" s="71" t="s">
+      <c r="J2" s="71" t="s">
+        <v>693</v>
+      </c>
+      <c r="K2" s="68" t="s">
         <v>324</v>
       </c>
     </row>
@@ -12700,13 +13768,13 @@
         <v>101</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>730</v>
+        <v>792</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>707</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>706</v>
+        <v>696</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>695</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>237</v>
@@ -12714,16 +13782,16 @@
       <c r="G3" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="74" t="s">
-        <v>704</v>
-      </c>
-      <c r="K3" s="71" t="s">
+      <c r="J3" s="71" t="s">
+        <v>693</v>
+      </c>
+      <c r="K3" s="68" t="s">
         <v>323</v>
       </c>
     </row>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="158775" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="8"/>
+    <workbookView minimized="1" xWindow="160635" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
     <sheet name="CheckOutRegression" sheetId="7" r:id="rId2"/>
-    <sheet name="CartRegression" sheetId="18" r:id="rId3"/>
-    <sheet name="PLPRegression" sheetId="21" r:id="rId4"/>
-    <sheet name="PersonalDetailsRegression" sheetId="22" r:id="rId5"/>
-    <sheet name="OrderHistoryRegression" sheetId="23" r:id="rId6"/>
-    <sheet name="RegistrationRegression" sheetId="24" r:id="rId7"/>
-    <sheet name="AddressBookRegression" sheetId="19" r:id="rId8"/>
-    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId9"/>
-    <sheet name="StoreLocatorRegression" sheetId="26" r:id="rId10"/>
-    <sheet name="EmailAddressRegression" sheetId="27" r:id="rId11"/>
-    <sheet name="PasswordRegression" sheetId="28" r:id="rId12"/>
-    <sheet name="users" sheetId="13" r:id="rId13"/>
-    <sheet name="products" sheetId="8" r:id="rId14"/>
-    <sheet name="cards" sheetId="9" r:id="rId15"/>
-    <sheet name="addresses" sheetId="10" r:id="rId16"/>
-    <sheet name="users_alternatives" sheetId="20" r:id="rId17"/>
+    <sheet name="PDPRegression" sheetId="29" r:id="rId3"/>
+    <sheet name="CartRegression" sheetId="18" r:id="rId4"/>
+    <sheet name="PLPRegression" sheetId="21" r:id="rId5"/>
+    <sheet name="PersonalDetailsRegression" sheetId="22" r:id="rId6"/>
+    <sheet name="OrderHistoryRegression" sheetId="23" r:id="rId7"/>
+    <sheet name="RegistrationRegression" sheetId="24" r:id="rId8"/>
+    <sheet name="AddressBookRegression" sheetId="19" r:id="rId9"/>
+    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId10"/>
+    <sheet name="StoreLocatorRegression" sheetId="26" r:id="rId11"/>
+    <sheet name="EmailAddressRegression" sheetId="27" r:id="rId12"/>
+    <sheet name="PasswordRegression" sheetId="28" r:id="rId13"/>
+    <sheet name="users" sheetId="13" r:id="rId14"/>
+    <sheet name="products" sheetId="8" r:id="rId15"/>
+    <sheet name="cards" sheetId="9" r:id="rId16"/>
+    <sheet name="addresses" sheetId="10" r:id="rId17"/>
+    <sheet name="users_alternatives" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="800">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -2492,6 +2493,35 @@
   </si>
   <si>
     <t>Add a new payment through checkout then delete it from payment page</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Brands/Toko/Snowboard-Ski-Tool-Toko-Waxremover-HC3-500ml/p/45572?site=apparel-uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest, verify the PDP basics </t>
+  </si>
+  <si>
+    <t>id
+name
+price
+summary
+desc
+stock level indicator add to cart button
+share link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get reviews
+</t>
+  </si>
+  <si>
+    <t>max number of prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product size 
+product color </t>
   </si>
 </sst>
 </file>
@@ -3585,6 +3615,142 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>694</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>695</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>693</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>792</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>696</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>695</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>693</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3666,7 +3832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -4152,7 +4318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -4598,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -5520,15 +5686,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5628,13 +5794,26 @@
         <v>268</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="75">
+      <c r="A7" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="40" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -5779,7 +5958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -5953,7 +6132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -11872,6 +12051,183 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>796</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="E3" s="80"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62" t="s">
+        <v>798</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="77"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62" t="s">
+        <v>799</v>
+      </c>
+      <c r="E5" s="80"/>
+      <c r="F5" s="77"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="77"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="77"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="77"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="77"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12602,7 +12958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -12945,7 +13301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -13221,7 +13577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -13356,7 +13712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -13512,7 +13868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -13667,140 +14023,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>791</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>694</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>695</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="71" t="s">
-        <v>693</v>
-      </c>
-      <c r="K2" s="68" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>792</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>696</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>695</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>693</v>
-      </c>
-      <c r="K3" s="68" t="s">
-        <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
-</worksheet>
 </file>
--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="160635" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="165285" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="PasswordRegression" sheetId="28" r:id="rId13"/>
     <sheet name="users" sheetId="13" r:id="rId14"/>
     <sheet name="products" sheetId="8" r:id="rId15"/>
-    <sheet name="cards" sheetId="9" r:id="rId16"/>
-    <sheet name="addresses" sheetId="10" r:id="rId17"/>
-    <sheet name="users_alternatives" sheetId="20" r:id="rId18"/>
+    <sheet name="products_back" sheetId="31" r:id="rId16"/>
+    <sheet name="cards" sheetId="9" r:id="rId17"/>
+    <sheet name="addresses" sheetId="10" r:id="rId18"/>
+    <sheet name="users_alternatives" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2915" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="821">
   <si>
     <t>aa@gg.cc</t>
   </si>
@@ -2522,6 +2523,69 @@
   <si>
     <t xml:space="preserve">product size 
 product color </t>
+  </si>
+  <si>
+    <t>Guest, verify reviews</t>
+  </si>
+  <si>
+    <t>Guest, verify max number of products</t>
+  </si>
+  <si>
+    <t>Guest, verify product veriants</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>Summary: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
+  </si>
+  <si>
+    <t>£12.86</t>
+  </si>
+  <si>
+    <t>Description: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>300613491</t>
+  </si>
+  <si>
+    <t>300046037</t>
+  </si>
+  <si>
+    <t>300046592</t>
+  </si>
+  <si>
+    <t>Seizure Satchel brown Uni</t>
+  </si>
+  <si>
+    <t>T-Shirt Men Playboard Flower SS black M</t>
+  </si>
+  <si>
+    <t>118514</t>
+  </si>
+  <si>
+    <t>Avionics Shades Black</t>
+  </si>
+  <si>
+    <t>Shades Fox The Duncan polished black grey</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2723,6 +2787,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2731,7 +2808,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2976,6 +3053,28 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3326,8 +3425,8 @@
   </sheetPr>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5691,10 +5790,238 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>804</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="89" t="s">
+        <v>803</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>667</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="89" t="s">
+        <v>805</v>
+      </c>
+      <c r="L1" s="89" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60">
+      <c r="A2" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>816</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" ht="60">
+      <c r="A3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="60">
+      <c r="A4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="60">
+      <c r="A5" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>820</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="60">
+      <c r="A6" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>819</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+    </row>
+    <row r="7" spans="1:12" ht="75">
+      <c r="A7" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="B7" s="33">
+        <v>45572</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>810</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>794</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>807</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>811</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5813,7 +6140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -5958,7 +6285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -6132,7 +6459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -12051,10 +12378,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12063,11 +12390,12 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>128</v>
       </c>
@@ -12081,141 +12409,84 @@
         <v>52</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="G1" s="53" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120">
+    <row r="2" spans="1:7" ht="120">
       <c r="A2" s="55" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="93" t="s">
         <v>795</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="93" t="s">
         <v>796</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="56"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+      <c r="E2" s="93" t="s">
+        <v>793</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="93" t="s">
+        <v>800</v>
+      </c>
+      <c r="D3" s="93" t="s">
         <v>797</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="77"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="93" t="s">
+        <v>793</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="96"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="93" t="s">
+        <v>801</v>
+      </c>
+      <c r="D4" s="93" t="s">
         <v>798</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+      <c r="E4" s="93" t="s">
+        <v>793</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="96"/>
+    </row>
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="93" t="s">
+        <v>802</v>
+      </c>
+      <c r="D5" s="93" t="s">
         <v>799</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="77"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="77"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="77"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="77"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="77"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="77"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="77"/>
+      <c r="E5" s="93" t="s">
+        <v>793</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13585,7 +13856,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165285" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="2"/>
+    <workbookView xWindow="166215" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -2505,87 +2505,86 @@
     <t xml:space="preserve">Guest, verify the PDP basics </t>
   </si>
   <si>
+    <t xml:space="preserve">get reviews
+</t>
+  </si>
+  <si>
+    <t>max number of prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product size 
+product color </t>
+  </si>
+  <si>
+    <t>Guest, verify reviews</t>
+  </si>
+  <si>
+    <t>Guest, verify max number of products</t>
+  </si>
+  <si>
+    <t>Guest, verify product veriants</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>Summary: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
+  </si>
+  <si>
+    <t>£12.86</t>
+  </si>
+  <si>
+    <t>Description: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>300613491</t>
+  </si>
+  <si>
+    <t>300046037</t>
+  </si>
+  <si>
+    <t>300046592</t>
+  </si>
+  <si>
+    <t>Seizure Satchel brown Uni</t>
+  </si>
+  <si>
+    <t>T-Shirt Men Playboard Flower SS black M</t>
+  </si>
+  <si>
+    <t>118514</t>
+  </si>
+  <si>
+    <t>Avionics Shades Black</t>
+  </si>
+  <si>
+    <t>Shades Fox The Duncan polished black grey</t>
+  </si>
+  <si>
     <t>id
 name
 price
 summary
 desc
-stock level indicator add to cart button
-share link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get reviews
-</t>
-  </si>
-  <si>
-    <t>max number of prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product size 
-product color </t>
-  </si>
-  <si>
-    <t>Guest, verify reviews</t>
-  </si>
-  <si>
-    <t>Guest, verify max number of products</t>
-  </si>
-  <si>
-    <t>Guest, verify product veriants</t>
-  </si>
-  <si>
-    <t>summary</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>reviews</t>
-  </si>
-  <si>
-    <t>Summary: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
-  </si>
-  <si>
-    <t>£12.86</t>
-  </si>
-  <si>
-    <t>Description: Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>Snowboard Ski Tool Toko Waxremover HC3 500ml</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>300613491</t>
-  </si>
-  <si>
-    <t>300046037</t>
-  </si>
-  <si>
-    <t>300046592</t>
-  </si>
-  <si>
-    <t>Seizure Satchel brown Uni</t>
-  </si>
-  <si>
-    <t>T-Shirt Men Playboard Flower SS black M</t>
-  </si>
-  <si>
-    <t>118514</t>
-  </si>
-  <si>
-    <t>Avionics Shades Black</t>
-  </si>
-  <si>
-    <t>Shades Fox The Duncan polished black grey</t>
+stock level indicator add to cart button</t>
   </si>
 </sst>
 </file>
@@ -5793,7 +5792,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5812,7 +5811,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>117</v>
@@ -5830,7 +5829,7 @@
         <v>48</v>
       </c>
       <c r="H1" s="89" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I1" s="89" t="s">
         <v>667</v>
@@ -5839,10 +5838,10 @@
         <v>53</v>
       </c>
       <c r="K1" s="89" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L1" s="89" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
@@ -5850,10 +5849,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>110</v>
@@ -5878,10 +5877,10 @@
         <v>47</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>114</v>
@@ -5906,10 +5905,10 @@
         <v>113</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="C4" s="69" t="s">
         <v>818</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>819</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>260</v>
@@ -5930,10 +5929,10 @@
         <v>237</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>238</v>
@@ -5954,10 +5953,10 @@
         <v>267</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="C6" s="69" t="s">
         <v>818</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>819</v>
       </c>
       <c r="D6" s="92" t="s">
         <v>260</v>
@@ -5981,7 +5980,7 @@
         <v>45572</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>794</v>
@@ -5992,19 +5991,19 @@
         <v>268</v>
       </c>
       <c r="H7" s="37" t="s">
+        <v>805</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>806</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="J7" s="37" t="s">
         <v>807</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>808</v>
       </c>
       <c r="K7" s="33" t="s">
         <v>235</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -12381,7 +12380,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12409,7 +12408,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>51</v>
@@ -12418,7 +12417,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="120">
+    <row r="2" spans="1:7" ht="105">
       <c r="A2" s="55" t="s">
         <v>129</v>
       </c>
@@ -12429,7 +12428,7 @@
         <v>795</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="E2" s="93" t="s">
         <v>793</v>
@@ -12443,10 +12442,10 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="93" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E3" s="93" t="s">
         <v>793</v>
@@ -12460,10 +12459,10 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="93" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E4" s="93" t="s">
         <v>793</v>
@@ -12477,10 +12476,10 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="93" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E5" s="93" t="s">
         <v>793</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="182985" yWindow="0" windowWidth="16980" windowHeight="7020"/>
+    <workbookView xWindow="183915" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -3756,7 +3756,7 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -5779,17 +5779,22 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="10" max="11" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
@@ -5824,7 +5829,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="90">
+    <row r="2" spans="1:11" ht="45">
       <c r="A2" s="56" t="s">
         <v>94</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="56" t="s">
         <v>95</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="105">
+    <row r="4" spans="1:11" ht="45">
       <c r="A4" s="56" t="s">
         <v>96</v>
       </c>
@@ -5929,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="90">
+    <row r="5" spans="1:11" ht="45">
       <c r="A5" s="56" t="s">
         <v>97</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90">
+    <row r="6" spans="1:11" ht="45">
       <c r="A6" s="56" t="s">
         <v>98</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90">
+    <row r="7" spans="1:11" ht="45">
       <c r="A7" s="56" t="s">
         <v>99</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="56" t="s">
         <v>100</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="90">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="56" t="s">
         <v>101</v>
       </c>
@@ -6104,7 +6109,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90">
+    <row r="10" spans="1:11" ht="45">
       <c r="A10" s="56" t="s">
         <v>103</v>
       </c>
@@ -6139,7 +6144,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="90">
+    <row r="11" spans="1:11" ht="45">
       <c r="A11" s="56" t="s">
         <v>104</v>
       </c>
@@ -6174,7 +6179,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="56" t="s">
         <v>106</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="90">
+    <row r="13" spans="1:11" ht="45">
       <c r="A13" s="56" t="s">
         <v>129</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="90">
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="56" t="s">
         <v>130</v>
       </c>
@@ -6279,7 +6284,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="90">
+    <row r="15" spans="1:11" ht="45">
       <c r="A15" s="56" t="s">
         <v>131</v>
       </c>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="183915" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="185775" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3583" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="948">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -1860,9 +1860,6 @@
   </si>
   <si>
     <t>PLP with lowest price first</t>
-  </si>
-  <si>
-    <t>https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/Brands/667/c/667</t>
   </si>
   <si>
     <t>Top Rated</t>
@@ -2944,6 +2941,18 @@
     <t>P1
 P2
 P4</t>
+  </si>
+  <si>
+    <t>PLP1</t>
+  </si>
+  <si>
+    <t>PLP2</t>
+  </si>
+  <si>
+    <t>PLP3</t>
+  </si>
+  <si>
+    <t>PLP4</t>
   </si>
 </sst>
 </file>
@@ -3798,7 +3807,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>66</v>
@@ -3819,12 +3828,12 @@
         <v>47</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
@@ -3843,12 +3852,12 @@
         <v>48</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
@@ -3867,12 +3876,12 @@
         <v>47</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>66</v>
@@ -3893,12 +3902,12 @@
         <v>47</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>66</v>
@@ -3919,12 +3928,12 @@
         <v>48</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>66</v>
@@ -3945,12 +3954,12 @@
         <v>47</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="24" t="s">
@@ -3969,12 +3978,12 @@
         <v>47</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="24" t="s">
@@ -3993,12 +4002,12 @@
         <v>48</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="24" t="s">
@@ -4017,12 +4026,12 @@
         <v>47</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="24" t="s">
@@ -4041,12 +4050,12 @@
         <v>47</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="24" t="s">
@@ -4065,12 +4074,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="24" t="s">
@@ -4089,12 +4098,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="24" t="s">
@@ -4113,12 +4122,12 @@
         <v>47</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24" t="s">
@@ -4137,12 +4146,12 @@
         <v>48</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="24" t="s">
@@ -4161,12 +4170,12 @@
         <v>47</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>66</v>
@@ -4187,12 +4196,12 @@
         <v>47</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="24" t="s">
@@ -4211,12 +4220,12 @@
         <v>48</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="24" t="s">
@@ -4235,12 +4244,12 @@
         <v>47</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="24" t="s">
@@ -4259,12 +4268,12 @@
         <v>47</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="24" t="s">
@@ -4283,12 +4292,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="24" t="s">
@@ -4307,12 +4316,12 @@
         <v>47</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>66</v>
@@ -4333,12 +4342,12 @@
         <v>47</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>66</v>
@@ -4359,12 +4368,12 @@
         <v>48</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>66</v>
@@ -4385,12 +4394,12 @@
         <v>47</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>66</v>
@@ -4411,12 +4420,12 @@
         <v>47</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="24" t="s">
@@ -4435,12 +4444,12 @@
         <v>48</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="24" t="s">
@@ -4459,12 +4468,12 @@
         <v>47</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="24" t="s">
@@ -4483,12 +4492,12 @@
         <v>47</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="24" t="s">
@@ -4507,12 +4516,12 @@
         <v>48</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="20" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="24" t="s">
@@ -4531,12 +4540,12 @@
         <v>47</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="24" t="s">
@@ -4555,12 +4564,12 @@
         <v>47</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>66</v>
@@ -4581,12 +4590,12 @@
         <v>48</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="24" t="s">
@@ -4605,12 +4614,12 @@
         <v>47</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="20" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="24" t="s">
@@ -4629,12 +4638,12 @@
         <v>47</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="24" t="s">
@@ -4653,12 +4662,12 @@
         <v>48</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="20" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="24" t="s">
@@ -4677,12 +4686,12 @@
         <v>47</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="24" t="s">
@@ -4701,7 +4710,7 @@
         <v>47</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -4770,10 +4779,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>170</v>
@@ -4788,7 +4797,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J2" s="39" t="s">
         <v>257</v>
@@ -4802,10 +4811,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E3" s="28" t="s">
         <v>170</v>
@@ -4820,7 +4829,7 @@
         <v>47</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>256</v>
@@ -4864,7 +4873,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4875,11 +4884,11 @@
         <v>66</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="64" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4890,11 +4899,11 @@
         <v>66</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4905,10 +4914,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -4961,39 +4970,39 @@
         <v>16</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>664</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>665</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>90</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="K1" s="67" t="s">
         <v>666</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="L1" s="67" t="s">
         <v>667</v>
-      </c>
-      <c r="L1" s="67" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>268</v>
@@ -5008,23 +5017,23 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="46" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E3" s="66" t="s">
         <v>258</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H3" s="2">
         <v>1234567</v>
@@ -5036,29 +5045,29 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="46" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E4" s="89" t="s">
         <v>259</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G4" s="89" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
       </c>
       <c r="I4" s="88" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -5066,27 +5075,27 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="46" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>260</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
       </c>
       <c r="I5" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J5" s="88" t="s">
         <v>0</v>
@@ -5096,89 +5105,89 @@
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="46" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>261</v>
       </c>
       <c r="F6" s="89" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="2">
         <v>1234567</v>
       </c>
       <c r="I6" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J6" s="88"/>
       <c r="K6" s="88" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>262</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
       <c r="L7" s="63" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>263</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
       </c>
       <c r="I8" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
@@ -5188,128 +5197,128 @@
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>264</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H9" s="2">
         <v>1234567</v>
       </c>
       <c r="I9" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J9" s="88"/>
       <c r="K9" s="88" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>265</v>
       </c>
       <c r="F10" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>862</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>863</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
       </c>
       <c r="I10" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J10" s="88"/>
       <c r="K10" s="88" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L10" s="63"/>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>266</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
       </c>
       <c r="I11" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J11" s="88"/>
       <c r="K11" s="88"/>
       <c r="L11" s="63" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>687</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>688</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>267</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
       </c>
       <c r="I12" s="88" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J12" s="88" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K12" s="88"/>
       <c r="L12" s="63"/>
@@ -5361,7 +5370,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>574</v>
@@ -5417,19 +5426,19 @@
         <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H2" s="47">
         <v>300389093</v>
@@ -5444,7 +5453,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="49" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M2" s="50">
         <v>3</v>
@@ -5476,19 +5485,19 @@
         <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H3" s="47">
         <v>300389094</v>
@@ -5503,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M3" s="50">
         <v>2</v>
@@ -5535,19 +5544,19 @@
         <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H4" s="47">
         <v>300389095</v>
@@ -5562,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M4" s="50">
         <v>1</v>
@@ -5594,19 +5603,19 @@
         <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H5" s="47">
         <v>300389095</v>
@@ -5653,10 +5662,10 @@
         <v>66</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -5729,7 +5738,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
@@ -5740,13 +5749,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5757,10 +5766,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E3" s="63">
         <v>500</v>
@@ -5779,7 +5788,7 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -5823,13 +5832,13 @@
         <v>50</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K1" s="38" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45">
+    <row r="2" spans="1:11" ht="60">
       <c r="A2" s="56" t="s">
         <v>94</v>
       </c>
@@ -5837,10 +5846,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E2" s="77" t="s">
         <v>5</v>
@@ -5858,13 +5867,13 @@
         <v>47</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="45">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="56" t="s">
         <v>95</v>
       </c>
@@ -5872,10 +5881,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E3" s="77" t="s">
         <v>5</v>
@@ -5893,13 +5902,13 @@
         <v>47</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K3" s="66" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="45">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60">
       <c r="A4" s="56" t="s">
         <v>96</v>
       </c>
@@ -5907,10 +5916,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E4" s="77" t="s">
         <v>5</v>
@@ -5928,13 +5937,13 @@
         <v>47</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K4" s="66" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45">
+    <row r="5" spans="1:11" ht="60">
       <c r="A5" s="56" t="s">
         <v>97</v>
       </c>
@@ -5942,10 +5951,10 @@
         <v>66</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D5" s="76" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E5" s="77" t="s">
         <v>5</v>
@@ -5963,13 +5972,13 @@
         <v>47</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K5" s="66" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45">
+    <row r="6" spans="1:11" ht="60">
       <c r="A6" s="56" t="s">
         <v>98</v>
       </c>
@@ -5977,10 +5986,10 @@
         <v>66</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E6" s="77" t="s">
         <v>5</v>
@@ -5998,13 +6007,13 @@
         <v>47</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60">
       <c r="A7" s="56" t="s">
         <v>99</v>
       </c>
@@ -6012,10 +6021,10 @@
         <v>66</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D7" s="76" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E7" s="77" t="s">
         <v>5</v>
@@ -6033,13 +6042,13 @@
         <v>47</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="45">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
       <c r="A8" s="56" t="s">
         <v>100</v>
       </c>
@@ -6047,10 +6056,10 @@
         <v>66</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E8" s="77" t="s">
         <v>5</v>
@@ -6068,10 +6077,10 @@
         <v>47</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
@@ -6082,10 +6091,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E9" s="77" t="s">
         <v>5</v>
@@ -6097,16 +6106,16 @@
         <v>19</v>
       </c>
       <c r="H9" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I9" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
@@ -6117,10 +6126,10 @@
         <v>66</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E10" s="77" t="s">
         <v>5</v>
@@ -6132,16 +6141,16 @@
         <v>19</v>
       </c>
       <c r="H10" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I10" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45">
@@ -6152,10 +6161,10 @@
         <v>66</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E11" s="77" t="s">
         <v>5</v>
@@ -6167,16 +6176,16 @@
         <v>19</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I11" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
@@ -6187,10 +6196,10 @@
         <v>66</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E12" s="77" t="s">
         <v>5</v>
@@ -6202,16 +6211,16 @@
         <v>19</v>
       </c>
       <c r="H12" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I12" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
@@ -6222,10 +6231,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E13" s="77" t="s">
         <v>5</v>
@@ -6237,16 +6246,16 @@
         <v>19</v>
       </c>
       <c r="H13" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I13" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
@@ -6257,10 +6266,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E14" s="77" t="s">
         <v>5</v>
@@ -6272,16 +6281,16 @@
         <v>19</v>
       </c>
       <c r="H14" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I14" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
@@ -6292,10 +6301,10 @@
         <v>66</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>5</v>
@@ -6307,16 +6316,16 @@
         <v>19</v>
       </c>
       <c r="H15" s="76" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I15" s="76" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
@@ -6418,7 +6427,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>15</v>
@@ -6434,7 +6443,7 @@
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>102</v>
@@ -6464,7 +6473,7 @@
         <v>70</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>15</v>
@@ -6480,7 +6489,7 @@
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>156</v>
@@ -6510,7 +6519,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>51</v>
@@ -6526,7 +6535,7 @@
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>157</v>
@@ -6556,7 +6565,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>15</v>
@@ -6572,7 +6581,7 @@
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>158</v>
@@ -6602,7 +6611,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>15</v>
@@ -6618,7 +6627,7 @@
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>159</v>
@@ -6648,7 +6657,7 @@
         <v>88</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>51</v>
@@ -6664,7 +6673,7 @@
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>160</v>
@@ -6694,7 +6703,7 @@
         <v>111</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>15</v>
@@ -6710,7 +6719,7 @@
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>102</v>
@@ -6740,7 +6749,7 @@
         <v>111</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>15</v>
@@ -6756,7 +6765,7 @@
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>161</v>
@@ -6786,7 +6795,7 @@
         <v>111</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>51</v>
@@ -6802,7 +6811,7 @@
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>162</v>
@@ -6834,7 +6843,7 @@
         <v>112</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>15</v>
@@ -6850,7 +6859,7 @@
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>163</v>
@@ -6880,7 +6889,7 @@
         <v>112</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>15</v>
@@ -6896,7 +6905,7 @@
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>164</v>
@@ -6926,7 +6935,7 @@
         <v>112</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>51</v>
@@ -6942,7 +6951,7 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>102</v>
@@ -6968,19 +6977,19 @@
         <v>66</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>47</v>
@@ -6990,7 +6999,7 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>165</v>
@@ -7072,7 +7081,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="60">
@@ -7083,7 +7092,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="85" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D2" s="86" t="s">
         <v>256</v>
@@ -7101,10 +7110,10 @@
         <v>47</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J2" s="86" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K2" s="84">
         <v>0</v>
@@ -7162,25 +7171,25 @@
         <v>16</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>690</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="I1" s="44" t="s">
-        <v>606</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="44" t="s">
         <v>694</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7191,10 +7200,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E2" s="39" t="s">
         <v>257</v>
@@ -7221,10 +7230,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>258</v>
@@ -7239,7 +7248,7 @@
         <v>12345678</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63"/>
@@ -7253,10 +7262,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>259</v>
@@ -7269,10 +7278,10 @@
         <v>12345678</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K4" s="63"/>
       <c r="L4" s="47"/>
@@ -7285,10 +7294,10 @@
         <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>257</v>
@@ -7303,10 +7312,10 @@
         <v>12345678</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="47"/>
@@ -7319,10 +7328,10 @@
         <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>258</v>
@@ -7335,11 +7344,11 @@
         <v>12345678</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L6" s="47"/>
     </row>
@@ -7351,10 +7360,10 @@
         <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>259</v>
@@ -7369,11 +7378,11 @@
         <v>12345678</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J7" s="63"/>
       <c r="K7" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L7" s="47"/>
     </row>
@@ -7385,10 +7394,10 @@
         <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>257</v>
@@ -7401,12 +7410,12 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
       <c r="L8" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -7417,10 +7426,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>258</v>
@@ -7435,12 +7444,12 @@
         <v>123</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
       <c r="L9" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30">
@@ -7451,10 +7460,10 @@
         <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>259</v>
@@ -7469,14 +7478,14 @@
         <v>123</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L10" s="63" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
@@ -7487,10 +7496,10 @@
         <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>257</v>
@@ -7505,12 +7514,12 @@
         <v>123456798</v>
       </c>
       <c r="I11" s="63" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J11" s="63"/>
       <c r="K11" s="63"/>
       <c r="L11" s="63" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -8153,10 +8162,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="31" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -8176,10 +8185,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -8202,7 +8211,7 @@
         <v>107</v>
       </c>
       <c r="G29" s="90" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -8225,7 +8234,7 @@
         <v>107</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -8248,7 +8257,7 @@
         <v>107</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -8271,7 +8280,7 @@
         <v>107</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -8294,7 +8303,7 @@
         <v>107</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8317,7 +8326,7 @@
         <v>107</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -8340,7 +8349,7 @@
         <v>107</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -8363,7 +8372,7 @@
         <v>107</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -8386,7 +8395,7 @@
         <v>107</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -8409,7 +8418,7 @@
         <v>107</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -8432,7 +8441,7 @@
         <v>107</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -8455,7 +8464,7 @@
         <v>107</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -8478,7 +8487,7 @@
         <v>107</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -8501,7 +8510,7 @@
         <v>107</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -8524,7 +8533,7 @@
         <v>107</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -8547,7 +8556,7 @@
         <v>107</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -8570,7 +8579,7 @@
         <v>107</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -8593,7 +8602,7 @@
         <v>107</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -8616,7 +8625,7 @@
         <v>107</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -8639,7 +8648,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -8662,7 +8671,7 @@
         <v>107</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -8685,7 +8694,7 @@
         <v>107</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -8708,7 +8717,7 @@
         <v>107</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -8731,7 +8740,7 @@
         <v>107</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -8754,7 +8763,7 @@
         <v>107</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -8777,7 +8786,7 @@
         <v>107</v>
       </c>
       <c r="G54" s="40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -8800,7 +8809,7 @@
         <v>107</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -8823,7 +8832,7 @@
         <v>107</v>
       </c>
       <c r="G56" s="40" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -8846,7 +8855,7 @@
         <v>107</v>
       </c>
       <c r="G57" s="40" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -8869,7 +8878,7 @@
         <v>107</v>
       </c>
       <c r="G58" s="40" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -8892,7 +8901,7 @@
         <v>107</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -8915,7 +8924,7 @@
         <v>107</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -8938,7 +8947,7 @@
         <v>107</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -8961,7 +8970,7 @@
         <v>107</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -8984,7 +8993,7 @@
         <v>107</v>
       </c>
       <c r="G63" s="40" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -9007,7 +9016,7 @@
         <v>107</v>
       </c>
       <c r="G64" s="40" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9030,7 +9039,7 @@
         <v>107</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -9100,7 +9109,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="20" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>66</v>
@@ -9128,12 +9137,12 @@
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -9161,12 +9170,12 @@
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="40" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>66</v>
@@ -9194,12 +9203,12 @@
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="40" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>66</v>
@@ -9227,12 +9236,12 @@
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="40" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>66</v>
@@ -9260,12 +9269,12 @@
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="23" t="s">
@@ -9291,12 +9300,12 @@
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="23" t="s">
@@ -9322,12 +9331,12 @@
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="40" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="23" t="s">
@@ -9353,12 +9362,12 @@
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="40" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="23" t="s">
@@ -9384,12 +9393,12 @@
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="23" t="s">
@@ -9415,12 +9424,12 @@
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="20" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="23" t="s">
@@ -9446,12 +9455,12 @@
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="40" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="20" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="23" t="s">
@@ -9477,12 +9486,12 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="23" t="s">
@@ -9511,7 +9520,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="20" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="23" t="s">
@@ -9540,7 +9549,7 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="20" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="23" t="s">
@@ -9569,7 +9578,7 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="23" t="s">
@@ -9598,7 +9607,7 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="23" t="s">
@@ -9627,7 +9636,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="20" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="23" t="s">
@@ -9656,7 +9665,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="23" t="s">
@@ -9682,12 +9691,12 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="20" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="23" t="s">
@@ -9713,12 +9722,12 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="23" t="s">
@@ -9744,12 +9753,12 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="40" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="23" t="s">
@@ -9775,12 +9784,12 @@
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="40" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="23" t="s">
@@ -9806,12 +9815,12 @@
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="40" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="23" t="s">
@@ -9837,12 +9846,12 @@
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="20" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="23" t="s">
@@ -9868,12 +9877,12 @@
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="23" t="s">
@@ -9899,12 +9908,12 @@
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="40" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="20" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="23" t="s">
@@ -9930,12 +9939,12 @@
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="40" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="23" t="s">
@@ -9961,12 +9970,12 @@
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="40" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="23" t="s">
@@ -9992,12 +10001,12 @@
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="23" t="s">
@@ -10023,12 +10032,12 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="23" t="s">
@@ -10057,7 +10066,7 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="23" t="s">
@@ -10086,7 +10095,7 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="23" t="s">
@@ -10115,7 +10124,7 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="23" t="s">
@@ -10144,7 +10153,7 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="20" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="23" t="s">
@@ -10173,7 +10182,7 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="20" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="23" t="s">
@@ -10202,7 +10211,7 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="23" t="s">
@@ -10231,7 +10240,7 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="20" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="23" t="s">
@@ -10241,7 +10250,7 @@
         <v>105</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>51</v>
@@ -10291,7 +10300,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>82</v>
@@ -10309,19 +10318,19 @@
         <v>13</v>
       </c>
       <c r="H1" s="70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J1" s="70" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="70" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60">
@@ -10329,10 +10338,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>75</v>
@@ -10357,10 +10366,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D3" s="79" t="s">
         <v>79</v>
@@ -10385,10 +10394,10 @@
         <v>78</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>737</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>738</v>
       </c>
       <c r="D4" s="79" t="s">
         <v>193</v>
@@ -10409,10 +10418,10 @@
         <v>170</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D5" s="79" t="s">
         <v>171</v>
@@ -10433,10 +10442,10 @@
         <v>200</v>
       </c>
       <c r="B6" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>737</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>738</v>
       </c>
       <c r="D6" s="80" t="s">
         <v>193</v>
@@ -10454,16 +10463,16 @@
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="D7" s="79" t="s">
         <v>713</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>803</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>729</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>714</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -10471,33 +10480,33 @@
         <v>201</v>
       </c>
       <c r="H7" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="J7" s="28" t="s">
         <v>726</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>727</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>168</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75">
       <c r="A8" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -10506,7 +10515,7 @@
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J8" s="28"/>
       <c r="K8" s="25"/>
@@ -10628,10 +10637,10 @@
     </row>
     <row r="7" spans="1:5" ht="75">
       <c r="A7" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>713</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>714</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -10931,7 +10940,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>3</v>
@@ -10943,13 +10952,13 @@
         <v>83</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>38</v>
@@ -15119,13 +15128,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105">
@@ -15136,13 +15145,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F2" s="73"/>
       <c r="G2" s="74"/>
@@ -15153,13 +15162,13 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="72" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F3" s="73"/>
       <c r="G3" s="75"/>
@@ -15170,13 +15179,13 @@
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="72" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F4" s="73"/>
       <c r="G4" s="75"/>
@@ -15187,13 +15196,13 @@
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="72" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E5" s="72" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F5" s="73"/>
       <c r="G5" s="75"/>
@@ -15944,32 +15953,31 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="20.7109375" style="52" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="20.7109375" style="52" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="19.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1">
+    <row r="1" spans="1:18" s="6" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>93</v>
       </c>
@@ -15979,58 +15987,55 @@
       <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>574</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>575</v>
+      </c>
       <c r="F1" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="G1" s="10" t="s">
         <v>576</v>
       </c>
+      <c r="G1" s="44" t="s">
+        <v>577</v>
+      </c>
       <c r="H1" s="44" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>579</v>
-      </c>
-      <c r="K1" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="L1" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="44" t="s">
         <v>583</v>
       </c>
+      <c r="N1" s="10" t="s">
+        <v>584</v>
+      </c>
       <c r="O1" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="S1" s="10" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1">
+    <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>94</v>
+        <v>944</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>66</v>
@@ -16038,7 +16043,7 @@
       <c r="C2" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="7" t="s">
         <v>590</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -16047,29 +16052,29 @@
       <c r="F2" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="47">
+        <v>300389093</v>
+      </c>
+      <c r="H2" s="47">
+        <v>3003890930</v>
+      </c>
+      <c r="I2" s="48">
+        <v>1</v>
+      </c>
+      <c r="J2" s="48">
+        <v>3</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="H2" s="47">
-        <v>300389093</v>
-      </c>
-      <c r="I2" s="47">
-        <v>3003890930</v>
-      </c>
-      <c r="J2" s="48">
+      <c r="L2" s="50">
+        <v>3</v>
+      </c>
+      <c r="M2" s="51">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7" t="b">
         <v>1</v>
-      </c>
-      <c r="K2" s="48">
-        <v>3</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>594</v>
-      </c>
-      <c r="M2" s="50">
-        <v>3</v>
-      </c>
-      <c r="N2" s="51">
-        <v>0</v>
       </c>
       <c r="O2" s="7" t="b">
         <v>1</v>
@@ -16078,25 +16083,24 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="46"/>
+        <v>945</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>590</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>596</v>
@@ -16104,29 +16108,29 @@
       <c r="F3" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>598</v>
+      <c r="G3" s="47">
+        <v>300389094</v>
       </c>
       <c r="H3" s="47">
-        <v>300389094</v>
+        <v>3003890940</v>
       </c>
       <c r="I3" s="47">
-        <v>3003890940</v>
+        <v>1</v>
       </c>
       <c r="J3" s="47">
         <v>1</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="L3" s="50">
+        <v>2</v>
+      </c>
+      <c r="M3" s="51">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="b">
         <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="M3" s="50">
-        <v>2</v>
-      </c>
-      <c r="N3" s="51">
-        <v>0</v>
       </c>
       <c r="O3" s="7" t="b">
         <v>1</v>
@@ -16135,147 +16139,142 @@
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="46"/>
+        <v>946</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="C4" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>601</v>
-      </c>
       <c r="F4" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="G4" s="47">
+        <v>300389095</v>
       </c>
       <c r="H4" s="47">
-        <v>300389095</v>
+        <v>3003890950</v>
       </c>
       <c r="I4" s="47">
-        <v>3003890950</v>
+        <v>1</v>
       </c>
       <c r="J4" s="47">
         <v>1</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="L4" s="50">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="M4" s="50">
+      <c r="M4" s="51">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="51">
+      <c r="O4" s="7" t="b">
         <v>0</v>
-      </c>
-      <c r="O4" s="7" t="b">
-        <v>1</v>
       </c>
       <c r="P4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="Q4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="46"/>
+        <v>947</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="C5" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>590</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="G5" s="47">
+        <v>300389095</v>
       </c>
       <c r="H5" s="47">
-        <v>300389095</v>
+        <v>3003890960</v>
       </c>
       <c r="I5" s="47">
-        <v>3003890960</v>
+        <v>2</v>
       </c>
       <c r="J5" s="47">
         <v>2</v>
       </c>
-      <c r="K5" s="47">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="50">
+      <c r="L5" s="50">
         <v>0</v>
       </c>
-      <c r="N5" s="51">
+      <c r="M5" s="51">
         <v>0</v>
       </c>
+      <c r="N5" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="O5" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="Q5" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="ibatta@dbi.com"/>
-    <hyperlink ref="N3" r:id="rId2" display="ibatta@dbi.com"/>
-    <hyperlink ref="N4" r:id="rId3" display="ibatta@dbi.com"/>
-    <hyperlink ref="N5" r:id="rId4" display="ibatta@dbi.com"/>
-    <hyperlink ref="O2" r:id="rId5" display="ibatta@dbi.com"/>
-    <hyperlink ref="R2" r:id="rId6" display="ibatta@dbi.com"/>
-    <hyperlink ref="O3:O5" r:id="rId7" display="ibatta@dbi.com"/>
-    <hyperlink ref="P2" r:id="rId8" display="ibatta@dbi.com"/>
-    <hyperlink ref="O3" r:id="rId9" display="ibatta@dbi.com"/>
-    <hyperlink ref="Q2" r:id="rId10" display="ibatta@dbi.com"/>
-    <hyperlink ref="P3" r:id="rId11" display="ibatta@dbi.com"/>
-    <hyperlink ref="Q3" r:id="rId12" display="ibatta@dbi.com"/>
-    <hyperlink ref="R3" r:id="rId13" display="ibatta@dbi.com"/>
-    <hyperlink ref="S2" r:id="rId14" display="ibatta@dbi.com"/>
-    <hyperlink ref="S3" r:id="rId15" display="ibatta@dbi.com"/>
-    <hyperlink ref="S4:S5" r:id="rId16" display="ibatta@dbi.com"/>
+    <hyperlink ref="M2" r:id="rId1" display="ibatta@dbi.com"/>
+    <hyperlink ref="M3" r:id="rId2" display="ibatta@dbi.com"/>
+    <hyperlink ref="M4" r:id="rId3" display="ibatta@dbi.com"/>
+    <hyperlink ref="M5" r:id="rId4" display="ibatta@dbi.com"/>
+    <hyperlink ref="N2" r:id="rId5" display="ibatta@dbi.com"/>
+    <hyperlink ref="Q2" r:id="rId6" display="ibatta@dbi.com"/>
+    <hyperlink ref="N3:N5" r:id="rId7" display="ibatta@dbi.com"/>
+    <hyperlink ref="O2" r:id="rId8" display="ibatta@dbi.com"/>
+    <hyperlink ref="N3" r:id="rId9" display="ibatta@dbi.com"/>
+    <hyperlink ref="P2" r:id="rId10" display="ibatta@dbi.com"/>
+    <hyperlink ref="O3" r:id="rId11" display="ibatta@dbi.com"/>
+    <hyperlink ref="P3" r:id="rId12" display="ibatta@dbi.com"/>
+    <hyperlink ref="Q3" r:id="rId13" display="ibatta@dbi.com"/>
+    <hyperlink ref="R2" r:id="rId14" display="ibatta@dbi.com"/>
+    <hyperlink ref="R3" r:id="rId15" display="ibatta@dbi.com"/>
+    <hyperlink ref="R4:R5" r:id="rId16" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
@@ -16324,19 +16323,19 @@
         <v>108</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>607</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16347,10 +16346,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>260</v>
@@ -16373,19 +16372,19 @@
         <v>66</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>261</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H3" s="58"/>
       <c r="I3" s="58"/>
@@ -16399,22 +16398,22 @@
         <v>66</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>262</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>648</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>649</v>
       </c>
       <c r="I4" s="58"/>
       <c r="J4" s="58"/>
@@ -16427,20 +16426,20 @@
         <v>66</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>263</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H5" s="76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I5" s="58" t="s">
         <v>1</v>
@@ -16455,20 +16454,20 @@
         <v>66</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>264</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I6" s="58"/>
       <c r="J6" s="58" t="s">
@@ -16483,10 +16482,10 @@
         <v>66</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>265</v>
@@ -16494,7 +16493,7 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I7" s="58" t="s">
         <v>1</v>
@@ -16511,22 +16510,22 @@
         <v>66</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>266</v>
       </c>
       <c r="F8" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="H8" s="76" t="s">
         <v>648</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>649</v>
       </c>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
@@ -16576,13 +16575,13 @@
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>616</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
@@ -16593,19 +16592,19 @@
         <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>256</v>
       </c>
       <c r="E2" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -16619,19 +16618,19 @@
         <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>257</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -16645,13 +16644,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>709</v>
       </c>
-      <c r="D4" s="83" t="s">
-        <v>710</v>
-      </c>
       <c r="E4" s="66" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16700,7 +16699,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16711,13 +16710,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>629</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16728,13 +16727,13 @@
         <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105">
@@ -16745,13 +16744,13 @@
         <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="62" t="s">
         <v>635</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16762,13 +16761,13 @@
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16779,13 +16778,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>641</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
@@ -16796,13 +16795,13 @@
         <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="62" t="s">
         <v>643</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -16862,7 +16861,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="56" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>66</v>
@@ -16879,7 +16878,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="56" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>66</v>
@@ -16891,12 +16890,12 @@
         <v>257</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="56" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>66</v>
@@ -16908,12 +16907,12 @@
         <v>258</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="56" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>66</v>
@@ -16925,12 +16924,12 @@
         <v>259</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="56" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>66</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="186720" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="188580" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -8124,7 +8124,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -11916,8 +11916,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="188580" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="189510" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -27,10 +27,11 @@
     <sheet name="PasswordRegression" sheetId="28" r:id="rId18"/>
     <sheet name="MailSignupRegression" sheetId="38" r:id="rId19"/>
     <sheet name="QuickViewRegression" sheetId="39" r:id="rId20"/>
-    <sheet name="users" sheetId="13" r:id="rId21"/>
-    <sheet name="products" sheetId="8" r:id="rId22"/>
-    <sheet name="cards" sheetId="9" r:id="rId23"/>
-    <sheet name="addresses" sheetId="10" r:id="rId24"/>
+    <sheet name="VisualTestingHPRegression" sheetId="40" r:id="rId21"/>
+    <sheet name="users" sheetId="13" r:id="rId22"/>
+    <sheet name="products" sheetId="8" r:id="rId23"/>
+    <sheet name="cards" sheetId="9" r:id="rId24"/>
+    <sheet name="addresses" sheetId="10" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="719">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -2237,6 +2238,57 @@
     <t xml:space="preserve">loggedin
 product size 
 product color </t>
+  </si>
+  <si>
+    <t>check header guest</t>
+  </si>
+  <si>
+    <t>check footer guest</t>
+  </si>
+  <si>
+    <t>check body guest</t>
+  </si>
+  <si>
+    <t>QV5</t>
+  </si>
+  <si>
+    <t>QV6</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>HP_Header</t>
+  </si>
+  <si>
+    <t>HP_Footer</t>
+  </si>
+  <si>
+    <t>HP_Body</t>
+  </si>
+  <si>
+    <t>update
+herader</t>
+  </si>
+  <si>
+    <t>update
+footer</t>
+  </si>
+  <si>
+    <t>update
+body</t>
+  </si>
+  <si>
+    <t>verify
+header</t>
+  </si>
+  <si>
+    <t>verify
+footer</t>
+  </si>
+  <si>
+    <t>verify
+body</t>
   </si>
 </sst>
 </file>
@@ -8244,12 +8296,151 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="53" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="53" t="s">
+        <v>695</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="53" t="s">
+        <v>696</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="53" t="s">
+        <v>707</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>714</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="53" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53" t="s">
+        <v>706</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>715</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -9762,7 +9953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
@@ -10016,7 +10207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF002060"/>
@@ -10161,7 +10352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23">
     <tabColor rgb="FF002060"/>
@@ -11916,7 +12107,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="189510" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="190440" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -28,10 +28,11 @@
     <sheet name="MailSignupRegression" sheetId="38" r:id="rId19"/>
     <sheet name="QuickViewRegression" sheetId="39" r:id="rId20"/>
     <sheet name="VisualTestingHPRegression" sheetId="40" r:id="rId21"/>
-    <sheet name="users" sheetId="13" r:id="rId22"/>
-    <sheet name="products" sheetId="8" r:id="rId23"/>
-    <sheet name="cards" sheetId="9" r:id="rId24"/>
-    <sheet name="addresses" sheetId="10" r:id="rId25"/>
+    <sheet name="LoginRegression" sheetId="41" r:id="rId22"/>
+    <sheet name="users" sheetId="13" r:id="rId23"/>
+    <sheet name="products" sheetId="8" r:id="rId24"/>
+    <sheet name="cards" sheetId="9" r:id="rId25"/>
+    <sheet name="addresses" sheetId="10" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="736">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -1549,9 +1550,6 @@
     <t>Search results page with No Results</t>
   </si>
   <si>
-    <t>Bags</t>
-  </si>
-  <si>
     <t>Search results page with name ascending</t>
   </si>
   <si>
@@ -2289,6 +2287,60 @@
   <si>
     <t>verify
 body</t>
+  </si>
+  <si>
+    <t>Login-1</t>
+  </si>
+  <si>
+    <t>Logn with valid information</t>
+  </si>
+  <si>
+    <t>Success login</t>
+  </si>
+  <si>
+    <t>Login-2</t>
+  </si>
+  <si>
+    <t>Try to login with invalid email</t>
+  </si>
+  <si>
+    <t>invalidUserEmail</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Your username or password was incorrect.</t>
+  </si>
+  <si>
+    <t>Login-3</t>
+  </si>
+  <si>
+    <t>Try to login with invalid password</t>
+  </si>
+  <si>
+    <t>Login-5</t>
+  </si>
+  <si>
+    <t>Login-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot password </t>
+  </si>
+  <si>
+    <t>Forgot password -Valid Email</t>
+  </si>
+  <si>
+    <t>Password reset instructions have been sent to your e-mail address. Please contact customer support if you require additional assistance.</t>
+  </si>
+  <si>
+    <t>Forgot password -Invalid Email</t>
+  </si>
+  <si>
+    <t>Unfortunately the quantity you chose exceeded the maximum order quantity for this product. The quantity in your cart has been reduced to the maximum order quantity.</t>
+  </si>
+  <si>
+    <t>Watches</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2554,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2758,6 +2810,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3150,7 +3205,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>66</v>
@@ -3171,12 +3226,12 @@
         <v>47</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
@@ -3195,12 +3250,12 @@
         <v>48</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
@@ -3219,12 +3274,12 @@
         <v>47</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>66</v>
@@ -3245,12 +3300,12 @@
         <v>47</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>66</v>
@@ -3271,12 +3326,12 @@
         <v>48</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>66</v>
@@ -3297,12 +3352,12 @@
         <v>47</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
@@ -3321,12 +3376,12 @@
         <v>47</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
@@ -3345,12 +3400,12 @@
         <v>48</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
@@ -3369,12 +3424,12 @@
         <v>47</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -3393,12 +3448,12 @@
         <v>47</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
@@ -3417,12 +3472,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
@@ -3441,12 +3496,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
@@ -3465,12 +3520,12 @@
         <v>47</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
@@ -3489,12 +3544,12 @@
         <v>48</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -3513,12 +3568,12 @@
         <v>47</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -3539,12 +3594,12 @@
         <v>47</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
@@ -3563,12 +3618,12 @@
         <v>48</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
@@ -3587,12 +3642,12 @@
         <v>47</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
@@ -3611,12 +3666,12 @@
         <v>47</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
@@ -3635,12 +3690,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
@@ -3659,12 +3714,12 @@
         <v>47</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>66</v>
@@ -3685,12 +3740,12 @@
         <v>47</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>66</v>
@@ -3711,12 +3766,12 @@
         <v>48</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>66</v>
@@ -3737,12 +3792,12 @@
         <v>47</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>66</v>
@@ -3763,12 +3818,12 @@
         <v>47</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="23" t="s">
@@ -3787,12 +3842,12 @@
         <v>48</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="23" t="s">
@@ -3811,12 +3866,12 @@
         <v>47</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="23" t="s">
@@ -3835,12 +3890,12 @@
         <v>47</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="23" t="s">
@@ -3859,12 +3914,12 @@
         <v>48</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="23" t="s">
@@ -3883,12 +3938,12 @@
         <v>47</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="23" t="s">
@@ -3907,12 +3962,12 @@
         <v>47</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>66</v>
@@ -3933,12 +3988,12 @@
         <v>48</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="23" t="s">
@@ -3957,12 +4012,12 @@
         <v>47</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="23" t="s">
@@ -3981,12 +4036,12 @@
         <v>47</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="23" t="s">
@@ -4005,12 +4060,12 @@
         <v>48</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="23" t="s">
@@ -4029,12 +4084,12 @@
         <v>47</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="23" t="s">
@@ -4053,7 +4108,7 @@
         <v>47</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -4336,7 +4391,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>66</v>
@@ -4360,7 +4415,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
@@ -4388,7 +4443,7 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
@@ -4401,10 +4456,10 @@
         <v>226</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
@@ -4418,7 +4473,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
@@ -4432,7 +4487,7 @@
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
@@ -4448,7 +4503,7 @@
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
@@ -4461,7 +4516,7 @@
         <v>228</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="2">
@@ -4478,7 +4533,7 @@
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
@@ -4508,7 +4563,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
@@ -4524,7 +4579,7 @@
         <v>416</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
@@ -4540,7 +4595,7 @@
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
@@ -4553,7 +4608,7 @@
         <v>231</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>418</v>
@@ -4572,7 +4627,7 @@
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
@@ -4585,10 +4640,10 @@
         <v>232</v>
       </c>
       <c r="F10" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>599</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>600</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
@@ -4604,7 +4659,7 @@
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
@@ -4617,10 +4672,10 @@
         <v>233</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
@@ -4636,7 +4691,7 @@
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
@@ -4649,10 +4704,10 @@
         <v>234</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
@@ -4679,8 +4734,8 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection sqref="A1:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4713,7 +4768,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>312</v>
@@ -4769,10 +4824,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>480</v>
+        <v>735</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>328</v>
@@ -4828,10 +4883,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>480</v>
+        <v>735</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>333</v>
@@ -4887,10 +4942,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>480</v>
+        <v>735</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>338</v>
@@ -4946,10 +5001,10 @@
         <v>66</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>480</v>
+        <v>735</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>341</v>
@@ -5092,13 +5147,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5109,10 +5164,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E3" s="60">
         <v>500</v>
@@ -5189,10 +5244,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>5</v>
@@ -5210,10 +5265,10 @@
         <v>47</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -5224,10 +5279,10 @@
         <v>66</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>5</v>
@@ -5245,10 +5300,10 @@
         <v>47</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
@@ -5259,10 +5314,10 @@
         <v>66</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>5</v>
@@ -5280,7 +5335,7 @@
         <v>47</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>1</v>
@@ -5294,10 +5349,10 @@
         <v>66</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E5" s="74" t="s">
         <v>5</v>
@@ -5315,7 +5370,7 @@
         <v>47</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>2</v>
@@ -5329,10 +5384,10 @@
         <v>66</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>5</v>
@@ -5350,10 +5405,10 @@
         <v>47</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
@@ -5364,10 +5419,10 @@
         <v>66</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>5</v>
@@ -5385,10 +5440,10 @@
         <v>47</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
@@ -5399,10 +5454,10 @@
         <v>66</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>5</v>
@@ -5420,10 +5475,10 @@
         <v>47</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
@@ -5434,10 +5489,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>5</v>
@@ -5455,10 +5510,10 @@
         <v>47</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
@@ -5469,10 +5524,10 @@
         <v>66</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>5</v>
@@ -5490,10 +5545,10 @@
         <v>47</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45">
@@ -5504,10 +5559,10 @@
         <v>66</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="74" t="s">
         <v>5</v>
@@ -5525,10 +5580,10 @@
         <v>47</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
@@ -5539,10 +5594,10 @@
         <v>66</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E12" s="74" t="s">
         <v>5</v>
@@ -5560,10 +5615,10 @@
         <v>47</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
@@ -5574,10 +5629,10 @@
         <v>66</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>5</v>
@@ -5595,10 +5650,10 @@
         <v>47</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
@@ -5609,10 +5664,10 @@
         <v>66</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E14" s="74" t="s">
         <v>5</v>
@@ -5630,10 +5685,10 @@
         <v>47</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
@@ -5644,10 +5699,10 @@
         <v>66</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E15" s="74" t="s">
         <v>5</v>
@@ -5665,10 +5720,10 @@
         <v>47</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -5770,7 +5825,7 @@
         <v>70</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>15</v>
@@ -5786,7 +5841,7 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>101</v>
@@ -5816,7 +5871,7 @@
         <v>70</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>15</v>
@@ -5832,7 +5887,7 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>155</v>
@@ -5862,7 +5917,7 @@
         <v>70</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>51</v>
@@ -5878,7 +5933,7 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>156</v>
@@ -5908,7 +5963,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>15</v>
@@ -5924,7 +5979,7 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>157</v>
@@ -5954,7 +6009,7 @@
         <v>88</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>15</v>
@@ -5970,7 +6025,7 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>158</v>
@@ -6000,7 +6055,7 @@
         <v>88</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>51</v>
@@ -6016,7 +6071,7 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>159</v>
@@ -6046,7 +6101,7 @@
         <v>110</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>15</v>
@@ -6062,7 +6117,7 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>101</v>
@@ -6092,7 +6147,7 @@
         <v>110</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>15</v>
@@ -6108,7 +6163,7 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>160</v>
@@ -6138,7 +6193,7 @@
         <v>110</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>51</v>
@@ -6154,7 +6209,7 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>161</v>
@@ -6186,7 +6241,7 @@
         <v>111</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>15</v>
@@ -6202,7 +6257,7 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>162</v>
@@ -6232,7 +6287,7 @@
         <v>111</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>15</v>
@@ -6248,7 +6303,7 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>163</v>
@@ -6278,7 +6333,7 @@
         <v>111</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>51</v>
@@ -6294,7 +6349,7 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>101</v>
@@ -6320,19 +6375,19 @@
         <v>66</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>47</v>
@@ -6342,7 +6397,7 @@
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>164</v>
@@ -6435,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>223</v>
@@ -6900,7 +6955,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>91</v>
@@ -6908,13 +6963,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="40" t="s">
@@ -6923,19 +6978,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D3" s="88" t="s">
+        <v>690</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>691</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -7005,7 +7060,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>66</v>
@@ -7033,12 +7088,12 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>66</v>
@@ -7066,12 +7121,12 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>66</v>
@@ -7099,12 +7154,12 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>66</v>
@@ -7132,12 +7187,12 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>66</v>
@@ -7165,12 +7220,12 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
@@ -7196,12 +7251,12 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="22" t="s">
@@ -7227,12 +7282,12 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="22" t="s">
@@ -7258,12 +7313,12 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
@@ -7289,12 +7344,12 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="22" t="s">
@@ -7320,12 +7375,12 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="22" t="s">
@@ -7351,12 +7406,12 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="s">
@@ -7382,12 +7437,12 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
@@ -7416,7 +7471,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="22" t="s">
@@ -7445,7 +7500,7 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
@@ -7474,7 +7529,7 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
@@ -7503,7 +7558,7 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="22" t="s">
@@ -7532,7 +7587,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="22" t="s">
@@ -7561,7 +7616,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="22" t="s">
@@ -7587,12 +7642,12 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="19" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
@@ -7618,12 +7673,12 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
@@ -7649,12 +7704,12 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
@@ -7680,12 +7735,12 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="s">
@@ -7711,12 +7766,12 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="22" t="s">
@@ -7742,12 +7797,12 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="22" t="s">
@@ -7773,12 +7828,12 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="22" t="s">
@@ -7804,12 +7859,12 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
@@ -7835,12 +7890,12 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
@@ -7866,12 +7921,12 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="22" t="s">
@@ -7897,12 +7952,12 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="22" t="s">
@@ -7928,12 +7983,12 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="22" t="s">
@@ -7962,7 +8017,7 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22" t="s">
@@ -7991,7 +8046,7 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="22" t="s">
@@ -8020,7 +8075,7 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="22" t="s">
@@ -8049,7 +8104,7 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="22" t="s">
@@ -8078,7 +8133,7 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="22" t="s">
@@ -8107,7 +8162,7 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="22" t="s">
@@ -8136,7 +8191,7 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="22" t="s">
@@ -8146,7 +8201,7 @@
         <v>104</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>51</v>
@@ -8216,16 +8271,16 @@
     </row>
     <row r="2" spans="1:7" ht="120">
       <c r="A2" s="53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>450</v>
@@ -8235,14 +8290,14 @@
     </row>
     <row r="3" spans="1:7" ht="45">
       <c r="A3" s="53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
         <v>458</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>450</v>
@@ -8252,14 +8307,14 @@
     </row>
     <row r="4" spans="1:7" ht="120">
       <c r="A4" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>450</v>
@@ -8271,14 +8326,14 @@
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>450</v>
@@ -8301,8 +8356,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8328,103 +8383,103 @@
         <v>17</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="53" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="53" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B7" s="53"/>
       <c r="C7" s="53" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -8434,6 +8489,168 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="50"/>
+    <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="50" customFormat="1">
+      <c r="A1" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="92"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="53" t="s">
+        <v>721</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>723</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="53" t="s">
+        <v>726</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>731</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="53" t="s">
+        <v>729</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
@@ -9067,10 +9284,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9090,10 +9307,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9116,7 +9333,7 @@
         <v>106</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9139,7 +9356,7 @@
         <v>106</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9162,7 +9379,7 @@
         <v>106</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9185,7 +9402,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9208,7 +9425,7 @@
         <v>106</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9231,7 +9448,7 @@
         <v>106</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9254,7 +9471,7 @@
         <v>106</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9277,7 +9494,7 @@
         <v>106</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9300,7 +9517,7 @@
         <v>106</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9323,7 +9540,7 @@
         <v>106</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9346,7 +9563,7 @@
         <v>106</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -9369,7 +9586,7 @@
         <v>106</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -9392,7 +9609,7 @@
         <v>106</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -9415,7 +9632,7 @@
         <v>106</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -9438,7 +9655,7 @@
         <v>106</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -9461,7 +9678,7 @@
         <v>106</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -9484,7 +9701,7 @@
         <v>106</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -9507,7 +9724,7 @@
         <v>106</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -9530,7 +9747,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -9553,7 +9770,7 @@
         <v>106</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -9576,7 +9793,7 @@
         <v>106</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -9599,7 +9816,7 @@
         <v>106</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -9622,7 +9839,7 @@
         <v>106</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -9645,7 +9862,7 @@
         <v>106</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -9668,7 +9885,7 @@
         <v>106</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -9691,7 +9908,7 @@
         <v>106</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -9714,7 +9931,7 @@
         <v>106</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9737,7 +9954,7 @@
         <v>106</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -9760,7 +9977,7 @@
         <v>106</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9783,7 +10000,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9806,7 +10023,7 @@
         <v>106</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -9829,7 +10046,7 @@
         <v>106</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -9852,7 +10069,7 @@
         <v>106</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -9875,7 +10092,7 @@
         <v>106</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -9898,7 +10115,7 @@
         <v>106</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -9921,7 +10138,7 @@
         <v>106</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9944,7 +10161,7 @@
         <v>106</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -9953,7 +10170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
@@ -10146,7 +10363,7 @@
         <v>450</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>466</v>
@@ -10177,16 +10394,16 @@
     </row>
     <row r="8" spans="1:12" ht="75">
       <c r="A8" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -10195,7 +10412,7 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="24"/>
@@ -10207,7 +10424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22">
     <tabColor rgb="FF002060"/>
@@ -10352,7 +10569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23">
     <tabColor rgb="FF002060"/>
@@ -10534,7 +10751,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10594,7 +10811,9 @@
       <c r="A3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="69" t="s">
         <v>456</v>
       </c>
@@ -10607,11 +10826,13 @@
       <c r="F3" s="70"/>
       <c r="G3" s="72"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="90">
       <c r="A4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="C4" s="69" t="s">
         <v>457</v>
       </c>
@@ -10622,13 +10843,17 @@
         <v>450</v>
       </c>
       <c r="F4" s="70"/>
-      <c r="G4" s="72"/>
+      <c r="G4" s="72" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="C5" s="69" t="s">
         <v>458</v>
       </c>
@@ -10636,7 +10861,7 @@
         <v>455</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="72"/>
@@ -11469,7 +11694,7 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>66</v>
@@ -11525,7 +11750,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="43" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>66</v>
@@ -11581,7 +11806,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>66</v>
@@ -11637,7 +11862,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>66</v>
@@ -12295,7 +12520,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
@@ -12312,7 +12537,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>66</v>
@@ -12329,7 +12554,7 @@
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>66</v>
@@ -12346,7 +12571,7 @@
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>66</v>
@@ -12363,7 +12588,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="53" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>66</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="194160" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="204390" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="772">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -2345,6 +2345,114 @@
   <si>
     <t>update
 header</t>
+  </si>
+  <si>
+    <t>COB-39</t>
+  </si>
+  <si>
+    <t>login during checkout</t>
+  </si>
+  <si>
+    <t>logging During Checkout
+old-user
+new-shipping
+new-payment</t>
+  </si>
+  <si>
+    <t>AC-38</t>
+  </si>
+  <si>
+    <t>AC-39</t>
+  </si>
+  <si>
+    <t>AC-40</t>
+  </si>
+  <si>
+    <t>AC-41</t>
+  </si>
+  <si>
+    <t>AC-42</t>
+  </si>
+  <si>
+    <t>AC-43</t>
+  </si>
+  <si>
+    <t>AC-44</t>
+  </si>
+  <si>
+    <t>AC-45</t>
+  </si>
+  <si>
+    <t>AC-46</t>
+  </si>
+  <si>
+    <t>AC-47</t>
+  </si>
+  <si>
+    <t>tester147@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester148@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester149@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester151@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester152@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester153@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester154@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester155@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester156@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester157@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>tester150@ACVtesting.com</t>
+  </si>
+  <si>
+    <t>U78</t>
+  </si>
+  <si>
+    <t>U79</t>
+  </si>
+  <si>
+    <t>U80</t>
+  </si>
+  <si>
+    <t>U81</t>
+  </si>
+  <si>
+    <t>U82</t>
+  </si>
+  <si>
+    <t>U83</t>
+  </si>
+  <si>
+    <t>U84</t>
+  </si>
+  <si>
+    <t>U85</t>
+  </si>
+  <si>
+    <t>U86</t>
+  </si>
+  <si>
+    <t>U87</t>
+  </si>
+  <si>
+    <t>U88</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2666,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2818,6 +2926,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3165,10 +3277,10 @@
   <sheetPr codeName="Sheet25">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3211,9 +3323,7 @@
       <c r="A2" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B2" s="19"/>
       <c r="C2" s="23" t="s">
         <v>168</v>
       </c>
@@ -3285,9 +3395,7 @@
       <c r="A5" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
         <v>78</v>
       </c>
@@ -3311,9 +3419,7 @@
       <c r="A6" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="23" t="s">
         <v>78</v>
       </c>
@@ -3337,9 +3443,7 @@
       <c r="A7" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="23" t="s">
         <v>78</v>
       </c>
@@ -3579,9 +3683,7 @@
       <c r="A17" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
         <v>78</v>
       </c>
@@ -3725,9 +3827,7 @@
       <c r="A23" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B23" s="19"/>
       <c r="C23" s="23" t="s">
         <v>78</v>
       </c>
@@ -3751,9 +3851,7 @@
       <c r="A24" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B24" s="19"/>
       <c r="C24" s="23" t="s">
         <v>78</v>
       </c>
@@ -3777,9 +3875,7 @@
       <c r="A25" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B25" s="19"/>
       <c r="C25" s="23" t="s">
         <v>78</v>
       </c>
@@ -3803,9 +3899,7 @@
       <c r="A26" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B26" s="19"/>
       <c r="C26" s="23" t="s">
         <v>78</v>
       </c>
@@ -3973,9 +4067,7 @@
       <c r="A33" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B33" s="19"/>
       <c r="C33" s="23" t="s">
         <v>78</v>
       </c>
@@ -4112,12 +4204,257 @@
         <v>47</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>677</v>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="94" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H41" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7008,16 +7345,16 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -7099,9 +7436,7 @@
       <c r="A3" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="22" t="s">
         <v>109</v>
       </c>
@@ -7132,9 +7467,7 @@
       <c r="A4" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" s="19"/>
       <c r="C4" s="22" t="s">
         <v>24</v>
       </c>
@@ -7198,9 +7531,7 @@
       <c r="A6" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
         <v>109</v>
       </c>
@@ -7564,7 +7895,9 @@
       <c r="A18" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="22" t="s">
         <v>118</v>
       </c>
@@ -8081,7 +8414,9 @@
       <c r="A35" s="19" t="s">
         <v>576</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="19" t="s">
+        <v>66</v>
+      </c>
       <c r="C35" s="22" t="s">
         <v>125</v>
       </c>
@@ -8222,9 +8557,45 @@
       <c r="J39" s="24"/>
       <c r="K39" s="37"/>
     </row>
+    <row r="40" spans="1:11" ht="60">
+      <c r="A40" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>739</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="93" t="s">
+        <v>665</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K40" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8360,7 +8731,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -8734,10 +9105,10 @@
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N27" sqref="M27:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8748,7 +9119,7 @@
     <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -10243,9 +10614,265 @@
         <v>677</v>
       </c>
     </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="37" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="37" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" s="94" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G75" s="37" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G76" s="37" t="s">
+        <v>759</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G69" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="204390" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="206250" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2585" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="770">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -1709,12 +1709,6 @@
   </si>
   <si>
     <t>logged in user with Account Payment Type</t>
-  </si>
-  <si>
-    <t>1234568</t>
-  </si>
-  <si>
-    <t>1234569</t>
   </si>
   <si>
     <t>tester1@orderHistory.com</t>
@@ -2666,7 +2660,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2930,6 +2924,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="23" t="s">
@@ -3340,12 +3340,12 @@
         <v>47</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
@@ -3364,12 +3364,12 @@
         <v>48</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
@@ -3388,12 +3388,12 @@
         <v>47</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
@@ -3412,12 +3412,12 @@
         <v>47</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="23" t="s">
@@ -3436,12 +3436,12 @@
         <v>48</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="23" t="s">
@@ -3460,12 +3460,12 @@
         <v>47</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
@@ -3484,12 +3484,12 @@
         <v>47</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
@@ -3508,12 +3508,12 @@
         <v>48</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
@@ -3532,12 +3532,12 @@
         <v>47</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -3556,12 +3556,12 @@
         <v>47</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
@@ -3580,12 +3580,12 @@
         <v>48</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
@@ -3604,12 +3604,12 @@
         <v>47</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
@@ -3628,12 +3628,12 @@
         <v>47</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
@@ -3652,12 +3652,12 @@
         <v>48</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -3676,12 +3676,12 @@
         <v>47</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
@@ -3700,12 +3700,12 @@
         <v>47</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
@@ -3724,12 +3724,12 @@
         <v>48</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
@@ -3748,12 +3748,12 @@
         <v>47</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
@@ -3772,12 +3772,12 @@
         <v>47</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
@@ -3796,12 +3796,12 @@
         <v>48</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
@@ -3820,12 +3820,12 @@
         <v>47</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="23" t="s">
@@ -3844,12 +3844,12 @@
         <v>47</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="23" t="s">
@@ -3868,12 +3868,12 @@
         <v>48</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="23" t="s">
@@ -3892,12 +3892,12 @@
         <v>47</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="23" t="s">
@@ -3916,12 +3916,12 @@
         <v>47</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="23" t="s">
@@ -3940,12 +3940,12 @@
         <v>48</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="23" t="s">
@@ -3964,12 +3964,12 @@
         <v>47</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="23" t="s">
@@ -3988,12 +3988,12 @@
         <v>47</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="23" t="s">
@@ -4012,12 +4012,12 @@
         <v>48</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="23" t="s">
@@ -4036,12 +4036,12 @@
         <v>47</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="23" t="s">
@@ -4060,12 +4060,12 @@
         <v>47</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="23" t="s">
@@ -4084,12 +4084,12 @@
         <v>48</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="23" t="s">
@@ -4108,12 +4108,12 @@
         <v>47</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="23" t="s">
@@ -4132,12 +4132,12 @@
         <v>47</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="23" t="s">
@@ -4156,12 +4156,12 @@
         <v>48</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="23" t="s">
@@ -4180,12 +4180,12 @@
         <v>47</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="23" t="s">
@@ -4204,12 +4204,12 @@
         <v>47</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>66</v>
@@ -4230,12 +4230,12 @@
         <v>47</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="23" t="s">
@@ -4254,12 +4254,12 @@
         <v>47</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="23" t="s">
@@ -4278,12 +4278,12 @@
         <v>47</v>
       </c>
       <c r="H41" s="94" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="23" t="s">
@@ -4302,12 +4302,12 @@
         <v>47</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="23" t="s">
@@ -4326,12 +4326,12 @@
         <v>47</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="23" t="s">
@@ -4350,12 +4350,12 @@
         <v>47</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="23" t="s">
@@ -4374,12 +4374,12 @@
         <v>47</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="23" t="s">
@@ -4398,12 +4398,12 @@
         <v>47</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="23" t="s">
@@ -4422,12 +4422,12 @@
         <v>47</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="23" t="s">
@@ -4446,7 +4446,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>66</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
@@ -4784,7 +4784,7 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
@@ -4797,10 +4797,10 @@
         <v>226</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G4" s="86" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="37" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
@@ -4857,7 +4857,7 @@
         <v>228</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="2">
@@ -4874,7 +4874,7 @@
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
@@ -4904,7 +4904,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
@@ -4920,7 +4920,7 @@
         <v>416</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
@@ -4949,7 +4949,7 @@
         <v>231</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>418</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
@@ -4981,10 +4981,10 @@
         <v>232</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
@@ -5013,10 +5013,10 @@
         <v>233</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="43" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
@@ -5045,10 +5045,10 @@
         <v>234</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
@@ -5168,7 +5168,7 @@
         <v>483</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>328</v>
@@ -5227,7 +5227,7 @@
         <v>482</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>333</v>
@@ -5286,7 +5286,7 @@
         <v>481</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>338</v>
@@ -5345,7 +5345,7 @@
         <v>480</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>341</v>
@@ -6831,7 +6831,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="82" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D2" s="83" t="s">
         <v>223</v>
@@ -7296,7 +7296,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>91</v>
@@ -7304,13 +7304,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="40" t="s">
@@ -7319,19 +7319,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>688</v>
       </c>
-      <c r="D3" s="88" t="s">
-        <v>690</v>
-      </c>
       <c r="E3" s="40" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -7347,7 +7347,7 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7401,7 +7401,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>66</v>
@@ -7429,12 +7429,12 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="22" t="s">
@@ -7460,12 +7460,12 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="22" t="s">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>66</v>
@@ -7524,12 +7524,12 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="38" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
@@ -7555,12 +7555,12 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
@@ -7586,12 +7586,12 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="22" t="s">
@@ -7617,12 +7617,12 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="22" t="s">
@@ -7648,12 +7648,12 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="22" t="s">
@@ -7710,12 +7710,12 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="19" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="22" t="s">
@@ -7741,12 +7741,12 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="19" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="s">
@@ -7772,12 +7772,12 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
@@ -7806,7 +7806,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="22" t="s">
@@ -7835,7 +7835,7 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="19" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
@@ -7864,7 +7864,7 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
@@ -7893,7 +7893,7 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="19" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>66</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="22" t="s">
@@ -7953,7 +7953,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="22" t="s">
@@ -7979,12 +7979,12 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="19" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
@@ -8010,12 +8010,12 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="19" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="19" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="s">
@@ -8103,12 +8103,12 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="19" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="22" t="s">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="19" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="22" t="s">
@@ -8165,12 +8165,12 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="22" t="s">
@@ -8196,12 +8196,12 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="19" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
@@ -8227,12 +8227,12 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
@@ -8258,12 +8258,12 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="19" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="22" t="s">
@@ -8289,12 +8289,12 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="22" t="s">
@@ -8320,12 +8320,12 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="22" t="s">
@@ -8354,7 +8354,7 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22" t="s">
@@ -8383,7 +8383,7 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="22" t="s">
@@ -8412,7 +8412,7 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>66</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="22" t="s">
@@ -8472,7 +8472,7 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="22" t="s">
@@ -8501,7 +8501,7 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="19" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="22" t="s">
@@ -8530,7 +8530,7 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="22" t="s">
@@ -8540,7 +8540,7 @@
         <v>104</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>51</v>
@@ -8559,16 +8559,16 @@
     </row>
     <row r="40" spans="1:11" ht="60">
       <c r="A40" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="93" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -8646,16 +8646,16 @@
     </row>
     <row r="2" spans="1:7" ht="120">
       <c r="A2" s="53" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>450</v>
@@ -8665,14 +8665,14 @@
     </row>
     <row r="3" spans="1:7" ht="45">
       <c r="A3" s="53" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
         <v>458</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>450</v>
@@ -8682,14 +8682,14 @@
     </row>
     <row r="4" spans="1:7" ht="120">
       <c r="A4" s="53" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>450</v>
@@ -8701,14 +8701,14 @@
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="53" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>450</v>
@@ -8758,103 +8758,103 @@
         <v>17</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E3" s="91" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="53" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="53" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="53" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="53" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="53" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -8897,39 +8897,39 @@
         <v>17</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -8980,16 +8980,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="53" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>223</v>
@@ -8998,33 +8998,33 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="53" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>719</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>721</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="F3" s="92" t="s">
         <v>722</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="F3" s="92" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>380</v>
@@ -9033,12 +9033,12 @@
         <v>224</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>66</v>
@@ -9051,44 +9051,44 @@
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="92" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>225</v>
       </c>
       <c r="F6" s="92" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>0</v>
@@ -9107,8 +9107,8 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="N27" sqref="M27:N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9734,10 +9734,10 @@
         <v>4</v>
       </c>
       <c r="F27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="37" t="s">
         <v>533</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9757,10 +9757,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>534</v>
+        <v>106</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9783,7 +9783,7 @@
         <v>106</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9806,7 +9806,7 @@
         <v>106</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9829,7 +9829,7 @@
         <v>106</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9852,7 +9852,7 @@
         <v>106</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>106</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9898,7 +9898,7 @@
         <v>106</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9921,7 +9921,7 @@
         <v>106</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9944,7 +9944,7 @@
         <v>106</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9967,7 +9967,7 @@
         <v>106</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9990,7 +9990,7 @@
         <v>106</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>106</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -10036,7 +10036,7 @@
         <v>106</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -10059,7 +10059,7 @@
         <v>106</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10082,7 +10082,7 @@
         <v>106</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -10105,7 +10105,7 @@
         <v>106</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10128,7 +10128,7 @@
         <v>106</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>106</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -10174,7 +10174,7 @@
         <v>106</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -10197,7 +10197,7 @@
         <v>106</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -10220,7 +10220,7 @@
         <v>106</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -10243,7 +10243,7 @@
         <v>106</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -10266,7 +10266,7 @@
         <v>106</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>106</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -10312,7 +10312,7 @@
         <v>106</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -10335,7 +10335,7 @@
         <v>106</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -10358,7 +10358,7 @@
         <v>106</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -10381,7 +10381,7 @@
         <v>106</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -10404,7 +10404,7 @@
         <v>106</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>106</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -10450,7 +10450,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -10473,7 +10473,7 @@
         <v>106</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -10496,7 +10496,7 @@
         <v>106</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -10519,7 +10519,7 @@
         <v>106</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -10542,7 +10542,7 @@
         <v>106</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>106</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -10588,7 +10588,7 @@
         <v>106</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -10611,12 +10611,12 @@
         <v>106</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="30" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>83</v>
@@ -10634,12 +10634,12 @@
         <v>106</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="30" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>83</v>
@@ -10657,12 +10657,12 @@
         <v>106</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="30" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>83</v>
@@ -10680,12 +10680,12 @@
         <v>106</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>83</v>
@@ -10703,12 +10703,12 @@
         <v>106</v>
       </c>
       <c r="G69" s="94" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="30" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>83</v>
@@ -10726,12 +10726,12 @@
         <v>106</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>83</v>
@@ -10749,12 +10749,12 @@
         <v>106</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="30" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>83</v>
@@ -10772,12 +10772,12 @@
         <v>106</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>83</v>
@@ -10795,12 +10795,12 @@
         <v>106</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="30" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>83</v>
@@ -10818,12 +10818,12 @@
         <v>106</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="30" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>83</v>
@@ -10841,12 +10841,12 @@
         <v>106</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="30" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>83</v>
@@ -10864,7 +10864,7 @@
         <v>106</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -11069,7 +11069,7 @@
         <v>450</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>466</v>
@@ -11103,13 +11103,13 @@
         <v>530</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="24"/>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="72" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
@@ -11585,8 +11585,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11599,7 +11599,7 @@
     <col min="6" max="6" width="23.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11842,9 +11842,7 @@
       <c r="A11" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
         <v>199</v>
       </c>
@@ -11869,9 +11867,7 @@
       <c r="A12" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
         <v>182</v>
       </c>
@@ -11896,9 +11892,7 @@
       <c r="A13" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B13" s="30"/>
       <c r="C13" s="28" t="s">
         <v>192</v>
       </c>
@@ -11923,9 +11917,7 @@
       <c r="A14" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
         <v>196</v>
       </c>
@@ -11944,28 +11936,28 @@
       </c>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="13" t="s">
+      <c r="H15" s="53"/>
+      <c r="I15" s="96" t="s">
         <v>299</v>
       </c>
     </row>
@@ -11998,9 +11990,7 @@
       <c r="A17" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B17" s="30"/>
       <c r="C17" s="24" t="s">
         <v>173</v>
       </c>
@@ -12180,9 +12170,7 @@
       <c r="A25" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B25" s="30"/>
       <c r="C25" s="24" t="s">
         <v>181</v>
       </c>
@@ -12207,9 +12195,7 @@
       <c r="A26" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B26" s="30"/>
       <c r="C26" s="28" t="s">
         <v>192</v>
       </c>
@@ -12234,9 +12220,7 @@
       <c r="A27" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>66</v>
-      </c>
+      <c r="B27" s="30"/>
       <c r="C27" s="24" t="s">
         <v>196</v>
       </c>
@@ -12400,7 +12384,7 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>66</v>
@@ -12456,7 +12440,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="43" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>66</v>
@@ -12512,7 +12496,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>66</v>
@@ -12568,7 +12552,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="43" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>66</v>
@@ -13226,7 +13210,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>66</v>
@@ -13243,7 +13227,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>66</v>
@@ -13260,7 +13244,7 @@
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>66</v>
@@ -13277,7 +13261,7 @@
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>66</v>
@@ -13294,7 +13278,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="53" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>66</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="206250" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="208110" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -4587,8 +4587,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9107,7 +9107,7 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="208110" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="209040" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="775">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -2447,6 +2447,21 @@
   </si>
   <si>
     <t>U88</t>
+  </si>
+  <si>
+    <t>Search-1</t>
+  </si>
+  <si>
+    <t>Search-2</t>
+  </si>
+  <si>
+    <t>Search-3</t>
+  </si>
+  <si>
+    <t>Search-4</t>
+  </si>
+  <si>
+    <t>Search-5</t>
   </si>
 </sst>
 </file>
@@ -4587,7 +4602,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5073,10 +5088,10 @@
   <sheetPr codeName="Sheet13">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="C1:T6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:S6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5098,351 +5113,305 @@
     <col min="18" max="19" width="19.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="4:20">
+      <c r="D1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="30">
-      <c r="A2" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="4:20" ht="45">
+      <c r="D2" s="43" t="s">
+        <v>770</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H2" s="44">
-        <v>300389093</v>
-      </c>
-      <c r="I2" s="44">
-        <v>3003890930</v>
-      </c>
-      <c r="J2" s="45">
+      <c r="K2" s="45">
         <v>1</v>
       </c>
-      <c r="K2" s="45">
+      <c r="L2" s="45">
         <v>3</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="M2" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="M2" s="47">
+      <c r="N2" s="47">
         <v>3</v>
       </c>
-      <c r="N2" s="48">
+      <c r="O2" s="86">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="7" t="b">
+      <c r="P2" s="86" t="b">
         <v>1</v>
       </c>
       <c r="Q2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="7" t="b">
+      <c r="R2" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="S2" s="7" t="b">
+      <c r="T2" s="86" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30">
-      <c r="A3" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="4:20" ht="45">
+      <c r="D3" s="43" t="s">
+        <v>771</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H3" s="44">
-        <v>300389094</v>
-      </c>
-      <c r="I3" s="44">
-        <v>3003890940</v>
-      </c>
-      <c r="J3" s="44">
-        <v>1</v>
       </c>
       <c r="K3" s="44">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="44">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="M3" s="47">
+      <c r="N3" s="47">
         <v>2</v>
       </c>
-      <c r="N3" s="48">
+      <c r="O3" s="86">
         <v>0</v>
       </c>
-      <c r="O3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="b">
+      <c r="P3" s="86" t="b">
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="7" t="b">
+      <c r="R3" s="86" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="b">
+      <c r="T3" s="86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
-      <c r="A4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="4:20" ht="30">
+      <c r="D4" s="43" t="s">
+        <v>772</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="H4" s="44">
-        <v>300389095</v>
-      </c>
-      <c r="I4" s="44">
-        <v>3003890950</v>
-      </c>
-      <c r="J4" s="44">
-        <v>1</v>
       </c>
       <c r="K4" s="44">
         <v>1</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="44">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="M4" s="47">
+      <c r="N4" s="47">
         <v>1</v>
       </c>
-      <c r="N4" s="48">
+      <c r="O4" s="86">
         <v>0</v>
       </c>
-      <c r="O4" s="7" t="b">
+      <c r="P4" s="86" t="b">
         <v>1</v>
-      </c>
-      <c r="P4" s="7" t="b">
-        <v>0</v>
       </c>
       <c r="Q4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="7" t="b">
+      <c r="T4" s="86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30">
-      <c r="A5" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="4:20" ht="45">
+      <c r="D5" s="43" t="s">
+        <v>773</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="H5" s="44">
-        <v>300389095</v>
-      </c>
-      <c r="I5" s="44">
-        <v>3003890960</v>
-      </c>
-      <c r="J5" s="44">
-        <v>2</v>
       </c>
       <c r="K5" s="44">
         <v>2</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="44">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="47">
+      <c r="N5" s="47">
         <v>0</v>
       </c>
-      <c r="N5" s="48">
+      <c r="O5" s="86">
         <v>0</v>
       </c>
-      <c r="O5" s="7" t="b">
+      <c r="P5" s="86" t="b">
         <v>1</v>
-      </c>
-      <c r="P5" s="7" t="b">
-        <v>0</v>
       </c>
       <c r="Q5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="R5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="S5" s="7" t="b">
+      <c r="T5" s="86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30">
-      <c r="A6" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="4:20" ht="30">
+      <c r="D6" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="44"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="7"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="ibatta@dbi.com"/>
-    <hyperlink ref="N3" r:id="rId2" display="ibatta@dbi.com"/>
-    <hyperlink ref="N4" r:id="rId3" display="ibatta@dbi.com"/>
-    <hyperlink ref="N5" r:id="rId4" display="ibatta@dbi.com"/>
-    <hyperlink ref="O2" r:id="rId5" display="ibatta@dbi.com"/>
-    <hyperlink ref="R2" r:id="rId6" display="ibatta@dbi.com"/>
-    <hyperlink ref="O3:O5" r:id="rId7" display="ibatta@dbi.com"/>
-    <hyperlink ref="P2" r:id="rId8" display="ibatta@dbi.com"/>
-    <hyperlink ref="O3" r:id="rId9" display="ibatta@dbi.com"/>
-    <hyperlink ref="Q2" r:id="rId10" display="ibatta@dbi.com"/>
-    <hyperlink ref="P3" r:id="rId11" display="ibatta@dbi.com"/>
-    <hyperlink ref="Q3" r:id="rId12" display="ibatta@dbi.com"/>
-    <hyperlink ref="R3" r:id="rId13" display="ibatta@dbi.com"/>
-    <hyperlink ref="S2" r:id="rId14" display="ibatta@dbi.com"/>
-    <hyperlink ref="S3" r:id="rId15" display="ibatta@dbi.com"/>
-    <hyperlink ref="S4:S5" r:id="rId16" display="ibatta@dbi.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="ibatta@dbi.com"/>
+    <hyperlink ref="Q3" r:id="rId2" display="ibatta@dbi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="214620" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="216480" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="775">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -11386,7 +11386,7 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -13012,8 +13012,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13062,9 +13062,7 @@
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B3" s="58"/>
       <c r="C3" s="5" t="s">
         <v>362</v>
       </c>
@@ -13079,9 +13077,7 @@
       <c r="A4" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" s="58"/>
       <c r="C4" s="5" t="s">
         <v>365</v>
       </c>
@@ -13096,9 +13092,7 @@
       <c r="A5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B5" s="58"/>
       <c r="C5" s="5" t="s">
         <v>368</v>
       </c>
@@ -13113,9 +13107,7 @@
       <c r="A6" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B6" s="58"/>
       <c r="C6" s="5" t="s">
         <v>371</v>
       </c>
@@ -13130,9 +13122,7 @@
       <c r="A7" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B7" s="58"/>
       <c r="C7" s="5" t="s">
         <v>373</v>
       </c>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="216480" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="217410" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -1178,9 +1178,6 @@
     <t>freshUser</t>
   </si>
   <si>
-    <t>success:Thank you for registering.</t>
-  </si>
-  <si>
     <t>Try to register with existing account.</t>
   </si>
   <si>
@@ -1196,24 +1193,12 @@
     <t>emptyData</t>
   </si>
   <si>
-    <t>titleError:Please select a title
-firstNameError:Please enter a first name
-lastNameError:Please enter a last name
-invalidEmail:Please enter a valid email
-passwordError:Minimum length is 6 characters
-confirmPasswordError:Please confirm your password
-passwordRuleError:Password does not meet minimum requirements.</t>
-  </si>
-  <si>
     <t>Try to register with invalid email format.</t>
   </si>
   <si>
     <t>invalidUserID</t>
   </si>
   <si>
-    <t>invalidEmail:Please enter a valid email</t>
-  </si>
-  <si>
     <t>Try to register with password mismatch.</t>
   </si>
   <si>
@@ -1224,13 +1209,6 @@
   </si>
   <si>
     <t>invalidUserPassword</t>
-  </si>
-  <si>
-    <t>passwordError:Minimum length is 6 characters
-passwordRuleError:Password does not meet minimum requirements.</t>
-  </si>
-  <si>
-    <t>passwordMismatchError:Password and password confirmation do not match</t>
   </si>
   <si>
     <t>14 Tottenham Court Road</t>
@@ -2461,6 +2439,26 @@
   </si>
   <si>
     <t>Guest, verify the PDP basics add to cart button</t>
+  </si>
+  <si>
+    <t>firstNameError:Please enter a First Name
+lastNameError:Please enter a Last Name
+invalidEmail:Please enter an Email Address
+passwordError:Please enter a Password
+confirmPasswordError:Please enter a Password Again</t>
+  </si>
+  <si>
+    <t>invalidEmail:Please enter valid email address.</t>
+  </si>
+  <si>
+    <t>passwordMismatchError:The Password and Confirmation Password do not match</t>
+  </si>
+  <si>
+    <t>passwordError:Please enter a strong Password of at least 6 characters
+confirmPasswordError:The Password and Confirmation Password do not match</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you for registering. </t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3342,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="23" t="s">
@@ -3363,12 +3361,12 @@
         <v>45</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
@@ -3387,12 +3385,12 @@
         <v>46</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
@@ -3411,12 +3409,12 @@
         <v>45</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
@@ -3435,12 +3433,12 @@
         <v>45</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="23" t="s">
@@ -3459,12 +3457,12 @@
         <v>46</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="23" t="s">
@@ -3483,12 +3481,12 @@
         <v>45</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
@@ -3507,12 +3505,12 @@
         <v>45</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
@@ -3531,12 +3529,12 @@
         <v>46</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
@@ -3555,12 +3553,12 @@
         <v>45</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -3579,12 +3577,12 @@
         <v>45</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
@@ -3603,12 +3601,12 @@
         <v>46</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
@@ -3627,12 +3625,12 @@
         <v>45</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
@@ -3651,12 +3649,12 @@
         <v>45</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
@@ -3675,12 +3673,12 @@
         <v>46</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -3699,12 +3697,12 @@
         <v>45</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
@@ -3723,12 +3721,12 @@
         <v>45</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
@@ -3747,12 +3745,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
@@ -3771,12 +3769,12 @@
         <v>45</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
@@ -3795,12 +3793,12 @@
         <v>45</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
@@ -3819,12 +3817,12 @@
         <v>46</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
@@ -3843,12 +3841,12 @@
         <v>45</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="23" t="s">
@@ -3867,12 +3865,12 @@
         <v>45</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="23" t="s">
@@ -3891,12 +3889,12 @@
         <v>46</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="23" t="s">
@@ -3915,12 +3913,12 @@
         <v>45</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="23" t="s">
@@ -3939,12 +3937,12 @@
         <v>45</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="23" t="s">
@@ -3963,12 +3961,12 @@
         <v>46</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="23" t="s">
@@ -3987,12 +3985,12 @@
         <v>45</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="23" t="s">
@@ -4011,12 +4009,12 @@
         <v>45</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="23" t="s">
@@ -4035,12 +4033,12 @@
         <v>46</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="23" t="s">
@@ -4059,12 +4057,12 @@
         <v>45</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="23" t="s">
@@ -4083,12 +4081,12 @@
         <v>45</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="23" t="s">
@@ -4107,12 +4105,12 @@
         <v>46</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="23" t="s">
@@ -4131,12 +4129,12 @@
         <v>45</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="23" t="s">
@@ -4155,12 +4153,12 @@
         <v>45</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="23" t="s">
@@ -4179,12 +4177,12 @@
         <v>46</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="23" t="s">
@@ -4203,12 +4201,12 @@
         <v>45</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="23" t="s">
@@ -4227,12 +4225,12 @@
         <v>45</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>64</v>
@@ -4253,12 +4251,12 @@
         <v>45</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="23" t="s">
@@ -4277,12 +4275,12 @@
         <v>45</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="23" t="s">
@@ -4301,12 +4299,12 @@
         <v>45</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="23" t="s">
@@ -4325,12 +4323,12 @@
         <v>45</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="23" t="s">
@@ -4349,12 +4347,12 @@
         <v>45</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="23" t="s">
@@ -4373,12 +4371,12 @@
         <v>45</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="23" t="s">
@@ -4397,12 +4395,12 @@
         <v>45</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="23" t="s">
@@ -4421,12 +4419,12 @@
         <v>45</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="23" t="s">
@@ -4445,12 +4443,12 @@
         <v>45</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="23" t="s">
@@ -4469,7 +4467,7 @@
         <v>45</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +4539,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>356</v>
@@ -4573,7 +4571,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>357</v>
@@ -4635,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4646,11 +4644,11 @@
         <v>64</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="61" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4661,11 +4659,11 @@
         <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4676,10 +4674,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -4732,10 +4730,10 @@
         <v>14</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>84</v>
@@ -4744,27 +4742,27 @@
         <v>337</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E2" s="85" t="s">
         <v>229</v>
@@ -4779,23 +4777,23 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>219</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H3" s="2">
         <v>1234567</v>
@@ -4807,29 +4805,29 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E4" s="85" t="s">
         <v>220</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -4837,27 +4835,27 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>221</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="37" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J5" s="84" t="s">
         <v>0</v>
@@ -4867,89 +4865,89 @@
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="2">
         <v>1234567</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J6" s="84"/>
       <c r="K6" s="84" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>223</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
       <c r="L7" s="60" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
@@ -4959,128 +4957,128 @@
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>225</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H9" s="2">
         <v>1234567</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J9" s="84"/>
       <c r="K9" s="84" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>226</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J10" s="84"/>
       <c r="K10" s="84" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="43" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>227</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
       <c r="L11" s="60" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="43" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>228</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="60"/>
@@ -5132,7 +5130,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>306</v>
@@ -5176,16 +5174,16 @@
     </row>
     <row r="2" spans="4:20" ht="45">
       <c r="D2" s="43" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>322</v>
@@ -5229,16 +5227,16 @@
     </row>
     <row r="3" spans="4:20" ht="45">
       <c r="D3" s="43" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E3" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>327</v>
@@ -5282,16 +5280,16 @@
     </row>
     <row r="4" spans="4:20" ht="30">
       <c r="D4" s="43" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>332</v>
@@ -5335,16 +5333,16 @@
     </row>
     <row r="5" spans="4:20" ht="45">
       <c r="D5" s="43" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>335</v>
@@ -5388,16 +5386,16 @@
     </row>
     <row r="6" spans="4:20" ht="30">
       <c r="D6" s="43" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5465,13 +5463,13 @@
         <v>64</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5482,10 +5480,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E3" s="60">
         <v>500</v>
@@ -5562,10 +5560,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E2" s="73" t="s">
         <v>5</v>
@@ -5583,10 +5581,10 @@
         <v>45</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -5597,10 +5595,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E3" s="73" t="s">
         <v>5</v>
@@ -5618,10 +5616,10 @@
         <v>45</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
@@ -5632,10 +5630,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E4" s="73" t="s">
         <v>5</v>
@@ -5653,7 +5651,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>1</v>
@@ -5667,10 +5665,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>5</v>
@@ -5688,7 +5686,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>2</v>
@@ -5702,10 +5700,10 @@
         <v>64</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>5</v>
@@ -5723,10 +5721,10 @@
         <v>45</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
@@ -5737,10 +5735,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>5</v>
@@ -5758,10 +5756,10 @@
         <v>45</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
@@ -5772,10 +5770,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E8" s="73" t="s">
         <v>5</v>
@@ -5793,10 +5791,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
@@ -5807,10 +5805,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E9" s="73" t="s">
         <v>5</v>
@@ -5828,10 +5826,10 @@
         <v>45</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
@@ -5842,10 +5840,10 @@
         <v>64</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E10" s="73" t="s">
         <v>5</v>
@@ -5863,10 +5861,10 @@
         <v>45</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45">
@@ -5877,10 +5875,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>5</v>
@@ -5898,10 +5896,10 @@
         <v>45</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
@@ -5912,10 +5910,10 @@
         <v>64</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>5</v>
@@ -5933,10 +5931,10 @@
         <v>45</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
@@ -5947,10 +5945,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E13" s="73" t="s">
         <v>5</v>
@@ -5968,10 +5966,10 @@
         <v>45</v>
       </c>
       <c r="J13" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="K13" s="27" t="s">
         <v>471</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
@@ -5982,10 +5980,10 @@
         <v>64</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E14" s="73" t="s">
         <v>5</v>
@@ -6003,10 +6001,10 @@
         <v>45</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
@@ -6017,10 +6015,10 @@
         <v>64</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E15" s="73" t="s">
         <v>5</v>
@@ -6038,10 +6036,10 @@
         <v>45</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6143,7 +6141,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>13</v>
@@ -6159,7 +6157,7 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>95</v>
@@ -6189,7 +6187,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>13</v>
@@ -6205,7 +6203,7 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>149</v>
@@ -6235,7 +6233,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>49</v>
@@ -6251,7 +6249,7 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>150</v>
@@ -6281,7 +6279,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>13</v>
@@ -6297,7 +6295,7 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>151</v>
@@ -6327,7 +6325,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>13</v>
@@ -6343,7 +6341,7 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>152</v>
@@ -6373,7 +6371,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>49</v>
@@ -6389,7 +6387,7 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>153</v>
@@ -6419,7 +6417,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>13</v>
@@ -6435,7 +6433,7 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>95</v>
@@ -6465,7 +6463,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>13</v>
@@ -6481,7 +6479,7 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>154</v>
@@ -6511,7 +6509,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>49</v>
@@ -6527,7 +6525,7 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>155</v>
@@ -6559,7 +6557,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>13</v>
@@ -6575,7 +6573,7 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>156</v>
@@ -6605,7 +6603,7 @@
         <v>105</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>13</v>
@@ -6621,7 +6619,7 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>157</v>
@@ -6651,7 +6649,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>49</v>
@@ -6667,7 +6665,7 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>95</v>
@@ -6693,19 +6691,19 @@
         <v>64</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>45</v>
@@ -6715,7 +6713,7 @@
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>158</v>
@@ -6808,7 +6806,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>217</v>
@@ -6887,25 +6885,25 @@
         <v>14</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I1" s="41" t="s">
         <v>337</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6916,10 +6914,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>218</v>
@@ -6946,10 +6944,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>219</v>
@@ -6964,7 +6962,7 @@
         <v>12345678</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
@@ -6978,10 +6976,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>220</v>
@@ -6994,10 +6992,10 @@
         <v>12345678</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="44"/>
@@ -7010,10 +7008,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>218</v>
@@ -7028,10 +7026,10 @@
         <v>12345678</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="44"/>
@@ -7044,10 +7042,10 @@
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>219</v>
@@ -7060,11 +7058,11 @@
         <v>12345678</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L6" s="44"/>
     </row>
@@ -7076,10 +7074,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>220</v>
@@ -7094,11 +7092,11 @@
         <v>12345678</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L7" s="44"/>
     </row>
@@ -7110,10 +7108,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>218</v>
@@ -7126,12 +7124,12 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -7142,10 +7140,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>219</v>
@@ -7160,12 +7158,12 @@
         <v>123</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30">
@@ -7176,10 +7174,10 @@
         <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>220</v>
@@ -7194,14 +7192,14 @@
         <v>123</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
@@ -7212,10 +7210,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>218</v>
@@ -7230,12 +7228,12 @@
         <v>123456798</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="60"/>
       <c r="L11" s="60" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +7271,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>85</v>
@@ -7281,13 +7279,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="40" t="s">
@@ -7296,19 +7294,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -7378,7 +7376,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="19" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>64</v>
@@ -7406,12 +7404,12 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="22" t="s">
@@ -7437,12 +7435,12 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="38" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="22" t="s">
@@ -7468,12 +7466,12 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>64</v>
@@ -7501,12 +7499,12 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
@@ -7532,12 +7530,12 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="38" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="19" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
@@ -7563,12 +7561,12 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="22" t="s">
@@ -7594,12 +7592,12 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="38" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="22" t="s">
@@ -7625,12 +7623,12 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="38" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="19" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
@@ -7656,12 +7654,12 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="38" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="22" t="s">
@@ -7687,12 +7685,12 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="38" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="22" t="s">
@@ -7718,12 +7716,12 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="38" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="19" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="s">
@@ -7749,12 +7747,12 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="38" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="19" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
@@ -7783,7 +7781,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="22" t="s">
@@ -7812,7 +7810,7 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
@@ -7841,7 +7839,7 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="19" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
@@ -7870,7 +7868,7 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="19" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>64</v>
@@ -7901,7 +7899,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="19" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="22" t="s">
@@ -7930,7 +7928,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="19" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="22" t="s">
@@ -7956,12 +7954,12 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="38" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="19" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
@@ -7987,12 +7985,12 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="19" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
@@ -8018,12 +8016,12 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="38" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="19" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
@@ -8049,12 +8047,12 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="38" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="19" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="s">
@@ -8080,12 +8078,12 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="38" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="19" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="22" t="s">
@@ -8111,12 +8109,12 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="38" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="19" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="22" t="s">
@@ -8142,12 +8140,12 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="38" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="19" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="22" t="s">
@@ -8173,12 +8171,12 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="38" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="19" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
@@ -8204,12 +8202,12 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="38" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="19" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
@@ -8235,12 +8233,12 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="38" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="19" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="22" t="s">
@@ -8266,12 +8264,12 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="38" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="19" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="22" t="s">
@@ -8297,12 +8295,12 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="19" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="22" t="s">
@@ -8331,7 +8329,7 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22" t="s">
@@ -8360,7 +8358,7 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="19" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="22" t="s">
@@ -8389,7 +8387,7 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="19" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>64</v>
@@ -8420,7 +8418,7 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="22" t="s">
@@ -8449,7 +8447,7 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="19" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="22" t="s">
@@ -8478,7 +8476,7 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="22" t="s">
@@ -8507,7 +8505,7 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="19" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="22" t="s">
@@ -8517,7 +8515,7 @@
         <v>98</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>49</v>
@@ -8536,16 +8534,16 @@
     </row>
     <row r="40" spans="1:11" ht="60">
       <c r="A40" s="19" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
@@ -8564,7 +8562,7 @@
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="92" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -8612,7 +8610,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>14</v>
@@ -8623,53 +8621,53 @@
     </row>
     <row r="2" spans="1:7" ht="120">
       <c r="A2" s="53" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F2" s="70"/>
       <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="45">
       <c r="A3" s="53" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7" ht="120">
       <c r="A4" s="53" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>224</v>
@@ -8678,17 +8676,17 @@
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="53" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>677</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>682</v>
-      </c>
       <c r="E5" s="53" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>225</v>
@@ -8735,103 +8733,103 @@
         <v>15</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="53" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="53" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="53" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="53" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="53" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -8874,39 +8872,39 @@
         <v>15</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -8957,16 +8955,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="53" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D2" s="91" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>217</v>
@@ -8975,97 +8973,97 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="53" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F3" s="91" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E4" s="85" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="53" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="91" t="s">
         <v>365</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>366</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="91" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="53" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>219</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>0</v>
@@ -9714,7 +9712,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9737,7 +9735,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9760,7 +9758,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="86" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9783,7 +9781,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9806,7 +9804,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9829,7 +9827,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9852,7 +9850,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9875,7 +9873,7 @@
         <v>100</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9898,7 +9896,7 @@
         <v>100</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9921,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9944,7 +9942,7 @@
         <v>100</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9967,7 +9965,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9990,7 +9988,7 @@
         <v>100</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -10013,7 +10011,7 @@
         <v>100</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -10036,7 +10034,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10059,7 +10057,7 @@
         <v>100</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -10082,7 +10080,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10105,7 +10103,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -10128,7 +10126,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -10151,7 +10149,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -10174,7 +10172,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -10197,7 +10195,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -10220,7 +10218,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -10243,7 +10241,7 @@
         <v>100</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -10266,7 +10264,7 @@
         <v>100</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -10289,7 +10287,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -10312,7 +10310,7 @@
         <v>100</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -10335,7 +10333,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -10358,7 +10356,7 @@
         <v>100</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -10381,7 +10379,7 @@
         <v>100</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -10404,7 +10402,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -10427,7 +10425,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -10450,7 +10448,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -10473,7 +10471,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -10496,7 +10494,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -10519,7 +10517,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -10542,7 +10540,7 @@
         <v>100</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -10565,7 +10563,7 @@
         <v>100</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -10588,12 +10586,12 @@
         <v>100</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="30" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>77</v>
@@ -10611,12 +10609,12 @@
         <v>100</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="30" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>77</v>
@@ -10634,12 +10632,12 @@
         <v>100</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="30" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>77</v>
@@ -10657,12 +10655,12 @@
         <v>100</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="30" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>77</v>
@@ -10680,12 +10678,12 @@
         <v>100</v>
       </c>
       <c r="G69" s="93" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="30" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>77</v>
@@ -10703,12 +10701,12 @@
         <v>100</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="30" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>77</v>
@@ -10726,12 +10724,12 @@
         <v>100</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="30" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>77</v>
@@ -10749,12 +10747,12 @@
         <v>100</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>77</v>
@@ -10772,12 +10770,12 @@
         <v>100</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="30" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>77</v>
@@ -10795,12 +10793,12 @@
         <v>100</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="30" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>77</v>
@@ -10818,12 +10816,12 @@
         <v>100</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="30" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>77</v>
@@ -10841,7 +10839,7 @@
         <v>100</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -10878,7 +10876,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>76</v>
@@ -10890,13 +10888,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>330</v>
       </c>
       <c r="H1" s="67" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="285">
@@ -10904,25 +10902,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>160</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="60">
@@ -10930,10 +10928,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D3" s="75" t="s">
         <v>75</v>
@@ -10951,10 +10949,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>185</v>
@@ -10971,10 +10969,10 @@
         <v>162</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>163</v>
@@ -10991,10 +10989,10 @@
         <v>191</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>185</v>
@@ -11008,49 +11006,49 @@
     </row>
     <row r="7" spans="1:16" ht="75">
       <c r="A7" s="30" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="75">
       <c r="A8" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>517</v>
-      </c>
       <c r="D8" s="75" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>160</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="24" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -11358,13 +11356,13 @@
         <v>77</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>36</v>
@@ -11415,7 +11413,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>14</v>
@@ -11430,10 +11428,10 @@
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="98" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E2" s="69" t="s">
         <v>5</v>
@@ -11447,7 +11445,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="98" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D3" s="99" t="s">
         <v>76</v>
@@ -11464,7 +11462,7 @@
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="98" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D4" s="99" t="s">
         <v>330</v>
@@ -11481,10 +11479,10 @@
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="98" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>5</v>
@@ -11498,10 +11496,10 @@
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="98" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>5</v>
@@ -11515,10 +11513,10 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="98" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>5</v>
@@ -11532,10 +11530,10 @@
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="98" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>5</v>
@@ -11551,10 +11549,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>5</v>
@@ -12374,7 +12372,7 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>64</v>
@@ -12430,7 +12428,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="43" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>64</v>
@@ -12486,7 +12484,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>64</v>
@@ -12542,7 +12540,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="43" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>64</v>
@@ -12688,7 +12686,7 @@
         <v>340</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>221</v>
@@ -12714,16 +12712,16 @@
         <v>341</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>222</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -12740,19 +12738,19 @@
         <v>341</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>223</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H4" s="72" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -12768,17 +12766,17 @@
         <v>342</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>224</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>1</v>
@@ -12796,17 +12794,17 @@
         <v>343</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>225</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="72" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55" t="s">
@@ -12824,7 +12822,7 @@
         <v>344</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>226</v>
@@ -12832,7 +12830,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="72" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>1</v>
@@ -12852,19 +12850,19 @@
         <v>345</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>227</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
@@ -12983,10 +12981,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>350</v>
@@ -13013,7 +13011,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13048,14 +13046,14 @@
       <c r="B2" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="37" t="s">
         <v>359</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>361</v>
+      <c r="E2" s="63" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13063,29 +13061,29 @@
         <v>88</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="105">
+    </row>
+    <row r="4" spans="1:5" ht="75">
       <c r="A4" s="58" t="s">
         <v>89</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>367</v>
+      <c r="E4" s="63" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13093,61 +13091,49 @@
         <v>90</v>
       </c>
       <c r="B5" s="58"/>
-      <c r="C5" s="5" t="s">
-        <v>368</v>
+      <c r="C5" s="37" t="s">
+        <v>366</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>367</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="58" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="58"/>
-      <c r="C6" s="5" t="s">
-        <v>371</v>
+      <c r="C6" s="37" t="s">
+        <v>368</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30">
+        <v>369</v>
+      </c>
+      <c r="E6" s="63" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
       <c r="A7" s="58" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>375</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
-    <hyperlink ref="C5" r:id="rId5" display="https://hybrisdemo.conexus.co.uk:9002/yacceleratorstorefront/en/my-account/address-book"/>
-    <hyperlink ref="E2" r:id="rId6" display="tester1@qatesting.com"/>
-    <hyperlink ref="E3" r:id="rId7" display="tester2@qatesting.com"/>
-    <hyperlink ref="E4" r:id="rId8" display="tester3@qatesting.com"/>
-    <hyperlink ref="E5" r:id="rId9" display="tester4@qatesting.com"/>
-    <hyperlink ref="E6" r:id="rId10" display="tester5@qatesting.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13190,7 +13176,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
@@ -13207,7 +13193,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>64</v>
@@ -13224,7 +13210,7 @@
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
@@ -13241,7 +13227,7 @@
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>64</v>
@@ -13258,7 +13244,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="53" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>64</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="217410" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="218340" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -1184,9 +1184,6 @@
     <t>existingUser</t>
   </si>
   <si>
-    <t>invalidEmail:An account already exists for this email address.</t>
-  </si>
-  <si>
     <t>Try to register without filling data.</t>
   </si>
   <si>
@@ -2441,24 +2438,27 @@
     <t>Guest, verify the PDP basics add to cart button</t>
   </si>
   <si>
-    <t>firstNameError:Please enter a First Name
-lastNameError:Please enter a Last Name
-invalidEmail:Please enter an Email Address
-passwordError:Please enter a Password
-confirmPasswordError:Please enter a Password Again</t>
-  </si>
-  <si>
-    <t>invalidEmail:Please enter valid email address.</t>
-  </si>
-  <si>
-    <t>passwordMismatchError:The Password and Confirmation Password do not match</t>
-  </si>
-  <si>
-    <t>passwordError:Please enter a strong Password of at least 6 characters
-confirmPasswordError:The Password and Confirmation Password do not match</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thank you for registering. </t>
+    <t xml:space="preserve">ThankyouValidation: Thank you for registering. </t>
+  </si>
+  <si>
+    <t>EmailValidation:An account already exists for this email address.</t>
+  </si>
+  <si>
+    <t>firstNameValidation:Please enter a First Name
+lastNameValidation:Please enter a Last Name
+EmailValidation:Please enter an Email Address
+PasswordValidation:Please enter a Password
+PasswordConfValidation:Please enter a Password Again</t>
+  </si>
+  <si>
+    <t>EmailValidation:Please enter valid email address.</t>
+  </si>
+  <si>
+    <t>PasswordConfValidation:The Password and Confirmation Password do not match</t>
+  </si>
+  <si>
+    <t>PasswordValidation:Please enter a strong Password of at least 6 characters
+PasswordConfValidation:The Password and Confirmation Password do not match</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2672,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2950,6 +2950,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3342,7 +3351,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1">
       <c r="A2" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="23" t="s">
@@ -3361,12 +3370,12 @@
         <v>45</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
@@ -3385,12 +3394,12 @@
         <v>46</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1">
       <c r="A4" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="23" t="s">
@@ -3409,12 +3418,12 @@
         <v>45</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1">
       <c r="A5" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="23" t="s">
@@ -3433,12 +3442,12 @@
         <v>45</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1">
       <c r="A6" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="23" t="s">
@@ -3457,12 +3466,12 @@
         <v>46</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1">
       <c r="A7" s="19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="23" t="s">
@@ -3481,12 +3490,12 @@
         <v>45</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1">
       <c r="A8" s="19" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
@@ -3505,12 +3514,12 @@
         <v>45</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1">
       <c r="A9" s="19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="23" t="s">
@@ -3529,12 +3538,12 @@
         <v>46</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1">
       <c r="A10" s="19" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
@@ -3553,12 +3562,12 @@
         <v>45</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1">
       <c r="A11" s="19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="23" t="s">
@@ -3577,12 +3586,12 @@
         <v>45</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="23" t="s">
@@ -3601,12 +3610,12 @@
         <v>46</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="19" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="23" t="s">
@@ -3625,12 +3634,12 @@
         <v>45</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="23" t="s">
@@ -3649,12 +3658,12 @@
         <v>45</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="19" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="23" t="s">
@@ -3673,12 +3682,12 @@
         <v>46</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23" t="s">
@@ -3697,12 +3706,12 @@
         <v>45</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="23" t="s">
@@ -3721,12 +3730,12 @@
         <v>45</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="23" t="s">
@@ -3745,12 +3754,12 @@
         <v>46</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="23" t="s">
@@ -3769,12 +3778,12 @@
         <v>45</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="23" t="s">
@@ -3793,12 +3802,12 @@
         <v>45</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="23" t="s">
@@ -3817,12 +3826,12 @@
         <v>46</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
@@ -3841,12 +3850,12 @@
         <v>45</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="23" t="s">
@@ -3865,12 +3874,12 @@
         <v>45</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="23" t="s">
@@ -3889,12 +3898,12 @@
         <v>46</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="23" t="s">
@@ -3913,12 +3922,12 @@
         <v>45</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="23" t="s">
@@ -3937,12 +3946,12 @@
         <v>45</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="23" t="s">
@@ -3961,12 +3970,12 @@
         <v>46</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="23" t="s">
@@ -3985,12 +3994,12 @@
         <v>45</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="23" t="s">
@@ -4009,12 +4018,12 @@
         <v>45</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="23" t="s">
@@ -4033,12 +4042,12 @@
         <v>46</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="23" t="s">
@@ -4057,12 +4066,12 @@
         <v>45</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="23" t="s">
@@ -4081,12 +4090,12 @@
         <v>45</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="23" t="s">
@@ -4105,12 +4114,12 @@
         <v>46</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="23" t="s">
@@ -4129,12 +4138,12 @@
         <v>45</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="23" t="s">
@@ -4153,12 +4162,12 @@
         <v>45</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="23" t="s">
@@ -4177,12 +4186,12 @@
         <v>46</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="23" t="s">
@@ -4201,12 +4210,12 @@
         <v>45</v>
       </c>
       <c r="H37" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="23" t="s">
@@ -4225,12 +4234,12 @@
         <v>45</v>
       </c>
       <c r="H38" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>64</v>
@@ -4251,12 +4260,12 @@
         <v>45</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="23" t="s">
@@ -4275,12 +4284,12 @@
         <v>45</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="23" t="s">
@@ -4299,12 +4308,12 @@
         <v>45</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="23" t="s">
@@ -4323,12 +4332,12 @@
         <v>45</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="23" t="s">
@@ -4347,12 +4356,12 @@
         <v>45</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="23" t="s">
@@ -4371,12 +4380,12 @@
         <v>45</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="23" t="s">
@@ -4395,12 +4404,12 @@
         <v>45</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="23" t="s">
@@ -4419,12 +4428,12 @@
         <v>45</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="23" t="s">
@@ -4443,12 +4452,12 @@
         <v>45</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="23" t="s">
@@ -4467,7 +4476,7 @@
         <v>45</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4548,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>356</v>
@@ -4571,7 +4580,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>357</v>
@@ -4633,7 +4642,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4644,11 +4653,11 @@
         <v>64</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4659,11 +4668,11 @@
         <v>64</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4674,10 +4683,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E4" s="14"/>
     </row>
@@ -4730,10 +4739,10 @@
         <v>14</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>84</v>
@@ -4742,27 +4751,27 @@
         <v>337</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="K1" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="64" t="s">
         <v>393</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2" s="85" t="s">
         <v>229</v>
@@ -4777,23 +4786,23 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>219</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H3" s="2">
         <v>1234567</v>
@@ -4805,29 +4814,29 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="85" t="s">
         <v>220</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G4" s="85" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H4" s="2">
         <v>1234567</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
@@ -4835,27 +4844,27 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>221</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H5" s="2">
         <v>1234567</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J5" s="84" t="s">
         <v>0</v>
@@ -4865,89 +4874,89 @@
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>222</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="2">
         <v>1234567</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J6" s="84"/>
       <c r="K6" s="84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>223</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J7" s="84"/>
       <c r="K7" s="84"/>
       <c r="L7" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>224</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H8" s="2">
         <v>1234567</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J8" t="s">
         <v>0</v>
@@ -4957,128 +4966,128 @@
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>225</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H9" s="2">
         <v>1234567</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J9" s="84"/>
       <c r="K9" s="84" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>226</v>
       </c>
       <c r="F10" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>573</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>574</v>
       </c>
       <c r="H10" s="2">
         <v>1234567</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J10" s="84"/>
       <c r="K10" s="84" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>227</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H11" s="2">
         <v>874531324</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
       <c r="L11" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>413</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>414</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>228</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H12" s="2">
         <v>1234567</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="60"/>
@@ -5130,7 +5139,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>306</v>
@@ -5174,16 +5183,16 @@
     </row>
     <row r="2" spans="4:20" ht="45">
       <c r="D2" s="43" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>322</v>
@@ -5227,16 +5236,16 @@
     </row>
     <row r="3" spans="4:20" ht="45">
       <c r="D3" s="43" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E3" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>327</v>
@@ -5280,16 +5289,16 @@
     </row>
     <row r="4" spans="4:20" ht="30">
       <c r="D4" s="43" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>332</v>
@@ -5333,16 +5342,16 @@
     </row>
     <row r="5" spans="4:20" ht="45">
       <c r="D5" s="43" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>335</v>
@@ -5386,16 +5395,16 @@
     </row>
     <row r="6" spans="4:20" ht="30">
       <c r="D6" s="43" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -5463,13 +5472,13 @@
         <v>64</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5480,10 +5489,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E3" s="60">
         <v>500</v>
@@ -5560,10 +5569,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E2" s="73" t="s">
         <v>5</v>
@@ -5581,10 +5590,10 @@
         <v>45</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -5595,10 +5604,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E3" s="73" t="s">
         <v>5</v>
@@ -5616,10 +5625,10 @@
         <v>45</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K3" s="63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60">
@@ -5630,10 +5639,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E4" s="73" t="s">
         <v>5</v>
@@ -5651,7 +5660,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K4" s="63" t="s">
         <v>1</v>
@@ -5665,10 +5674,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>5</v>
@@ -5686,7 +5695,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K5" s="63" t="s">
         <v>2</v>
@@ -5700,10 +5709,10 @@
         <v>64</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>5</v>
@@ -5721,10 +5730,10 @@
         <v>45</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
@@ -5735,10 +5744,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>5</v>
@@ -5756,10 +5765,10 @@
         <v>45</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
@@ -5770,10 +5779,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E8" s="73" t="s">
         <v>5</v>
@@ -5791,10 +5800,10 @@
         <v>45</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
@@ -5805,10 +5814,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E9" s="73" t="s">
         <v>5</v>
@@ -5826,10 +5835,10 @@
         <v>45</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45">
@@ -5840,10 +5849,10 @@
         <v>64</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E10" s="73" t="s">
         <v>5</v>
@@ -5861,10 +5870,10 @@
         <v>45</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45">
@@ -5875,10 +5884,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>5</v>
@@ -5896,10 +5905,10 @@
         <v>45</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45">
@@ -5910,10 +5919,10 @@
         <v>64</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>5</v>
@@ -5931,10 +5940,10 @@
         <v>45</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45">
@@ -5945,10 +5954,10 @@
         <v>64</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E13" s="73" t="s">
         <v>5</v>
@@ -5966,10 +5975,10 @@
         <v>45</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45">
@@ -5980,10 +5989,10 @@
         <v>64</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E14" s="73" t="s">
         <v>5</v>
@@ -6001,10 +6010,10 @@
         <v>45</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45">
@@ -6015,10 +6024,10 @@
         <v>64</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E15" s="73" t="s">
         <v>5</v>
@@ -6036,10 +6045,10 @@
         <v>45</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6141,7 +6150,7 @@
         <v>68</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>13</v>
@@ -6157,7 +6166,7 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>95</v>
@@ -6187,7 +6196,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>13</v>
@@ -6203,7 +6212,7 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>149</v>
@@ -6233,7 +6242,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F4" s="22" t="s">
         <v>49</v>
@@ -6249,7 +6258,7 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>150</v>
@@ -6279,7 +6288,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>13</v>
@@ -6295,7 +6304,7 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>151</v>
@@ -6325,7 +6334,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F6" s="22" t="s">
         <v>13</v>
@@ -6341,7 +6350,7 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>152</v>
@@ -6371,7 +6380,7 @@
         <v>82</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>49</v>
@@ -6387,7 +6396,7 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>153</v>
@@ -6417,7 +6426,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>13</v>
@@ -6433,7 +6442,7 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>95</v>
@@ -6463,7 +6472,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>13</v>
@@ -6479,7 +6488,7 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>154</v>
@@ -6509,7 +6518,7 @@
         <v>104</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>49</v>
@@ -6525,7 +6534,7 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>155</v>
@@ -6557,7 +6566,7 @@
         <v>105</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>13</v>
@@ -6573,7 +6582,7 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>156</v>
@@ -6603,7 +6612,7 @@
         <v>105</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>13</v>
@@ -6619,7 +6628,7 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>157</v>
@@ -6649,7 +6658,7 @@
         <v>105</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>49</v>
@@ -6665,7 +6674,7 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>95</v>
@@ -6691,19 +6700,19 @@
         <v>64</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>45</v>
@@ -6713,7 +6722,7 @@
       </c>
       <c r="J14" s="24"/>
       <c r="K14" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>158</v>
@@ -6806,7 +6815,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>217</v>
@@ -6885,25 +6894,25 @@
         <v>14</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>418</v>
       </c>
       <c r="I1" s="41" t="s">
         <v>337</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>420</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6914,10 +6923,10 @@
         <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>218</v>
@@ -6944,10 +6953,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>219</v>
@@ -6962,7 +6971,7 @@
         <v>12345678</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
@@ -6976,10 +6985,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>220</v>
@@ -6992,10 +7001,10 @@
         <v>12345678</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="44"/>
@@ -7008,10 +7017,10 @@
         <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>218</v>
@@ -7026,10 +7035,10 @@
         <v>12345678</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K5" s="60"/>
       <c r="L5" s="44"/>
@@ -7042,10 +7051,10 @@
         <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="37" t="s">
         <v>219</v>
@@ -7058,11 +7067,11 @@
         <v>12345678</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L6" s="44"/>
     </row>
@@ -7074,10 +7083,10 @@
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>220</v>
@@ -7092,11 +7101,11 @@
         <v>12345678</v>
       </c>
       <c r="I7" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L7" s="44"/>
     </row>
@@ -7108,10 +7117,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>218</v>
@@ -7124,12 +7133,12 @@
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -7140,10 +7149,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>219</v>
@@ -7158,12 +7167,12 @@
         <v>123</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J9" s="60"/>
       <c r="K9" s="60"/>
       <c r="L9" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30">
@@ -7174,10 +7183,10 @@
         <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>220</v>
@@ -7192,14 +7201,14 @@
         <v>123</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45">
@@ -7210,10 +7219,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>218</v>
@@ -7228,12 +7237,12 @@
         <v>123456798</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="60"/>
       <c r="L11" s="60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -7271,7 +7280,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>85</v>
@@ -7279,13 +7288,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="40" t="s">
@@ -7294,19 +7303,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D3" s="87" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>665</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -7376,7 +7385,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A2" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>64</v>
@@ -7404,12 +7413,12 @@
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A3" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="22" t="s">
@@ -7435,12 +7444,12 @@
       </c>
       <c r="J3" s="24"/>
       <c r="K3" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A4" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="22" t="s">
@@ -7466,12 +7475,12 @@
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A5" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>64</v>
@@ -7499,12 +7508,12 @@
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A6" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="22" t="s">
@@ -7530,12 +7539,12 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A7" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="22" t="s">
@@ -7561,12 +7570,12 @@
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A8" s="19" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="22" t="s">
@@ -7592,12 +7601,12 @@
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A9" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="22" t="s">
@@ -7623,12 +7632,12 @@
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A10" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="22" t="s">
@@ -7654,12 +7663,12 @@
       </c>
       <c r="J10" s="24"/>
       <c r="K10" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="60">
       <c r="A11" s="19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="22" t="s">
@@ -7685,12 +7694,12 @@
       </c>
       <c r="J11" s="24"/>
       <c r="K11" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="22" t="s">
@@ -7716,12 +7725,12 @@
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="22" t="s">
@@ -7747,12 +7756,12 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="19" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="22" t="s">
@@ -7781,7 +7790,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="22" t="s">
@@ -7810,7 +7819,7 @@
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="22" t="s">
@@ -7839,7 +7848,7 @@
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
@@ -7868,7 +7877,7 @@
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>64</v>
@@ -7899,7 +7908,7 @@
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="22" t="s">
@@ -7928,7 +7937,7 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="22" t="s">
@@ -7954,12 +7963,12 @@
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
       <c r="A21" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
@@ -7985,12 +7994,12 @@
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
@@ -8016,12 +8025,12 @@
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
       <c r="A23" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="22" t="s">
@@ -8047,12 +8056,12 @@
       </c>
       <c r="J23" s="24"/>
       <c r="K23" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="22" t="s">
@@ -8078,12 +8087,12 @@
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
       <c r="A25" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="22" t="s">
@@ -8109,12 +8118,12 @@
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="22" t="s">
@@ -8140,12 +8149,12 @@
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
       <c r="A27" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="22" t="s">
@@ -8171,12 +8180,12 @@
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
@@ -8202,12 +8211,12 @@
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
       <c r="A29" s="19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
@@ -8233,12 +8242,12 @@
       </c>
       <c r="J29" s="24"/>
       <c r="K29" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="22" t="s">
@@ -8264,12 +8273,12 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
       <c r="A31" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="22" t="s">
@@ -8295,12 +8304,12 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="22" t="s">
@@ -8329,7 +8338,7 @@
     </row>
     <row r="33" spans="1:11" ht="60">
       <c r="A33" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22" t="s">
@@ -8358,7 +8367,7 @@
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="22" t="s">
@@ -8387,7 +8396,7 @@
     </row>
     <row r="35" spans="1:11" ht="60">
       <c r="A35" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>64</v>
@@ -8418,7 +8427,7 @@
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="22" t="s">
@@ -8447,7 +8456,7 @@
     </row>
     <row r="37" spans="1:11" ht="60">
       <c r="A37" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="22" t="s">
@@ -8476,7 +8485,7 @@
     </row>
     <row r="38" spans="1:11" ht="60">
       <c r="A38" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="22" t="s">
@@ -8505,7 +8514,7 @@
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="22" t="s">
@@ -8515,7 +8524,7 @@
         <v>98</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>49</v>
@@ -8534,16 +8543,16 @@
     </row>
     <row r="40" spans="1:11" ht="60">
       <c r="A40" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>712</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>713</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>5</v>
@@ -8562,7 +8571,7 @@
       </c>
       <c r="J40" s="24"/>
       <c r="K40" s="92" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -8610,7 +8619,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>14</v>
@@ -8621,53 +8630,53 @@
     </row>
     <row r="2" spans="1:7" ht="120">
       <c r="A2" s="53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F2" s="70"/>
       <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="45">
       <c r="A3" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F3" s="70"/>
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:7" ht="120">
       <c r="A4" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B4" s="53"/>
       <c r="C4" s="53" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>224</v>
@@ -8676,17 +8685,17 @@
     </row>
     <row r="5" spans="1:7" ht="45">
       <c r="A5" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>225</v>
@@ -8733,103 +8742,103 @@
         <v>15</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="53" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
       <c r="A7" s="53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -8872,39 +8881,39 @@
         <v>15</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30">
       <c r="A2" s="53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -8955,16 +8964,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="53" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="D2" s="91" t="s">
         <v>693</v>
-      </c>
-      <c r="D2" s="91" t="s">
-        <v>694</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>217</v>
@@ -8973,97 +8982,97 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>696</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="E3" s="40" t="s">
         <v>697</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="91" t="s">
         <v>698</v>
-      </c>
-      <c r="F3" s="91" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="53" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E4" s="85" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="91" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>365</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="53" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>703</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>704</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>705</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>219</v>
       </c>
       <c r="F6" s="91" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="53" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>0</v>
@@ -9712,7 +9721,7 @@
         <v>100</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -9735,7 +9744,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -9758,7 +9767,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="86" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -9781,7 +9790,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -9804,7 +9813,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -9827,7 +9836,7 @@
         <v>100</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -9850,7 +9859,7 @@
         <v>100</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -9873,7 +9882,7 @@
         <v>100</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -9896,7 +9905,7 @@
         <v>100</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -9919,7 +9928,7 @@
         <v>100</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -9942,7 +9951,7 @@
         <v>100</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -9965,7 +9974,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -9988,7 +9997,7 @@
         <v>100</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -10011,7 +10020,7 @@
         <v>100</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -10034,7 +10043,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -10057,7 +10066,7 @@
         <v>100</v>
       </c>
       <c r="G42" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -10080,7 +10089,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -10103,7 +10112,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -10126,7 +10135,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -10149,7 +10158,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -10172,7 +10181,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -10195,7 +10204,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -10218,7 +10227,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -10241,7 +10250,7 @@
         <v>100</v>
       </c>
       <c r="G50" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -10264,7 +10273,7 @@
         <v>100</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -10287,7 +10296,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -10310,7 +10319,7 @@
         <v>100</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -10333,7 +10342,7 @@
         <v>100</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -10356,7 +10365,7 @@
         <v>100</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -10379,7 +10388,7 @@
         <v>100</v>
       </c>
       <c r="G56" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -10402,7 +10411,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -10425,7 +10434,7 @@
         <v>100</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -10448,7 +10457,7 @@
         <v>100</v>
       </c>
       <c r="G59" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -10471,7 +10480,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -10494,7 +10503,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -10517,7 +10526,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -10540,7 +10549,7 @@
         <v>100</v>
       </c>
       <c r="G63" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -10563,7 +10572,7 @@
         <v>100</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -10586,12 +10595,12 @@
         <v>100</v>
       </c>
       <c r="G65" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>77</v>
@@ -10609,12 +10618,12 @@
         <v>100</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>77</v>
@@ -10632,12 +10641,12 @@
         <v>100</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>77</v>
@@ -10655,12 +10664,12 @@
         <v>100</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B69" s="31" t="s">
         <v>77</v>
@@ -10678,12 +10687,12 @@
         <v>100</v>
       </c>
       <c r="G69" s="93" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>77</v>
@@ -10701,12 +10710,12 @@
         <v>100</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B71" s="31" t="s">
         <v>77</v>
@@ -10724,12 +10733,12 @@
         <v>100</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>77</v>
@@ -10747,12 +10756,12 @@
         <v>100</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B73" s="31" t="s">
         <v>77</v>
@@ -10770,12 +10779,12 @@
         <v>100</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B74" s="31" t="s">
         <v>77</v>
@@ -10793,12 +10802,12 @@
         <v>100</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>77</v>
@@ -10816,12 +10825,12 @@
         <v>100</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B76" s="31" t="s">
         <v>77</v>
@@ -10839,7 +10848,7 @@
         <v>100</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -10876,7 +10885,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>76</v>
@@ -10888,13 +10897,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>330</v>
       </c>
       <c r="H1" s="67" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="285">
@@ -10902,25 +10911,25 @@
         <v>5</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>160</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="60">
@@ -10928,10 +10937,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D3" s="75" t="s">
         <v>75</v>
@@ -10949,10 +10958,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>452</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>453</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>185</v>
@@ -10969,10 +10978,10 @@
         <v>162</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>163</v>
@@ -10989,10 +10998,10 @@
         <v>191</v>
       </c>
       <c r="B6" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>452</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>453</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>185</v>
@@ -11006,49 +11015,49 @@
     </row>
     <row r="7" spans="1:16" ht="75">
       <c r="A7" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="75" t="s">
         <v>439</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>440</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="27" t="s">
         <v>445</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="75">
       <c r="A8" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>160</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H8" s="27"/>
     </row>
@@ -11356,13 +11365,13 @@
         <v>77</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>36</v>
@@ -11413,7 +11422,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>14</v>
@@ -11428,10 +11437,10 @@
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2" s="69" t="s">
         <v>5</v>
@@ -11445,7 +11454,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="98" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D3" s="99" t="s">
         <v>76</v>
@@ -11462,7 +11471,7 @@
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="98" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D4" s="99" t="s">
         <v>330</v>
@@ -11479,10 +11488,10 @@
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="98" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D5" s="99" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>5</v>
@@ -11496,10 +11505,10 @@
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="98" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D6" s="99" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>5</v>
@@ -11513,10 +11522,10 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="98" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D7" s="99" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>5</v>
@@ -11530,10 +11539,10 @@
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="98" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D8" s="99" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E8" s="69" t="s">
         <v>5</v>
@@ -11549,10 +11558,10 @@
         <v>64</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>5</v>
@@ -12372,7 +12381,7 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1">
       <c r="A2" s="43" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>64</v>
@@ -12428,7 +12437,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>64</v>
@@ -12484,7 +12493,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="43" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>64</v>
@@ -12540,7 +12549,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>64</v>
@@ -12686,7 +12695,7 @@
         <v>340</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>221</v>
@@ -12712,16 +12721,16 @@
         <v>341</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>222</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
@@ -12738,19 +12747,19 @@
         <v>341</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>223</v>
       </c>
       <c r="F4" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="H4" s="72" t="s">
         <v>374</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>375</v>
       </c>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -12766,17 +12775,17 @@
         <v>342</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>224</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H5" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>1</v>
@@ -12794,17 +12803,17 @@
         <v>343</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>225</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55" t="s">
@@ -12822,7 +12831,7 @@
         <v>344</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>226</v>
@@ -12830,7 +12839,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I7" s="55" t="s">
         <v>1</v>
@@ -12850,19 +12859,19 @@
         <v>345</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>227</v>
       </c>
       <c r="F8" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="H8" s="72" t="s">
         <v>374</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>375</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
@@ -12981,10 +12990,10 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="79" t="s">
         <v>435</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>436</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>350</v>
@@ -13010,8 +13019,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13053,7 +13062,7 @@
         <v>360</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13068,7 +13077,7 @@
         <v>362</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>363</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
@@ -13077,13 +13086,13 @@
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>365</v>
-      </c>
       <c r="E4" s="63" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -13092,28 +13101,28 @@
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="63" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101" t="s">
         <v>367</v>
       </c>
-      <c r="E5" s="63" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>772</v>
+      <c r="E6" s="102" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
@@ -13122,13 +13131,13 @@
       </c>
       <c r="B7" s="58"/>
       <c r="C7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="E7" s="59" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -13176,7 +13185,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>64</v>
@@ -13193,7 +13202,7 @@
     </row>
     <row r="3" spans="1:5" ht="30">
       <c r="A3" s="53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>64</v>
@@ -13210,7 +13219,7 @@
     </row>
     <row r="4" spans="1:5" ht="30">
       <c r="A4" s="53" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>64</v>
@@ -13227,7 +13236,7 @@
     </row>
     <row r="5" spans="1:5" ht="30">
       <c r="A5" s="53" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>64</v>
@@ -13244,7 +13253,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="53" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>64</v>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="218340" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="219270" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="776">
   <si>
     <t>Please enter a valid email</t>
   </si>
@@ -2459,6 +2459,9 @@
   <si>
     <t>PasswordValidation:Please enter a strong Password of at least 6 characters
 PasswordConfValidation:The Password and Confirmation Password do not match</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
@@ -13019,8 +13022,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13052,7 +13055,7 @@
       <c r="A2" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="100" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -13081,17 +13084,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="37" t="s">
-        <v>363</v>
+      <c r="B4" s="100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>775</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="102" t="s">
         <v>771</v>
       </c>
     </row>
@@ -13099,7 +13104,9 @@
       <c r="A5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="100" t="s">
+        <v>64</v>
+      </c>
       <c r="C5" s="37" t="s">
         <v>365</v>
       </c>
@@ -13114,7 +13121,9 @@
       <c r="A6" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="100" t="s">
+        <v>64</v>
+      </c>
       <c r="C6" s="101" t="s">
         <v>367</v>
       </c>
@@ -13129,7 +13138,9 @@
       <c r="A7" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="100" t="s">
+        <v>64</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>369</v>
       </c>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="258360" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="263010" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="380">
   <si>
     <t>Accept</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>desc</t>
-  </si>
-  <si>
-    <t>visa</t>
-  </si>
-  <si>
-    <t>master</t>
   </si>
   <si>
     <t>amex</t>
@@ -242,30 +236,6 @@
     <t>caseId</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
     <t>guest
 new-user
 new-shipping
@@ -501,24 +471,6 @@
   </si>
   <si>
     <t>overview</t>
-  </si>
-  <si>
-    <t>id
-title
-price
-overview
-feature
-stock availability
-add to cart button</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>stock availability</t>
-  </si>
-  <si>
-    <t>add to cart button</t>
   </si>
   <si>
     <t>Guest, verify the PDP basics id</t>
@@ -713,52 +665,10 @@
     <t>Provide a valid promotion code.</t>
   </si>
   <si>
-    <t>loggedin
-Verify unit Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loggedin
-Verify subtotal
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loggedin
-Verify discount
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loggedin
-Verify Promotion
-remove Promotion
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loggedin
-Verify Promotion
-</t>
-  </si>
-  <si>
-    <t>loggedin
-Verify clubDiscount</t>
-  </si>
-  <si>
-    <t>loggedin
-Verify total</t>
-  </si>
-  <si>
     <t>$0.00</t>
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>loggedin
-Verify unit Price
-Verify subtotal
-Verify discount
-Verify Promotion
-Verify clubDiscount
-Verify total</t>
   </si>
   <si>
     <t>ValidationMSG</t>
@@ -829,9 +739,6 @@
   </si>
   <si>
     <t>http://stage.com/oshstorefront/Osh-Categories/Outdoor/Lawn-%26-Garden/Planters/Plastic/Fiskars-17-in-H-x-21-5-in-W-x-21-5-in-D-Clay-Indoor-Outdoor-Pot/p/5974944</t>
-  </si>
-  <si>
-    <t>Visa</t>
   </si>
   <si>
     <t>AC-01</t>
@@ -1164,6 +1071,205 @@
   </si>
   <si>
     <t>U-24</t>
+  </si>
+  <si>
+    <t>U-25</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify unit Price
+Verify subtotal
+Verify discount
+Verify Promotion
+Verify clubDiscount
+Verify total</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify unit Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin
+Verify subtotal
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin
+Verify discount
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin
+Verify Promotion
+remove Promotion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin
+Verify Promotion
+</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify clubDiscount</t>
+  </si>
+  <si>
+    <t>Loggedin
+Verify total</t>
+  </si>
+  <si>
+    <t>Loggedin, verify the PDP basics id</t>
+  </si>
+  <si>
+    <t>Loggedin, verify the PDP basics title</t>
+  </si>
+  <si>
+    <t>Loggedin, verify the PDP basics price</t>
+  </si>
+  <si>
+    <t>Loggedin, verify the PDP basics overview</t>
+  </si>
+  <si>
+    <t>Loggedin, verify the PDP basics features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin, verify the PDP basics availability </t>
+  </si>
+  <si>
+    <t>Loggedin, verify the PDP basics add to cart button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loggedin, verify the PDP basics </t>
+  </si>
+  <si>
+    <t>Guest
+id</t>
+  </si>
+  <si>
+    <t>Guest
+title</t>
+  </si>
+  <si>
+    <t>Guest
+price</t>
+  </si>
+  <si>
+    <t>Guest
+overview</t>
+  </si>
+  <si>
+    <t>Guest
+feature</t>
+  </si>
+  <si>
+    <t>Guest
+stock availability</t>
+  </si>
+  <si>
+    <t>Guest
+add to cart button</t>
+  </si>
+  <si>
+    <t>Guest
+id
+title
+price
+overview
+feature
+stock availability
+add to cart button</t>
+  </si>
+  <si>
+    <t>Loggedin
+id</t>
+  </si>
+  <si>
+    <t>Loggedin
+title</t>
+  </si>
+  <si>
+    <t>Loggedin
+price</t>
+  </si>
+  <si>
+    <t>Loggedin
+overview</t>
+  </si>
+  <si>
+    <t>Loggedin
+feature</t>
+  </si>
+  <si>
+    <t>Loggedin
+stock availability</t>
+  </si>
+  <si>
+    <t>Loggedin
+add to cart button</t>
+  </si>
+  <si>
+    <t>Loggedin
+id
+title
+price
+overview
+feature
+stock availability
+add to cart button</t>
+  </si>
+  <si>
+    <t>PDP-01</t>
+  </si>
+  <si>
+    <t>PDP-02</t>
+  </si>
+  <si>
+    <t>PDP-03</t>
+  </si>
+  <si>
+    <t>PDP-04</t>
+  </si>
+  <si>
+    <t>PDP-05</t>
+  </si>
+  <si>
+    <t>PDP-06</t>
+  </si>
+  <si>
+    <t>PDP-07</t>
+  </si>
+  <si>
+    <t>PDP-08</t>
+  </si>
+  <si>
+    <t>PDP-09</t>
+  </si>
+  <si>
+    <t>PDP-10</t>
+  </si>
+  <si>
+    <t>PDP-11</t>
+  </si>
+  <si>
+    <t>PDP-12</t>
+  </si>
+  <si>
+    <t>PDP-13</t>
+  </si>
+  <si>
+    <t>PDP-14</t>
+  </si>
+  <si>
+    <t>PDP-15</t>
+  </si>
+  <si>
+    <t>PDP-16</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>mastercard</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1495,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1528,9 +1634,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1583,6 +1686,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1934,603 +2045,603 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="9.5703125" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.5703125" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="2" width="9.140625" style="52"/>
+    <col min="3" max="3" width="9.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="59" customFormat="1">
+    <row r="1" spans="1:8" s="58" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="61" customFormat="1">
+    <row r="2" spans="1:8" s="60" customFormat="1">
       <c r="A2" s="21" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="60" customFormat="1">
       <c r="A3" s="21" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="60" customFormat="1">
       <c r="A4" s="21" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="60" customFormat="1">
       <c r="A5" s="21" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="60" customFormat="1">
       <c r="A6" s="21" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="60" customFormat="1">
       <c r="A7" s="21" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="60" customFormat="1">
       <c r="A8" s="21" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="60" customFormat="1">
       <c r="A9" s="21" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="61" customFormat="1">
+        <v>58</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="60" customFormat="1">
       <c r="A10" s="21" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>262</v>
+        <v>58</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="21" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>263</v>
+        <v>58</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>264</v>
+        <v>58</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>285</v>
+        <v>58</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>299</v>
+        <v>58</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>300</v>
+        <v>58</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>286</v>
+        <v>58</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>301</v>
+        <v>58</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>302</v>
+        <v>58</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>303</v>
+        <v>58</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>304</v>
+        <v>58</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>305</v>
+        <v>58</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>306</v>
+        <v>58</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>307</v>
+        <v>58</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>308</v>
+        <v>58</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2544,20 +2655,20 @@
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="10.140625" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="2" width="9.140625" style="52"/>
+    <col min="3" max="3" width="10.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2565,33 +2676,33 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>0</v>
@@ -2600,21 +2711,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>0</v>
@@ -2623,21 +2734,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>0</v>
@@ -2646,21 +2757,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>0</v>
@@ -2669,21 +2780,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>0</v>
@@ -2692,21 +2803,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>0</v>
@@ -2715,21 +2826,21 @@
         <v>1</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>0</v>
@@ -2738,21 +2849,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>0</v>
@@ -2761,21 +2872,21 @@
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>0</v>
@@ -2784,21 +2895,21 @@
         <v>1</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>0</v>
@@ -2807,21 +2918,21 @@
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>0</v>
@@ -2830,21 +2941,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>0</v>
@@ -2853,21 +2964,21 @@
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>0</v>
@@ -2876,21 +2987,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>0</v>
@@ -2899,21 +3010,21 @@
         <v>1</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>0</v>
@@ -2922,21 +3033,21 @@
         <v>1</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>0</v>
@@ -2945,21 +3056,21 @@
         <v>1</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>0</v>
@@ -2968,21 +3079,21 @@
         <v>1</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>0</v>
@@ -2991,21 +3102,21 @@
         <v>1</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>0</v>
@@ -3014,21 +3125,21 @@
         <v>1</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>0</v>
@@ -3037,21 +3148,21 @@
         <v>1</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>0</v>
@@ -3060,21 +3171,21 @@
         <v>1</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>0</v>
@@ -3083,21 +3194,21 @@
         <v>1</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>0</v>
@@ -3106,21 +3217,21 @@
         <v>1</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>0</v>
@@ -3129,10 +3240,33 @@
         <v>1</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>308</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +3285,7 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3169,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>3</v>
@@ -3181,13 +3315,13 @@
         <v>7</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="75">
@@ -3195,25 +3329,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="75">
@@ -3221,56 +3355,56 @@
         <v>6</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="180">
       <c r="A4" s="34" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="B4" s="34">
         <v>7783624</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>325</v>
+      <c r="C4" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>302</v>
       </c>
       <c r="E4" s="34">
         <v>1</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>326</v>
+      <c r="F4" s="48" t="s">
+        <v>303</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>327</v>
+        <v>297</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="D5" s="65"/>
+      <c r="D5" s="64"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3290,12 +3424,13 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3304,122 +3439,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3453,36 +3588,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -3491,27 +3626,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -3520,27 +3655,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
@@ -3549,27 +3684,27 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -3578,22 +3713,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3609,8 +3744,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:K20"/>
+    <sheetView topLeftCell="A10" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3623,15 +3758,15 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="67" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
       <c r="A1" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>11</v>
@@ -3643,19 +3778,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K1" s="44" t="s">
         <v>9</v>
@@ -3663,611 +3798,581 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
-        <v>254</v>
+      <c r="K2" s="46" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J3" s="46"/>
-      <c r="K3" s="47" t="s">
-        <v>255</v>
+      <c r="K3" s="46" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J4" s="46"/>
-      <c r="K4" s="48" t="s">
-        <v>264</v>
+      <c r="K4" s="46" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="46"/>
       <c r="K6" s="47" t="s">
-        <v>256</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J7" s="46"/>
-      <c r="K7" s="47" t="s">
-        <v>257</v>
+      <c r="K7" s="46" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" s="46"/>
-      <c r="K8" s="47" t="s">
-        <v>258</v>
+      <c r="K8" s="46" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" s="46"/>
-      <c r="K9" s="47" t="s">
-        <v>259</v>
+      <c r="K9" s="46" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" s="46"/>
-      <c r="K10" s="47" t="s">
-        <v>260</v>
+      <c r="K10" s="46" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H11" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11" s="46"/>
-      <c r="K11" s="47" t="s">
-        <v>261</v>
+      <c r="K11" s="46" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H17" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J18" s="46"/>
       <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>52</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J19" s="46"/>
       <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="H20" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" s="46"/>
-      <c r="K20" s="47" t="s">
-        <v>262</v>
+      <c r="K20" s="46" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4281,183 +4386,337 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:G9"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="A1" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>70</v>
+        <v>362</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="64" t="s">
+      <c r="C2" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="45"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>363</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="64" t="s">
+      <c r="C3" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>364</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="64" t="s">
+      <c r="C4" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="45"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="64" t="s">
+      <c r="C5" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="68"/>
+    </row>
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>74</v>
+        <v>366</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="64" t="s">
+      <c r="C6" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="68"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>367</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="64" t="s">
+      <c r="C7" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="68"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="64" t="s">
+      <c r="C8" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" ht="105">
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="63" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="68"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="69"/>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="A12" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="69"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="69"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" s="69"/>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="1:7" ht="120">
+      <c r="A17" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4473,7 +4732,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:N17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4483,7 +4742,7 @@
     <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="30.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="12" customWidth="1"/>
@@ -4496,10 +4755,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
@@ -4514,42 +4773,40 @@
         <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30">
       <c r="A2" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>52</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B2" s="49"/>
       <c r="C2" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>6</v>
@@ -4558,34 +4815,32 @@
       <c r="G2" s="15"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:14" ht="45">
       <c r="A3" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>52</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B3" s="49"/>
       <c r="C3" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>6</v>
@@ -4594,34 +4849,32 @@
       <c r="G3" s="15"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="45">
       <c r="A4" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>52</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B4" s="49"/>
       <c r="C4" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>6</v>
@@ -4630,72 +4883,68 @@
       <c r="G4" s="15"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" ht="60">
-      <c r="A5" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>220</v>
+      <c r="A5" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="45">
       <c r="A6" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>52</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B6" s="49"/>
       <c r="C6" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>6</v>
@@ -4703,39 +4952,37 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30">
       <c r="A7" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>52</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B7" s="49"/>
       <c r="C7" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>6</v>
@@ -4744,34 +4991,32 @@
       <c r="G7" s="15"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N7" s="11"/>
     </row>
     <row r="8" spans="1:14" ht="30">
       <c r="A8" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>52</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B8" s="49"/>
       <c r="C8" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>6</v>
@@ -4780,306 +5025,292 @@
       <c r="G8" s="15"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="30">
       <c r="A9" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>286</v>
+      <c r="F9" s="66" t="s">
+        <v>320</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N9" s="11"/>
     </row>
     <row r="10" spans="1:14" ht="45">
       <c r="A10" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B10" s="17"/>
       <c r="C10" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" ht="45">
       <c r="A11" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="1:14" ht="60">
       <c r="A12" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>52</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45">
       <c r="A13" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B13" s="17"/>
       <c r="C13" s="11" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30">
       <c r="A14" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="30">
       <c r="A15" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="105">
       <c r="A16" s="38" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>6</v>
@@ -5088,67 +5319,68 @@
       <c r="G16" s="15"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="105">
       <c r="A17" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B17" s="17"/>
       <c r="C17" s="15" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" display="cart0022@OSH-automation.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5160,47 +5392,47 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:XFD1048576"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="26.5703125" style="53" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="61" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="53" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="2" width="9.140625" style="52"/>
+    <col min="3" max="3" width="26.5703125" style="52" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="59" customFormat="1">
-      <c r="A1" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="57" t="s">
+    <row r="1" spans="1:5" s="58" customFormat="1">
+      <c r="A1" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>231</v>
+      <c r="D1" s="57" t="s">
+        <v>209</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="61" customFormat="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="60" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>232</v>
+        <v>97</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>210</v>
       </c>
       <c r="E2" s="11">
         <v>12</v>
@@ -5208,16 +5440,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="E3" s="11">
         <v>12</v>
@@ -5225,16 +5457,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E4" s="11">
         <v>12</v>
@@ -5254,24 +5486,24 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:XFD1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="54"/>
-    <col min="3" max="3" width="37.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="53" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="2" width="9.140625" style="53"/>
+    <col min="3" max="3" width="37.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="52" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="54" customFormat="1">
+    <row r="1" spans="1:5" s="53" customFormat="1">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>11</v>
@@ -5280,107 +5512,107 @@
         <v>10</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="46" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>114</v>
+        <v>103</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="46" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>106</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
       <c r="A4" s="46" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="56" t="s">
-        <v>118</v>
+        <v>155</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="46" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="46" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>112</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="46" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>114</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5397,78 +5629,78 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="A1:XFD1048576"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="1" width="6.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="6" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="21" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>285</v>
+        <v>204</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
       <c r="A3" s="21" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>299</v>
+        <v>207</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5485,26 +5717,28 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="23" style="53" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="53"/>
-    <col min="6" max="6" width="13.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="2" width="9.140625" style="52"/>
+    <col min="3" max="3" width="23" style="52" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="52"/>
+    <col min="6" max="6" width="13.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="52"/>
+    <col min="11" max="11" width="33.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
@@ -5516,7 +5750,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>9</v>
@@ -5524,25 +5758,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="18" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>12</v>
+        <v>378</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>308</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5559,25 +5793,25 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="54"/>
-    <col min="3" max="3" width="37.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71" style="53" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="53"/>
+    <col min="1" max="2" width="9.140625" style="53"/>
+    <col min="3" max="3" width="37.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="52" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1">
+    <row r="1" spans="1:6" s="53" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>11</v>
@@ -5589,103 +5823,103 @@
         <v>9</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>303</v>
+        <v>131</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>144</v>
+        <v>133</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>329</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="21" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>304</v>
+        <v>114</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>324</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>305</v>
+        <v>159</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>325</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
       <c r="A6" s="21" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="55" t="s">
-        <v>174</v>
+      <c r="F6" s="54" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="263010" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="264870" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="395">
   <si>
     <t>Accept</t>
   </si>
@@ -656,19 +656,10 @@
 Verify total</t>
   </si>
   <si>
-    <t xml:space="preserve">Guest
-Verify Promotion
-remove Promotion
-</t>
-  </si>
-  <si>
     <t>Provide a valid promotion code.</t>
   </si>
   <si>
     <t>$0.00</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>ValidationMSG</t>
@@ -1270,6 +1261,67 @@
   </si>
   <si>
     <t>mastercard</t>
+  </si>
+  <si>
+    <t>Guest
+Verify discount
+Verify Promotion
+Verify total</t>
+  </si>
+  <si>
+    <t>Guest
+Verify Promotion
+Verify total
+remove Promotion</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>OSHCABHRDWR</t>
+  </si>
+  <si>
+    <t>$53.99</t>
+  </si>
+  <si>
+    <t>-$5.40</t>
+  </si>
+  <si>
+    <t>$48.59</t>
+  </si>
+  <si>
+    <t>Your voucher code is: OSHCABHRDWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the cart promotion automatic apply </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the cart promotion manual apply </t>
+  </si>
+  <si>
+    <t>CRT-17</t>
+  </si>
+  <si>
+    <t>Richelieu Oil Rubbed Bronze Contemporary Tuscany Pull 12''</t>
+  </si>
+  <si>
+    <t>http://stage.com/oshstorefront/Osh-Categories/Tools-%26-Hardware/Hardware/Cabinet-Hardware/Pulls-%26-Knobs/Richelieu-Oil-Rubbed-Bronze-Contemporary-Tuscany-Pull-12%26%2339%26%2339/p/8246936</t>
+  </si>
+  <si>
+    <t>Richelieu Hardware is an innovator in craftsmanship design and style for your kitchen. Our unique products will bring together functionality, aesthetics, ergonomics, in all kinds of styles and finishes for your home.</t>
+  </si>
+  <si>
+    <t>Oil-Rubbed Bronze Finish
+Contemporary Collection
+Tuscany Pull
+Center to center: 12''
+338 x 55 mm (13 5/16" x 2 5/32") in length</t>
+  </si>
+  <si>
+    <t>8246936</t>
+  </si>
+  <si>
+    <t>7783624</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1547,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1589,24 +1641,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1633,18 +1673,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1681,19 +1709,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2050,17 +2095,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="52"/>
-    <col min="3" max="3" width="9.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="9.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="58" customFormat="1">
+    <row r="1" spans="1:8" s="50" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
@@ -2086,220 +2131,220 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="60" customFormat="1">
+    <row r="2" spans="1:8" s="52" customFormat="1">
       <c r="A2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="52" customFormat="1">
+      <c r="A3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="52" customFormat="1">
+      <c r="A4" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="41" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="D4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="60" customFormat="1">
-      <c r="A3" s="21" t="s">
+    <row r="5" spans="1:8" s="52" customFormat="1">
+      <c r="A5" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="41" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="D5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="60" customFormat="1">
-      <c r="A4" s="21" t="s">
+    <row r="6" spans="1:8" s="52" customFormat="1">
+      <c r="A6" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="41" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="D6" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="60" customFormat="1">
-      <c r="A5" s="21" t="s">
+    <row r="7" spans="1:8" s="52" customFormat="1">
+      <c r="A7" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="41" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="D7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="60" customFormat="1">
-      <c r="A6" s="21" t="s">
+    <row r="8" spans="1:8" s="52" customFormat="1">
+      <c r="A8" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="41" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="D8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="60" customFormat="1">
-      <c r="A7" s="21" t="s">
+    <row r="9" spans="1:8" s="52" customFormat="1">
+      <c r="A9" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="41" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="D9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="60" customFormat="1">
-      <c r="A8" s="21" t="s">
+    <row r="10" spans="1:8" s="52" customFormat="1">
+      <c r="A10" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="41" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="D10" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="60" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="60" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2307,14 +2352,14 @@
         <v>128</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>58</v>
@@ -2323,7 +2368,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2331,14 +2376,14 @@
         <v>129</v>
       </c>
       <c r="B12" s="21"/>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>58</v>
@@ -2347,24 +2392,24 @@
         <v>58</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>58</v>
@@ -2373,22 +2418,22 @@
         <v>58</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>58</v>
@@ -2397,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>58</v>
@@ -2421,22 +2466,22 @@
         <v>58</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>58</v>
@@ -2445,24 +2490,24 @@
         <v>58</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>58</v>
@@ -2471,22 +2516,22 @@
         <v>58</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>58</v>
@@ -2495,22 +2540,22 @@
         <v>58</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>58</v>
@@ -2519,22 +2564,22 @@
         <v>58</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -2543,22 +2588,22 @@
         <v>58</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
@@ -2567,24 +2612,24 @@
         <v>58</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>58</v>
@@ -2593,22 +2638,22 @@
         <v>58</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>58</v>
@@ -2617,22 +2662,22 @@
         <v>58</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B24" s="21"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="37" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>58</v>
@@ -2641,7 +2686,7 @@
         <v>58</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2663,12 +2708,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="52"/>
-    <col min="3" max="3" width="10.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="10.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2696,7 +2741,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>60</v>
@@ -2719,7 +2764,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>60</v>
@@ -2737,12 +2782,12 @@
         <v>69</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>60</v>
@@ -2760,12 +2805,12 @@
         <v>69</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>60</v>
@@ -2783,12 +2828,12 @@
         <v>69</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>60</v>
@@ -2806,12 +2851,12 @@
         <v>69</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>60</v>
@@ -2829,12 +2874,12 @@
         <v>69</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>60</v>
@@ -2852,12 +2897,12 @@
         <v>69</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>60</v>
@@ -2875,12 +2920,12 @@
         <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>60</v>
@@ -2898,12 +2943,12 @@
         <v>69</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>60</v>
@@ -2921,12 +2966,12 @@
         <v>69</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>60</v>
@@ -2944,12 +2989,12 @@
         <v>69</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>60</v>
@@ -2967,12 +3012,12 @@
         <v>69</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>60</v>
@@ -2990,12 +3035,12 @@
         <v>69</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>60</v>
@@ -3013,12 +3058,12 @@
         <v>69</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>60</v>
@@ -3036,12 +3081,12 @@
         <v>69</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>60</v>
@@ -3059,12 +3104,12 @@
         <v>69</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>60</v>
@@ -3082,12 +3127,12 @@
         <v>69</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>60</v>
@@ -3105,12 +3150,12 @@
         <v>69</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>60</v>
@@ -3128,12 +3173,12 @@
         <v>69</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>60</v>
@@ -3151,12 +3196,12 @@
         <v>69</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>60</v>
@@ -3174,12 +3219,12 @@
         <v>69</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>60</v>
@@ -3197,12 +3242,12 @@
         <v>69</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>60</v>
@@ -3220,12 +3265,12 @@
         <v>69</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>60</v>
@@ -3243,12 +3288,12 @@
         <v>69</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>60</v>
@@ -3286,7 +3331,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3331,23 +3376,23 @@
       <c r="B2" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>221</v>
+      <c r="C2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>287</v>
+      <c r="F2" s="59" t="s">
+        <v>285</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="36" t="s">
-        <v>288</v>
+      <c r="H2" s="34" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="75">
@@ -3355,65 +3400,89 @@
         <v>6</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>242</v>
+      <c r="C3" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>240</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>246</v>
+      <c r="F3" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="180">
-      <c r="A4" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="34">
-        <v>7783624</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="A4" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="G4" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="34">
-        <v>1</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="D5" s="64"/>
+    </row>
+    <row r="5" spans="1:16" ht="105">
+      <c r="A5" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3424,8 +3493,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3459,7 +3528,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -3479,7 +3548,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -3758,47 +3827,47 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="67" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="56" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -3813,25 +3882,25 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46" t="s">
-        <v>306</v>
+        <v>216</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -3844,25 +3913,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46" t="s">
-        <v>307</v>
+        <v>217</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -3875,25 +3944,25 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46" t="s">
-        <v>316</v>
+        <v>218</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>50</v>
@@ -3908,23 +3977,23 @@
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>50</v>
@@ -3939,25 +4008,25 @@
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47" t="s">
-        <v>318</v>
+        <v>216</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
@@ -3970,25 +4039,25 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46" t="s">
-        <v>309</v>
+        <v>216</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -4001,25 +4070,25 @@
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46" t="s">
-        <v>310</v>
+        <v>216</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -4032,25 +4101,25 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46" t="s">
-        <v>311</v>
+        <v>216</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
@@ -4063,25 +4132,25 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46" t="s">
-        <v>312</v>
+        <v>216</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
@@ -4094,25 +4163,25 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
-        <v>313</v>
+        <v>216</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
@@ -4125,23 +4194,23 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H12" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
@@ -4154,23 +4223,23 @@
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
@@ -4183,23 +4252,23 @@
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
@@ -4212,19 +4281,19 @@
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="8" t="s">
@@ -4241,19 +4310,19 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
@@ -4270,19 +4339,19 @@
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="8" t="s">
@@ -4299,19 +4368,19 @@
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="8" t="s">
@@ -4328,19 +4397,19 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H19" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
+        <v>216</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
@@ -4359,20 +4428,20 @@
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="H20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46" t="s">
-        <v>314</v>
+        <v>216</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4404,13 +4473,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -4422,301 +4491,301 @@
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="49" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="63" t="s">
+      <c r="D2" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="45"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="28"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="62" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="63" t="s">
+      <c r="D4" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="68"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="68"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>351</v>
-      </c>
-      <c r="E7" s="63" t="s">
+      <c r="D7" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="68"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="68"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="68"/>
+      <c r="G9" s="57"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="E10" s="63" t="s">
+      <c r="C10" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="69"/>
+        <v>304</v>
+      </c>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="E11" s="63" t="s">
+      <c r="C11" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G11" s="69"/>
+        <v>305</v>
+      </c>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" s="63" t="s">
+      <c r="C12" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="G12" s="69"/>
+        <v>306</v>
+      </c>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="E13" s="63" t="s">
+      <c r="C13" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="69"/>
+        <v>307</v>
+      </c>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="63" t="s">
+      <c r="C14" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="69"/>
+        <v>308</v>
+      </c>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="E15" s="63" t="s">
+      <c r="C15" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="G15" s="69"/>
+        <v>309</v>
+      </c>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" s="63" t="s">
+      <c r="C16" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="G16" s="69"/>
+        <v>310</v>
+      </c>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" s="63" t="s">
+      <c r="C17" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="69"/>
+        <v>311</v>
+      </c>
+      <c r="G17" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4729,655 +4798,689 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
     <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="12" customWidth="1"/>
     <col min="10" max="10" width="17" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="47.140625" customWidth="1"/>
+    <col min="14" max="14" width="47.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>200</v>
+      <c r="N1" s="40" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="30">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="45">
+      <c r="A3" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" ht="45">
+      <c r="A4" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:14" ht="60">
+      <c r="A5" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="J5" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="1:14" ht="60">
+      <c r="A6" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45">
+      <c r="A7" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30">
+      <c r="A8" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" ht="45">
+      <c r="A11" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="45">
+      <c r="A12" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N12" s="42"/>
+    </row>
+    <row r="13" spans="1:14" ht="60">
+      <c r="A13" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="45">
-      <c r="A3" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="15" t="s">
+      <c r="J13" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="N13" s="43"/>
+    </row>
+    <row r="14" spans="1:14" ht="45">
+      <c r="A14" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N14" s="42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30">
+      <c r="A15" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D15" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" ht="45">
-      <c r="A4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="15" t="s">
+      <c r="F15" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M15" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="D16" s="66" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="60">
-      <c r="A5" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50" t="s">
+      <c r="F16" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:14" ht="105">
+      <c r="A17" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>298</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45">
-      <c r="A6" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D17" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="30">
-      <c r="A7" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="15" t="s">
+      <c r="K17" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:14" ht="105">
+      <c r="A18" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D18" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="30">
-      <c r="A9" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="66" t="s">
+      <c r="F18" s="43" t="s">
         <v>320</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="45">
-      <c r="A10" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="60">
-      <c r="A12" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45">
-      <c r="A13" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="G18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="30">
-      <c r="A14" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="30">
-      <c r="A15" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="105">
-      <c r="A16" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="105">
-      <c r="A17" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>199</v>
-      </c>
+      <c r="K18" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="N18" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="cart0022@OSH-automation.com"/>
+    <hyperlink ref="F10" r:id="rId1" display="cart0022@OSH-automation.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5397,33 +5500,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="52"/>
-    <col min="3" max="3" width="26.5703125" style="52" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="60" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="52" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="26.5703125" style="44" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="58" customFormat="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:5" s="50" customFormat="1">
+      <c r="A1" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>209</v>
+      <c r="D1" s="49" t="s">
+        <v>207</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="60" customFormat="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="52" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -5431,8 +5534,8 @@
       <c r="C2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="59" t="s">
-        <v>210</v>
+      <c r="D2" s="51" t="s">
+        <v>208</v>
       </c>
       <c r="E2" s="11">
         <v>12</v>
@@ -5440,7 +5543,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -5449,7 +5552,7 @@
         <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="11">
         <v>12</v>
@@ -5457,16 +5560,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E4" s="11">
         <v>12</v>
@@ -5491,14 +5594,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="37.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="52" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="9.140625" style="45"/>
+    <col min="3" max="3" width="37.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="44" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="53" customFormat="1">
+    <row r="1" spans="1:5" s="45" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -5516,8 +5619,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="46" t="s">
-        <v>289</v>
+      <c r="A2" s="42" t="s">
+        <v>287</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>50</v>
@@ -5525,7 +5628,7 @@
       <c r="C2" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="47" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="20" t="s">
@@ -5533,14 +5636,14 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="B3" s="46"/>
+      <c r="A3" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="47" t="s">
         <v>106</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -5548,8 +5651,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="46" t="s">
-        <v>291</v>
+      <c r="A4" s="42" t="s">
+        <v>289</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
@@ -5557,7 +5660,7 @@
       <c r="C4" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="47" t="s">
         <v>108</v>
       </c>
       <c r="E4" s="29" t="s">
@@ -5565,8 +5668,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="46" t="s">
-        <v>292</v>
+      <c r="A5" s="42" t="s">
+        <v>290</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>50</v>
@@ -5574,7 +5677,7 @@
       <c r="C5" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="47" t="s">
         <v>110</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -5582,8 +5685,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="46" t="s">
-        <v>293</v>
+      <c r="A6" s="42" t="s">
+        <v>291</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>50</v>
@@ -5591,7 +5694,7 @@
       <c r="C6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="47" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="29" t="s">
@@ -5599,16 +5702,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="46" t="s">
-        <v>294</v>
+      <c r="A7" s="42" t="s">
+        <v>292</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="47" t="s">
         <v>114</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -5634,13 +5737,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="6" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="52" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="6.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="6" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="44" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5654,7 +5757,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
@@ -5671,13 +5774,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>58</v>
@@ -5694,10 +5797,10 @@
         <v>94</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>58</v>
@@ -5722,15 +5825,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="52"/>
-    <col min="3" max="3" width="23" style="52" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="52"/>
-    <col min="6" max="6" width="13.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="52"/>
-    <col min="11" max="11" width="33.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="23" style="44" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="44"/>
+    <col min="6" max="6" width="13.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="44"/>
+    <col min="11" max="11" width="33.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5758,25 +5861,25 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5798,15 +5901,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="53"/>
-    <col min="3" max="3" width="37.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="52" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="2" width="9.140625" style="45"/>
+    <col min="3" max="3" width="37.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="44" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="53" customFormat="1">
+    <row r="1" spans="1:6" s="45" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
@@ -5840,7 +5943,7 @@
         <v>131</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -5858,7 +5961,7 @@
         <v>133</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>156</v>
@@ -5878,7 +5981,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>117</v>
@@ -5898,7 +6001,7 @@
         <v>159</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>157</v>
@@ -5918,7 +6021,7 @@
         <v>108</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="46" t="s">
         <v>160</v>
       </c>
     </row>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="264870" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="268590" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="AccountSetupRegression" sheetId="37" r:id="rId1"/>
-    <sheet name="CheckOutRegression" sheetId="7" r:id="rId2"/>
-    <sheet name="PDPRegression" sheetId="29" r:id="rId3"/>
-    <sheet name="CartRegression" sheetId="18" r:id="rId4"/>
-    <sheet name="PLPRegression" sheetId="21" r:id="rId5"/>
-    <sheet name="RegistrationRegression" sheetId="24" r:id="rId6"/>
-    <sheet name="AddressBookRegression" sheetId="19" r:id="rId7"/>
-    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId8"/>
-    <sheet name="LoginRegression" sheetId="41" r:id="rId9"/>
+    <sheet name="CheckOutRegression" sheetId="7" r:id="rId1"/>
+    <sheet name="PDPRegression" sheetId="29" r:id="rId2"/>
+    <sheet name="CartRegression" sheetId="18" r:id="rId3"/>
+    <sheet name="PLPRegression" sheetId="21" r:id="rId4"/>
+    <sheet name="RegistrationRegression" sheetId="24" r:id="rId5"/>
+    <sheet name="AddressBookRegression" sheetId="19" r:id="rId6"/>
+    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId7"/>
+    <sheet name="LoginRegression" sheetId="41" r:id="rId8"/>
+    <sheet name="AccountSetupRegression" sheetId="37" r:id="rId9"/>
     <sheet name="users" sheetId="13" r:id="rId10"/>
     <sheet name="products" sheetId="8" r:id="rId11"/>
     <sheet name="cards" sheetId="9" r:id="rId12"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="423">
   <si>
     <t>Accept</t>
   </si>
@@ -1322,6 +1322,90 @@
   </si>
   <si>
     <t>7783624</t>
+  </si>
+  <si>
+    <t>crt0050@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>U-26</t>
+  </si>
+  <si>
+    <t>U-27</t>
+  </si>
+  <si>
+    <t>U-28</t>
+  </si>
+  <si>
+    <t>U-29</t>
+  </si>
+  <si>
+    <t>U-30</t>
+  </si>
+  <si>
+    <t>U-31</t>
+  </si>
+  <si>
+    <t>U-32</t>
+  </si>
+  <si>
+    <t>1234575</t>
+  </si>
+  <si>
+    <t>crt0051@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0052@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0053@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0054@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0055@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0056@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0057@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>crt0058@OSH-automation.com</t>
+  </si>
+  <si>
+    <t>U-33</t>
+  </si>
+  <si>
+    <t>U-34</t>
+  </si>
+  <si>
+    <t>AC-25</t>
+  </si>
+  <si>
+    <t>AC-26</t>
+  </si>
+  <si>
+    <t>AC-27</t>
+  </si>
+  <si>
+    <t>AC-28</t>
+  </si>
+  <si>
+    <t>AC-29</t>
+  </si>
+  <si>
+    <t>AC-30</t>
+  </si>
+  <si>
+    <t>AC-31</t>
+  </si>
+  <si>
+    <t>AC-32</t>
+  </si>
+  <si>
+    <t>AC-33</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1396,6 +1480,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,7 +1637,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1738,6 +1828,26 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2084,609 +2194,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet25">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="9.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="44"/>
+    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="56" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1">
+      <c r="A1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="52" customFormat="1">
-      <c r="A2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="37" t="s">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
+      <c r="A2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="G2" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="52" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="37" t="s">
+      <c r="H2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
+      <c r="A3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
+      <c r="A4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60">
+      <c r="A5" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G5" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="52" customFormat="1">
-      <c r="A4" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="37" t="s">
+      <c r="H5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="1:11" ht="60">
+      <c r="A6" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="G6" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="52" customFormat="1">
-      <c r="A5" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="37" t="s">
+      <c r="H6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60">
+      <c r="A7" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="G7" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="52" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="37" t="s">
+      <c r="H7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="60">
+      <c r="A8" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="G8" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="52" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="37" t="s">
+      <c r="H8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60">
+      <c r="A9" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="52" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="37" t="s">
+      <c r="G9" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60">
+      <c r="A10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="G10" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="52" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="37" t="s">
+      <c r="H10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="60">
+      <c r="A11" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G11" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="52" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="37" t="s">
+      <c r="H11" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60">
+      <c r="A12" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G12" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="37" t="s">
+      <c r="H12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" ht="60">
+      <c r="A13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G13" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="H13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" ht="60">
+      <c r="A14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="60">
+      <c r="A15" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="60">
+      <c r="A16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="60">
+      <c r="A17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="60">
+      <c r="A18" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="60">
+      <c r="A19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="60">
+      <c r="A20" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2700,10 +2841,10 @@
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3312,6 +3453,213 @@
       </c>
       <c r="G26" s="19" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3808,650 +4156,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor theme="8" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="23" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="56" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
-      <c r="A2" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
-      <c r="A3" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
-      <c r="A4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60">
-      <c r="A5" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="43" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="60">
-      <c r="A7" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60">
-      <c r="A8" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60">
-      <c r="A9" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="60">
-      <c r="A10" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60">
-      <c r="A11" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="60">
-      <c r="A12" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-    </row>
-    <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-    </row>
-    <row r="14" spans="1:11" ht="60">
-      <c r="A14" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" ht="60">
-      <c r="A15" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" ht="60">
-      <c r="A16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-    </row>
-    <row r="17" spans="1:11" ht="60">
-      <c r="A17" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" ht="60">
-      <c r="A19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" ht="60">
-      <c r="A20" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -4793,15 +4497,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4972,9 +4676,7 @@
       <c r="A5" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B5" s="42"/>
       <c r="C5" s="21" t="s">
         <v>386</v>
       </c>
@@ -5008,9 +4710,7 @@
       <c r="A6" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="21" t="s">
         <v>387</v>
       </c>
@@ -5262,7 +4962,9 @@
       <c r="A13" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="43" t="s">
         <v>186</v>
       </c>
@@ -5273,7 +4975,7 @@
         <v>294</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -5309,7 +5011,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="42" t="s">
@@ -5349,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="42"/>
@@ -5374,7 +5076,9 @@
       <c r="A16" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="43" t="s">
         <v>186</v>
       </c>
@@ -5385,7 +5089,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="42"/>
@@ -5410,9 +5114,7 @@
       <c r="A17" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B17" s="42"/>
       <c r="C17" s="43" t="s">
         <v>186</v>
       </c>
@@ -5446,7 +5148,9 @@
       <c r="A18" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C18" s="43" t="s">
         <v>186</v>
       </c>
@@ -5457,7 +5161,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="42"/>
@@ -5487,7 +5191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5581,7 +5285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5724,7 +5428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5812,7 +5516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5888,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -6029,4 +5733,845 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet25">
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="9.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="50" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="52" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="52" customFormat="1">
+      <c r="A3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="52" customFormat="1">
+      <c r="A4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="52" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="52" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="52" customFormat="1">
+      <c r="A7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="52" customFormat="1">
+      <c r="A8" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="52" customFormat="1">
+      <c r="A9" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="52" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="268590" yWindow="0" windowWidth="16980" windowHeight="7020" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="269520" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CheckOutRegression" sheetId="7" r:id="rId1"/>
-    <sheet name="PDPRegression" sheetId="29" r:id="rId2"/>
-    <sheet name="CartRegression" sheetId="18" r:id="rId3"/>
-    <sheet name="PLPRegression" sheetId="21" r:id="rId4"/>
-    <sheet name="RegistrationRegression" sheetId="24" r:id="rId5"/>
-    <sheet name="AddressBookRegression" sheetId="19" r:id="rId6"/>
-    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId7"/>
-    <sheet name="LoginRegression" sheetId="41" r:id="rId8"/>
-    <sheet name="AccountSetupRegression" sheetId="37" r:id="rId9"/>
-    <sheet name="users" sheetId="13" r:id="rId10"/>
-    <sheet name="products" sheetId="8" r:id="rId11"/>
-    <sheet name="cards" sheetId="9" r:id="rId12"/>
-    <sheet name="addresses" sheetId="10" r:id="rId13"/>
+    <sheet name="Browsers" sheetId="42" r:id="rId1"/>
+    <sheet name="Runner" sheetId="43" r:id="rId2"/>
+    <sheet name="CheckOutRegression" sheetId="7" r:id="rId3"/>
+    <sheet name="PDPRegression" sheetId="29" r:id="rId4"/>
+    <sheet name="CartRegression" sheetId="18" r:id="rId5"/>
+    <sheet name="PLPRegression" sheetId="21" r:id="rId6"/>
+    <sheet name="RegistrationRegression" sheetId="24" r:id="rId7"/>
+    <sheet name="AddressBookRegression" sheetId="19" r:id="rId8"/>
+    <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId9"/>
+    <sheet name="LoginRegression" sheetId="41" r:id="rId10"/>
+    <sheet name="AccountSetupRegression" sheetId="37" r:id="rId11"/>
+    <sheet name="users" sheetId="13" r:id="rId12"/>
+    <sheet name="products" sheetId="8" r:id="rId13"/>
+    <sheet name="cards" sheetId="9" r:id="rId14"/>
+    <sheet name="addresses" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="438">
   <si>
     <t>Accept</t>
   </si>
@@ -1406,6 +1408,51 @@
   </si>
   <si>
     <t>AC-33</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome </t>
+  </si>
+  <si>
+    <t>FireFox</t>
+  </si>
+  <si>
+    <t>Chrome Grid</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>addressBookRegression</t>
+  </si>
+  <si>
+    <t>cartRunner</t>
+  </si>
+  <si>
+    <t>checkoutRegression</t>
+  </si>
+  <si>
+    <t>LoginRegression</t>
+  </si>
+  <si>
+    <t>PaymentDetailsRegression</t>
+  </si>
+  <si>
+    <t>PDPRegression</t>
+  </si>
+  <si>
+    <t>PLPRegression</t>
+  </si>
+  <si>
+    <t>RegistrationRegression</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1628,6 +1675,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1637,7 +1712,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1849,6 +1924,11 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2194,6 +2274,2438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A28:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="B30" s="75"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="B31" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="45"/>
+    <col min="3" max="3" width="37.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="44" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="45" customFormat="1">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet25">
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="9.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="50" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="52" customFormat="1">
+      <c r="A2" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="52" customFormat="1">
+      <c r="A3" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="52" customFormat="1">
+      <c r="A4" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="52" customFormat="1">
+      <c r="A5" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="52" customFormat="1">
+      <c r="A6" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="52" customFormat="1">
+      <c r="A7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="52" customFormat="1">
+      <c r="A8" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="52" customFormat="1">
+      <c r="A9" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="52" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="69" t="s">
+        <v>415</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="69" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="74" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="69" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="69" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F29" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="69" t="s">
+        <v>419</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="69" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19">
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="10.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="68" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="68" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="68" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G68" r:id="rId1" display="tester150@ACVtesting.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20">
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="75">
+      <c r="A2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="75">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="P3" s="32"/>
+    </row>
+    <row r="4" spans="1:16" ht="180">
+      <c r="A4" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="105">
+      <c r="A5" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet22">
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet23">
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="75"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="75"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="75"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="B8" s="75"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
@@ -2836,1325 +5348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19">
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="10.140625" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="68" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="68" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="68" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="68" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="68" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="67" t="s">
-        <v>401</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="68" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="68" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="67" t="s">
-        <v>412</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="68" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="67" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="68" t="s">
-        <v>411</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G68" r:id="rId1" display="tester150@ACVtesting.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20">
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50.5703125" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="75">
-      <c r="A2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="75">
-      <c r="A3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="1:16" ht="180">
-      <c r="A4" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="105">
-      <c r="A5" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet22">
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet23">
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -4497,7 +5691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5191,7 +6385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5285,7 +6479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5428,7 +6622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5516,7 +6710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -5590,988 +6784,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="45"/>
-    <col min="3" max="3" width="37.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1">
-      <c r="A1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet25">
-    <tabColor theme="8" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="9.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="44" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="44"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="52" customFormat="1">
-      <c r="A2" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="52" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="52" customFormat="1">
-      <c r="A4" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="52" customFormat="1">
-      <c r="A5" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="52" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="52" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="52" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="52" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="52" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="69" t="s">
-        <v>414</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="69" t="s">
-        <v>415</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F26" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="74" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="69" t="s">
-        <v>416</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F27" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="B28" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="74" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="69" t="s">
-        <v>418</v>
-      </c>
-      <c r="B29" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F29" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="74" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="69" t="s">
-        <v>419</v>
-      </c>
-      <c r="B30" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F30" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="74" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="69" t="s">
-        <v>420</v>
-      </c>
-      <c r="B31" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="69" t="s">
-        <v>421</v>
-      </c>
-      <c r="B32" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E32" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F32" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="74" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="B33" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="74" t="s">
-        <v>413</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="269520" yWindow="0" windowWidth="16980" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17790" windowHeight="5610"/>
   </bookViews>
   <sheets>
-    <sheet name="Browsers" sheetId="42" r:id="rId1"/>
-    <sheet name="Runner" sheetId="43" r:id="rId2"/>
+    <sheet name="BrowsersRegression" sheetId="42" r:id="rId1"/>
+    <sheet name="RunnerRegression" sheetId="43" r:id="rId2"/>
     <sheet name="CheckOutRegression" sheetId="7" r:id="rId3"/>
     <sheet name="PDPRegression" sheetId="29" r:id="rId4"/>
     <sheet name="CartRegression" sheetId="18" r:id="rId5"/>
@@ -23,13 +23,13 @@
     <sheet name="cards" sheetId="9" r:id="rId14"/>
     <sheet name="addresses" sheetId="10" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="437">
   <si>
     <t>Accept</t>
   </si>
@@ -1413,46 +1413,43 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrome </t>
-  </si>
-  <si>
-    <t>FireFox</t>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>addressBookRegression</t>
+  </si>
+  <si>
+    <t>cartRunner</t>
+  </si>
+  <si>
+    <t>checkoutRegression</t>
+  </si>
+  <si>
+    <t>LoginRegression</t>
+  </si>
+  <si>
+    <t>PaymentDetailsRegression</t>
+  </si>
+  <si>
+    <t>PDPRegression</t>
+  </si>
+  <si>
+    <t>PLPRegression</t>
+  </si>
+  <si>
+    <t>RegistrationRegression</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
   <si>
     <t>Chrome Grid</t>
   </si>
   <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>addressBookRegression</t>
-  </si>
-  <si>
-    <t>cartRunner</t>
-  </si>
-  <si>
-    <t>checkoutRegression</t>
-  </si>
-  <si>
-    <t>LoginRegression</t>
-  </si>
-  <si>
-    <t>PaymentDetailsRegression</t>
-  </si>
-  <si>
-    <t>PDPRegression</t>
-  </si>
-  <si>
-    <t>PLPRegression</t>
-  </si>
-  <si>
-    <t>RegistrationRegression</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1709,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1924,11 +1921,18 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2277,10 +2281,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A28:B31"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2288,36 +2292,41 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="75" t="s">
         <v>423</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="58" t="s">
-        <v>425</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="B30" s="75"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="58" t="s">
-        <v>427</v>
-      </c>
-      <c r="B31" s="75"/>
+      <c r="B1" s="75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>436</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3312,7 +3321,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -4628,79 +4637,79 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="80" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3" s="78"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" s="78"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="78"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="80" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="78"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="78"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="B2" s="75"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="77" t="s">
-        <v>430</v>
-      </c>
-      <c r="B3" s="75"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="B4" s="75" t="s">
+      <c r="B8" s="78"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" s="78" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="77" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="77" t="s">
-        <v>436</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="77" t="s">
-        <v>437</v>
-      </c>
-      <c r="B7" s="75"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="77" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" s="75"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="77" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4712,7 +4721,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17790" windowHeight="5610"/>
+    <workbookView xWindow="6615" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="BrowsersRegression" sheetId="42" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="437">
   <si>
     <t>Accept</t>
   </si>
@@ -1446,17 +1446,17 @@
     <t>Firefox</t>
   </si>
   <si>
-    <t>Chrome Grid</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>ChromeG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1495,15 +1495,8 @@
       <color theme="1"/>
       <name val="Monospace"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,11 +1507,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1701,15 +1689,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1892,33 +1879,30 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,8 +1918,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2283,8 +2266,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2293,35 +2276,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="77"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
+      <c r="B4" s="77" t="s">
         <v>435</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3075,236 +3054,236 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>414</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="70" t="s">
+      <c r="B25" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="74" t="s">
+      <c r="F25" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="73" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="70" t="s">
+      <c r="B26" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="74" t="s">
+      <c r="F26" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="73" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="B27" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="70" t="s">
+      <c r="B27" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F27" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="74" t="s">
+      <c r="F27" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="73" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="70" t="s">
+      <c r="B28" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F28" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="74" t="s">
+      <c r="F28" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="68" t="s">
         <v>418</v>
       </c>
-      <c r="B29" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="70" t="s">
+      <c r="B29" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F29" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="74" t="s">
+      <c r="F29" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="73" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="B30" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="70" t="s">
+      <c r="B30" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F30" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="74" t="s">
+      <c r="F30" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="73" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="68" t="s">
         <v>420</v>
       </c>
-      <c r="B31" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="70" t="s">
+      <c r="B31" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F31" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="74" t="s">
+      <c r="F31" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="73" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>421</v>
       </c>
-      <c r="B32" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="70" t="s">
+      <c r="B32" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F32" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="74" t="s">
+      <c r="F32" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="73" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="B33" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="70" t="s">
+      <c r="B33" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="E33" s="72" t="s">
+      <c r="E33" s="71" t="s">
         <v>376</v>
       </c>
-      <c r="F33" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="74" t="s">
+      <c r="F33" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="73" t="s">
         <v>413</v>
       </c>
     </row>
@@ -3952,7 +3931,7 @@
       <c r="F27" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="67" t="s">
         <v>395</v>
       </c>
     </row>
@@ -3975,7 +3954,7 @@
       <c r="F28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="67" t="s">
         <v>404</v>
       </c>
     </row>
@@ -3998,7 +3977,7 @@
       <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="67" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4021,7 +4000,7 @@
       <c r="F30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="68" t="s">
+      <c r="G30" s="67" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4044,12 +4023,12 @@
       <c r="F31" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="68" t="s">
+      <c r="G31" s="67" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="66" t="s">
         <v>401</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -4067,12 +4046,12 @@
       <c r="F32" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G32" s="68" t="s">
+      <c r="G32" s="67" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="66" t="s">
         <v>402</v>
       </c>
       <c r="B33" s="18" t="s">
@@ -4090,12 +4069,12 @@
       <c r="F33" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="68" t="s">
+      <c r="G33" s="67" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="66" t="s">
         <v>412</v>
       </c>
       <c r="B34" s="18" t="s">
@@ -4113,12 +4092,12 @@
       <c r="F34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="68" t="s">
+      <c r="G34" s="67" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>413</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -4136,7 +4115,7 @@
       <c r="F35" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="67" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4156,8 +4135,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4638,7 +4617,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4656,54 +4635,66 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="78"/>
+      <c r="B3" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="78"/>
+      <c r="B5" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="78"/>
+      <c r="B6" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>428</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>426</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4720,8 +4711,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4809,7 +4800,9 @@
       <c r="A3" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="8" t="s">
         <v>72</v>
       </c>
@@ -4840,7 +4833,9 @@
       <c r="A4" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -4935,7 +4930,9 @@
       <c r="A7" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="8" t="s">
         <v>77</v>
       </c>
@@ -4966,7 +4963,9 @@
       <c r="A8" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
@@ -4997,7 +4996,9 @@
       <c r="A9" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="8" t="s">
         <v>79</v>
       </c>
@@ -5028,7 +5029,9 @@
       <c r="A10" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>80</v>
       </c>
@@ -5059,7 +5062,9 @@
       <c r="A11" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
@@ -5090,7 +5095,9 @@
       <c r="A12" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
@@ -5119,7 +5126,9 @@
       <c r="A13" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
@@ -5148,7 +5157,9 @@
       <c r="A14" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="8" t="s">
         <v>83</v>
       </c>
@@ -5177,7 +5188,9 @@
       <c r="A15" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="8" t="s">
         <v>84</v>
       </c>
@@ -5206,7 +5219,9 @@
       <c r="A16" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="8" t="s">
         <v>85</v>
       </c>
@@ -5235,7 +5250,9 @@
       <c r="A17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="8" t="s">
         <v>86</v>
       </c>
@@ -5264,7 +5281,9 @@
       <c r="A18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C18" s="8" t="s">
         <v>86</v>
       </c>
@@ -5293,7 +5312,9 @@
       <c r="A19" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C19" s="8" t="s">
         <v>86</v>
       </c>
@@ -5364,8 +5385,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5406,7 +5427,9 @@
       <c r="A2" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="53" t="s">
         <v>142</v>
       </c>
@@ -5423,7 +5446,9 @@
       <c r="A3" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="53" t="s">
         <v>143</v>
       </c>
@@ -5440,7 +5465,9 @@
       <c r="A4" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" s="53" t="s">
         <v>144</v>
       </c>
@@ -5457,7 +5484,9 @@
       <c r="A5" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C5" s="53" t="s">
         <v>145</v>
       </c>
@@ -5474,7 +5503,9 @@
       <c r="A6" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="53" t="s">
         <v>146</v>
       </c>
@@ -5491,7 +5522,9 @@
       <c r="A7" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="53" t="s">
         <v>147</v>
       </c>
@@ -5508,7 +5541,9 @@
       <c r="A8" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="53" t="s">
         <v>148</v>
       </c>
@@ -5544,7 +5579,9 @@
       <c r="A10" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" s="53" t="s">
         <v>336</v>
       </c>
@@ -5563,7 +5600,9 @@
       <c r="A11" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="53" t="s">
         <v>337</v>
       </c>
@@ -5582,7 +5621,9 @@
       <c r="A12" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="53" t="s">
         <v>338</v>
       </c>
@@ -5601,7 +5642,9 @@
       <c r="A13" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="53" t="s">
         <v>339</v>
       </c>
@@ -5620,7 +5663,9 @@
       <c r="A14" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="53" t="s">
         <v>340</v>
       </c>
@@ -5639,7 +5684,9 @@
       <c r="A15" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="53" t="s">
         <v>341</v>
       </c>
@@ -5658,7 +5705,9 @@
       <c r="A16" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" s="53" t="s">
         <v>342</v>
       </c>
@@ -5707,8 +5756,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5777,11 +5826,13 @@
       <c r="A2" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="65"/>
+      <c r="B2" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>190</v>
       </c>
       <c r="E2" s="42" t="s">
@@ -5811,11 +5862,13 @@
       <c r="A3" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="65"/>
+      <c r="B3" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>191</v>
       </c>
       <c r="E3" s="42" t="s">
@@ -5845,11 +5898,13 @@
       <c r="A4" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="65" t="s">
         <v>192</v>
       </c>
       <c r="E4" s="42" t="s">
@@ -5879,7 +5934,9 @@
       <c r="A5" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C5" s="21" t="s">
         <v>386</v>
       </c>
@@ -5913,7 +5970,9 @@
       <c r="A6" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="21" t="s">
         <v>387</v>
       </c>
@@ -5951,7 +6010,9 @@
       <c r="A7" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" s="42" t="s">
         <v>89</v>
       </c>
@@ -5989,11 +6050,13 @@
       <c r="A8" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>194</v>
       </c>
       <c r="E8" s="42" t="s">
@@ -6023,11 +6086,13 @@
       <c r="A9" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>195</v>
       </c>
       <c r="E9" s="42" t="s">
@@ -6057,11 +6122,13 @@
       <c r="A10" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C10" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>329</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -6093,11 +6160,13 @@
       <c r="A11" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>330</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -6129,11 +6198,13 @@
       <c r="A12" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>331</v>
       </c>
       <c r="E12" s="42" t="s">
@@ -6165,13 +6236,13 @@
       <c r="A13" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>332</v>
       </c>
       <c r="E13" s="43" t="s">
@@ -6203,7 +6274,9 @@
       <c r="A14" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="42"/>
+      <c r="B14" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="42" t="s">
         <v>89</v>
       </c>
@@ -6243,11 +6316,13 @@
       <c r="A15" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C15" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="65" t="s">
         <v>334</v>
       </c>
       <c r="E15" s="42" t="s">
@@ -6285,7 +6360,7 @@
       <c r="C16" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="65" t="s">
         <v>335</v>
       </c>
       <c r="E16" s="42" t="s">
@@ -6317,11 +6392,13 @@
       <c r="A17" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="65" t="s">
         <v>188</v>
       </c>
       <c r="E17" s="42" t="s">
@@ -6357,7 +6434,7 @@
       <c r="C18" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="65" t="s">
         <v>328</v>
       </c>
       <c r="E18" s="42" t="s">

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="8505" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BrowsersRegression" sheetId="42" r:id="rId1"/>
@@ -794,27 +794,6 @@
     <t>tester0022@OSH-automation.com</t>
   </si>
   <si>
-    <t>http://stage.com/oshstorefront/Osh-Categories/Outdoor/Lawn-%26-Garden/Garden-Tools/Specialty-Garden-Tools/Bonide-Measuring-Cup%2C-4-fl-oz/p/2910925</t>
-  </si>
-  <si>
-    <t>Bonide Measuring Cup, 4 fl oz</t>
-  </si>
-  <si>
-    <t>$1.99</t>
-  </si>
-  <si>
-    <t>2910925</t>
-  </si>
-  <si>
-    <t>These handy 4 oz cups calibrated for teaspoons, Tablespoons and ounces provide a measuring device other than kitchen utensils.</t>
-  </si>
-  <si>
-    <t>Size: 4 fl oz
-Calibrated for teaspoons, tablespoons and ounces
-Handy measuring cup
-Provide a measuring device other than kitchen utensils</t>
-  </si>
-  <si>
     <t>COB-01</t>
   </si>
   <si>
@@ -954,9 +933,6 @@
   </si>
   <si>
     <t>REG-06</t>
-  </si>
-  <si>
-    <t>$3.98</t>
   </si>
   <si>
     <t>P3</t>
@@ -1450,6 +1426,34 @@
   </si>
   <si>
     <t>ChromeG</t>
+  </si>
+  <si>
+    <t>http://stage.com/oshstorefront/Osh-Categories/Electrical/Rough-Electrical/Breakers-and-Fuses/Cooper-Bussmann-Fast-Acting-Electronic-Fuse%2C-0-75-amp/p/7078629</t>
+  </si>
+  <si>
+    <t>Cooper Bussmann Fast Acting Electronic Fuse, 0.75 amp</t>
+  </si>
+  <si>
+    <t>7078629</t>
+  </si>
+  <si>
+    <t>Fast Acting Electronic Fuse, 0.75 amp.</t>
+  </si>
+  <si>
+    <t>Size: 5 mm x 20 mm
+Glass tube fuse, nickel-plated brass end cap construction
+Fast acting fuse
+Blister pack of five fuses per card
+Fits many consumer electronic products and appliances
+750 milli amp-hour rating
+UL Listed
+250 volt rating</t>
+  </si>
+  <si>
+    <t>$3.49</t>
+  </si>
+  <si>
+    <t>$6.98</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2281,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="74" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>51</v>
@@ -2285,22 +2289,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="75" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2368,7 @@
         <v>131</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F2" s="31"/>
     </row>
@@ -2382,7 +2386,7 @@
         <v>133</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>156</v>
@@ -2402,7 +2406,7 @@
         <v>114</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>117</v>
@@ -2422,7 +2426,7 @@
         <v>159</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>157</v>
@@ -2513,7 +2517,7 @@
         <v>216</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>58</v>
@@ -2522,7 +2526,7 @@
         <v>58</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="52" customFormat="1">
@@ -2537,7 +2541,7 @@
         <v>216</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>58</v>
@@ -2546,7 +2550,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="52" customFormat="1">
@@ -2561,7 +2565,7 @@
         <v>216</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>58</v>
@@ -2570,7 +2574,7 @@
         <v>58</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="52" customFormat="1">
@@ -2585,7 +2589,7 @@
         <v>216</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>58</v>
@@ -2594,7 +2598,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="52" customFormat="1">
@@ -2609,7 +2613,7 @@
         <v>216</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>58</v>
@@ -2618,7 +2622,7 @@
         <v>58</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="52" customFormat="1">
@@ -2633,7 +2637,7 @@
         <v>216</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2642,7 +2646,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="52" customFormat="1">
@@ -2657,7 +2661,7 @@
         <v>216</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>58</v>
@@ -2666,7 +2670,7 @@
         <v>58</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="52" customFormat="1">
@@ -2681,7 +2685,7 @@
         <v>216</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>58</v>
@@ -2690,7 +2694,7 @@
         <v>58</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="52" customFormat="1">
@@ -2705,7 +2709,7 @@
         <v>216</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>58</v>
@@ -2714,7 +2718,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2729,7 +2733,7 @@
         <v>216</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>58</v>
@@ -2738,7 +2742,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2753,7 +2757,7 @@
         <v>216</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>58</v>
@@ -2762,12 +2766,12 @@
         <v>58</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="37" t="s">
@@ -2777,7 +2781,7 @@
         <v>216</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>58</v>
@@ -2786,12 +2790,12 @@
         <v>58</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="21" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="37" t="s">
@@ -2801,7 +2805,7 @@
         <v>216</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>58</v>
@@ -2810,12 +2814,12 @@
         <v>58</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="37" t="s">
@@ -2825,7 +2829,7 @@
         <v>216</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>58</v>
@@ -2834,12 +2838,12 @@
         <v>58</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="37" t="s">
@@ -2849,7 +2853,7 @@
         <v>216</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>58</v>
@@ -2858,12 +2862,12 @@
         <v>58</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="37" t="s">
@@ -2873,7 +2877,7 @@
         <v>216</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>58</v>
@@ -2882,12 +2886,12 @@
         <v>58</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="37" t="s">
@@ -2897,7 +2901,7 @@
         <v>216</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>58</v>
@@ -2906,12 +2910,12 @@
         <v>58</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="37" t="s">
@@ -2921,7 +2925,7 @@
         <v>216</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>58</v>
@@ -2930,12 +2934,12 @@
         <v>58</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="37" t="s">
@@ -2945,7 +2949,7 @@
         <v>216</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -2954,12 +2958,12 @@
         <v>58</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="37" t="s">
@@ -2969,7 +2973,7 @@
         <v>216</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
@@ -2978,12 +2982,12 @@
         <v>58</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="37" t="s">
@@ -2993,7 +2997,7 @@
         <v>216</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>58</v>
@@ -3002,12 +3006,12 @@
         <v>58</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="37" t="s">
@@ -3017,7 +3021,7 @@
         <v>216</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>58</v>
@@ -3026,12 +3030,12 @@
         <v>58</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="37" t="s">
@@ -3041,7 +3045,7 @@
         <v>216</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>58</v>
@@ -3050,12 +3054,12 @@
         <v>58</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="68" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B25" s="68" t="s">
         <v>50</v>
@@ -3067,7 +3071,7 @@
         <v>216</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F25" s="72" t="s">
         <v>58</v>
@@ -3076,12 +3080,12 @@
         <v>58</v>
       </c>
       <c r="H25" s="73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="68" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B26" s="68" t="s">
         <v>50</v>
@@ -3093,7 +3097,7 @@
         <v>216</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F26" s="72" t="s">
         <v>58</v>
@@ -3102,12 +3106,12 @@
         <v>58</v>
       </c>
       <c r="H26" s="73" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="68" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B27" s="68" t="s">
         <v>50</v>
@@ -3119,7 +3123,7 @@
         <v>216</v>
       </c>
       <c r="E27" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F27" s="72" t="s">
         <v>58</v>
@@ -3128,12 +3132,12 @@
         <v>58</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="68" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B28" s="68" t="s">
         <v>50</v>
@@ -3145,7 +3149,7 @@
         <v>216</v>
       </c>
       <c r="E28" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F28" s="72" t="s">
         <v>58</v>
@@ -3154,12 +3158,12 @@
         <v>58</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="68" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B29" s="68" t="s">
         <v>50</v>
@@ -3171,7 +3175,7 @@
         <v>216</v>
       </c>
       <c r="E29" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F29" s="72" t="s">
         <v>58</v>
@@ -3180,12 +3184,12 @@
         <v>58</v>
       </c>
       <c r="H29" s="73" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="68" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B30" s="68" t="s">
         <v>50</v>
@@ -3197,7 +3201,7 @@
         <v>216</v>
       </c>
       <c r="E30" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F30" s="72" t="s">
         <v>58</v>
@@ -3206,12 +3210,12 @@
         <v>58</v>
       </c>
       <c r="H30" s="73" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="68" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B31" s="68" t="s">
         <v>50</v>
@@ -3223,7 +3227,7 @@
         <v>216</v>
       </c>
       <c r="E31" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F31" s="72" t="s">
         <v>58</v>
@@ -3232,12 +3236,12 @@
         <v>58</v>
       </c>
       <c r="H31" s="73" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="68" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B32" s="68" t="s">
         <v>50</v>
@@ -3249,7 +3253,7 @@
         <v>216</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F32" s="72" t="s">
         <v>58</v>
@@ -3258,12 +3262,12 @@
         <v>58</v>
       </c>
       <c r="H32" s="73" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="68" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B33" s="68" t="s">
         <v>50</v>
@@ -3275,7 +3279,7 @@
         <v>216</v>
       </c>
       <c r="E33" s="71" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F33" s="72" t="s">
         <v>58</v>
@@ -3284,7 +3288,7 @@
         <v>58</v>
       </c>
       <c r="H33" s="73" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +3343,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>60</v>
@@ -3362,7 +3366,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>60</v>
@@ -3385,7 +3389,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>60</v>
@@ -3408,7 +3412,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>60</v>
@@ -3431,7 +3435,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>60</v>
@@ -3454,7 +3458,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>60</v>
@@ -3477,7 +3481,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>60</v>
@@ -3500,7 +3504,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>60</v>
@@ -3523,7 +3527,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>60</v>
@@ -3546,7 +3550,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>60</v>
@@ -3569,7 +3573,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>60</v>
@@ -3592,7 +3596,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="17" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>60</v>
@@ -3615,7 +3619,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>60</v>
@@ -3633,12 +3637,12 @@
         <v>69</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>60</v>
@@ -3656,12 +3660,12 @@
         <v>69</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="17" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>60</v>
@@ -3679,12 +3683,12 @@
         <v>69</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="17" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>60</v>
@@ -3702,12 +3706,12 @@
         <v>69</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>60</v>
@@ -3725,12 +3729,12 @@
         <v>69</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>60</v>
@@ -3748,12 +3752,12 @@
         <v>69</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="17" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>60</v>
@@ -3771,12 +3775,12 @@
         <v>69</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="17" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>60</v>
@@ -3794,12 +3798,12 @@
         <v>69</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="17" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>60</v>
@@ -3817,12 +3821,12 @@
         <v>69</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="17" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>60</v>
@@ -3840,12 +3844,12 @@
         <v>69</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="17" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>60</v>
@@ -3863,12 +3867,12 @@
         <v>69</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>60</v>
@@ -3886,12 +3890,12 @@
         <v>69</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>60</v>
@@ -3914,7 +3918,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>60</v>
@@ -3932,12 +3936,12 @@
         <v>69</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>60</v>
@@ -3955,12 +3959,12 @@
         <v>69</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>60</v>
@@ -3978,12 +3982,12 @@
         <v>69</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="17" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>60</v>
@@ -4001,12 +4005,12 @@
         <v>69</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="17" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>60</v>
@@ -4024,12 +4028,12 @@
         <v>69</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="66" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>60</v>
@@ -4047,12 +4051,12 @@
         <v>69</v>
       </c>
       <c r="G32" s="67" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="66" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>60</v>
@@ -4070,12 +4074,12 @@
         <v>69</v>
       </c>
       <c r="G33" s="67" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="66" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>60</v>
@@ -4093,12 +4097,12 @@
         <v>69</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="66" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>60</v>
@@ -4113,10 +4117,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4135,8 +4139,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4182,7 +4186,7 @@
         <v>138</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>219</v>
@@ -4191,103 +4195,102 @@
         <v>87</v>
       </c>
       <c r="F2" s="59" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>140</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="75">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="150">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>243</v>
+        <v>432</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>241</v>
+        <v>431</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>242</v>
+        <v>433</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>245</v>
+        <v>434</v>
       </c>
       <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="180">
       <c r="A4" s="17" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G4" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="105">
       <c r="A5" s="11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4333,7 +4336,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4353,7 +4356,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4628,7 +4631,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>51</v>
@@ -4636,7 +4639,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="78" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>50</v>
@@ -4644,7 +4647,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="79" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>50</v>
@@ -4652,7 +4655,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="79" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B4" s="77" t="s">
         <v>50</v>
@@ -4660,7 +4663,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="79" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>50</v>
@@ -4668,7 +4671,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="79" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>50</v>
@@ -4676,7 +4679,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="79" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B7" s="77" t="s">
         <v>50</v>
@@ -4684,7 +4687,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="79" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>50</v>
@@ -4692,7 +4695,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="79" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>50</v>
@@ -4765,7 +4768,7 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -4783,7 +4786,7 @@
         <v>216</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>58</v>
@@ -4793,12 +4796,12 @@
       </c>
       <c r="J2" s="42"/>
       <c r="K2" s="42" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -4816,7 +4819,7 @@
         <v>217</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H3" s="42" t="s">
         <v>58</v>
@@ -4826,12 +4829,12 @@
       </c>
       <c r="J3" s="42"/>
       <c r="K3" s="42" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
@@ -4849,7 +4852,7 @@
         <v>218</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H4" s="42" t="s">
         <v>58</v>
@@ -4859,12 +4862,12 @@
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>50</v>
@@ -4882,7 +4885,7 @@
         <v>216</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>58</v>
@@ -4895,7 +4898,7 @@
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>50</v>
@@ -4913,7 +4916,7 @@
         <v>216</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>58</v>
@@ -4923,12 +4926,12 @@
       </c>
       <c r="J6" s="42"/>
       <c r="K6" s="43" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
@@ -4946,7 +4949,7 @@
         <v>216</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>58</v>
@@ -4956,12 +4959,12 @@
       </c>
       <c r="J7" s="42"/>
       <c r="K7" s="42" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>50</v>
@@ -4979,7 +4982,7 @@
         <v>216</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>58</v>
@@ -4989,12 +4992,12 @@
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -5012,7 +5015,7 @@
         <v>216</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>58</v>
@@ -5022,12 +5025,12 @@
       </c>
       <c r="J9" s="42"/>
       <c r="K9" s="42" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>50</v>
@@ -5045,7 +5048,7 @@
         <v>216</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H10" s="42" t="s">
         <v>58</v>
@@ -5055,12 +5058,12 @@
       </c>
       <c r="J10" s="42"/>
       <c r="K10" s="42" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>50</v>
@@ -5078,7 +5081,7 @@
         <v>216</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H11" s="42" t="s">
         <v>58</v>
@@ -5088,12 +5091,12 @@
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="42" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>50</v>
@@ -5111,7 +5114,7 @@
         <v>216</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H12" s="42" t="s">
         <v>58</v>
@@ -5124,7 +5127,7 @@
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>50</v>
@@ -5142,7 +5145,7 @@
         <v>216</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H13" s="42" t="s">
         <v>58</v>
@@ -5155,7 +5158,7 @@
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
@@ -5173,7 +5176,7 @@
         <v>216</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>58</v>
@@ -5186,7 +5189,7 @@
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>50</v>
@@ -5204,7 +5207,7 @@
         <v>216</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H15" s="42" t="s">
         <v>58</v>
@@ -5235,7 +5238,7 @@
         <v>216</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>58</v>
@@ -5266,7 +5269,7 @@
         <v>216</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>58</v>
@@ -5297,7 +5300,7 @@
         <v>216</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H18" s="42" t="s">
         <v>58</v>
@@ -5328,7 +5331,7 @@
         <v>216</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H19" s="42" t="s">
         <v>58</v>
@@ -5359,7 +5362,7 @@
         <v>216</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>58</v>
@@ -5369,7 +5372,7 @@
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
@@ -5434,7 +5437,7 @@
         <v>142</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E2" s="55" t="s">
         <v>2</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
@@ -5453,7 +5456,7 @@
         <v>143</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E3" s="55" t="s">
         <v>2</v>
@@ -5463,7 +5466,7 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="8" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
@@ -5472,7 +5475,7 @@
         <v>144</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E4" s="55" t="s">
         <v>2</v>
@@ -5482,7 +5485,7 @@
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>50</v>
@@ -5491,7 +5494,7 @@
         <v>145</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E5" s="55" t="s">
         <v>2</v>
@@ -5501,7 +5504,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>50</v>
@@ -5510,7 +5513,7 @@
         <v>146</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>2</v>
@@ -5520,7 +5523,7 @@
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
@@ -5529,7 +5532,7 @@
         <v>147</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E7" s="55" t="s">
         <v>2</v>
@@ -5539,7 +5542,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>50</v>
@@ -5548,7 +5551,7 @@
         <v>148</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>2</v>
@@ -5558,7 +5561,7 @@
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
@@ -5567,7 +5570,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>2</v>
@@ -5577,169 +5580,169 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E12" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E13" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E14" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E15" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E16" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E17" s="55" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G17" s="58"/>
     </row>
@@ -5756,8 +5759,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5842,7 +5845,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>197</v>
@@ -5854,7 +5857,7 @@
         <v>197</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N2" s="42"/>
     </row>
@@ -5878,7 +5881,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>197</v>
@@ -5890,7 +5893,7 @@
         <v>197</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N3" s="42"/>
     </row>
@@ -5914,7 +5917,7 @@
       <c r="G4" s="43"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>197</v>
@@ -5926,7 +5929,7 @@
         <v>197</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N4" s="42"/>
     </row>
@@ -5938,31 +5941,31 @@
         <v>50</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
       <c r="I5" s="42" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K5" s="42" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>197</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N5" s="42"/>
     </row>
@@ -5974,36 +5977,36 @@
         <v>50</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>197</v>
       </c>
       <c r="K6" s="42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>197</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45">
@@ -6028,7 +6031,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>197</v>
@@ -6040,7 +6043,7 @@
         <v>197</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N7" s="42" t="s">
         <v>196</v>
@@ -6066,7 +6069,7 @@
       <c r="G8" s="43"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>197</v>
@@ -6078,7 +6081,7 @@
         <v>197</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N8" s="42"/>
     </row>
@@ -6102,7 +6105,7 @@
       <c r="G9" s="43"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>197</v>
@@ -6114,7 +6117,7 @@
         <v>197</v>
       </c>
       <c r="M9" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N9" s="42"/>
     </row>
@@ -6129,18 +6132,18 @@
         <v>186</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>197</v>
@@ -6152,7 +6155,7 @@
         <v>197</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N10" s="42"/>
     </row>
@@ -6167,18 +6170,18 @@
         <v>186</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>197</v>
@@ -6190,7 +6193,7 @@
         <v>197</v>
       </c>
       <c r="M11" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N11" s="42"/>
     </row>
@@ -6205,18 +6208,18 @@
         <v>186</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>197</v>
@@ -6228,7 +6231,7 @@
         <v>197</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N12" s="42"/>
     </row>
@@ -6243,30 +6246,30 @@
         <v>186</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L13" s="43" t="s">
         <v>197</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N13" s="43"/>
     </row>
@@ -6281,20 +6284,20 @@
         <v>89</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="42" t="s">
         <v>91</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>197</v>
@@ -6306,7 +6309,7 @@
         <v>197</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N14" s="42" t="s">
         <v>196</v>
@@ -6323,18 +6326,18 @@
         <v>186</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J15" s="42" t="s">
         <v>197</v>
@@ -6346,7 +6349,7 @@
         <v>197</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N15" s="42"/>
     </row>
@@ -6361,18 +6364,18 @@
         <v>186</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J16" s="42" t="s">
         <v>197</v>
@@ -6384,7 +6387,7 @@
         <v>197</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N16" s="42"/>
     </row>
@@ -6408,7 +6411,7 @@
       <c r="G17" s="43"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>197</v>
@@ -6420,13 +6423,13 @@
         <v>197</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="105">
       <c r="A18" s="64" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>50</v>
@@ -6435,18 +6438,18 @@
         <v>186</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>197</v>
@@ -6458,7 +6461,7 @@
         <v>197</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="N18" s="42"/>
     </row>
@@ -6604,7 +6607,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="42" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>50</v>
@@ -6621,7 +6624,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="42" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="19" t="s">
@@ -6636,7 +6639,7 @@
     </row>
     <row r="4" spans="1:5" ht="75">
       <c r="A4" s="42" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>50</v>
@@ -6653,7 +6656,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="42" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>50</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="6" spans="1:5" ht="30">
       <c r="A6" s="42" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>50</v>
@@ -6687,7 +6690,7 @@
     </row>
     <row r="7" spans="1:5" ht="45">
       <c r="A7" s="42" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>50</v>
@@ -6764,7 +6767,7 @@
         <v>202</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>58</v>
@@ -6784,7 +6787,7 @@
         <v>205</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>58</v>
@@ -6857,13 +6860,13 @@
         <v>201</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="16065" yWindow="0" windowWidth="17790" windowHeight="5610"/>
   </bookViews>
   <sheets>
-    <sheet name="BrowsersRegression" sheetId="42" r:id="rId1"/>
-    <sheet name="RunnerRegression" sheetId="43" r:id="rId2"/>
+    <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
+    <sheet name="SetupRunners" sheetId="43" r:id="rId2"/>
     <sheet name="CheckOutRegression" sheetId="7" r:id="rId3"/>
     <sheet name="PDPRegression" sheetId="29" r:id="rId4"/>
     <sheet name="CartRegression" sheetId="18" r:id="rId5"/>
@@ -17,7 +17,7 @@
     <sheet name="AddressBookRegression" sheetId="19" r:id="rId8"/>
     <sheet name="PaymentDetailsRegression" sheetId="25" r:id="rId9"/>
     <sheet name="LoginRegression" sheetId="41" r:id="rId10"/>
-    <sheet name="AccountSetupRegression" sheetId="37" r:id="rId11"/>
+    <sheet name="AccountSetup" sheetId="37" r:id="rId11"/>
     <sheet name="users" sheetId="13" r:id="rId12"/>
     <sheet name="products" sheetId="8" r:id="rId13"/>
     <sheet name="cards" sheetId="9" r:id="rId14"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="436">
   <si>
     <t>Accept</t>
   </si>
@@ -1395,9 +1395,6 @@
     <t>addressBookRegression</t>
   </si>
   <si>
-    <t>cartRunner</t>
-  </si>
-  <si>
     <t>checkoutRegression</t>
   </si>
   <si>
@@ -1420,9 +1417,6 @@
   </si>
   <si>
     <t>Firefox</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>ChromeG</t>
@@ -1454,6 +1448,9 @@
   </si>
   <si>
     <t>$6.98</t>
+  </si>
+  <si>
+    <t>cartRegression</t>
   </si>
 </sst>
 </file>
@@ -2270,8 +2267,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2289,22 +2286,24 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="75" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2" s="76"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B3" s="77"/>
+        <v>426</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>428</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2464,7 +2463,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4209,25 +4208,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>92</v>
       </c>
       <c r="F3" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>435</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P3" s="32"/>
     </row>
@@ -4620,7 +4619,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4639,7 +4638,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>50</v>
@@ -4655,7 +4654,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B4" s="77" t="s">
         <v>50</v>
@@ -4663,7 +4662,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>50</v>
@@ -4671,7 +4670,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>50</v>
@@ -4679,7 +4678,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="77" t="s">
         <v>50</v>
@@ -4687,7 +4686,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>50</v>
@@ -4695,7 +4694,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="79" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>50</v>
@@ -4715,7 +4714,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5759,8 +5758,8 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5829,9 +5828,7 @@
       <c r="A2" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B2" s="42"/>
       <c r="C2" s="43" t="s">
         <v>186</v>
       </c>
@@ -5845,7 +5842,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>197</v>
@@ -5857,7 +5854,7 @@
         <v>197</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N2" s="42"/>
     </row>
@@ -5865,9 +5862,7 @@
       <c r="A3" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B3" s="42"/>
       <c r="C3" s="43" t="s">
         <v>186</v>
       </c>
@@ -5881,7 +5876,7 @@
       <c r="G3" s="43"/>
       <c r="H3" s="42"/>
       <c r="I3" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>197</v>
@@ -5893,7 +5888,7 @@
         <v>197</v>
       </c>
       <c r="M3" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N3" s="42"/>
     </row>
@@ -5901,9 +5896,7 @@
       <c r="A4" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
         <v>186</v>
       </c>
@@ -5917,7 +5910,7 @@
       <c r="G4" s="43"/>
       <c r="H4" s="42"/>
       <c r="I4" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>197</v>
@@ -5929,7 +5922,7 @@
         <v>197</v>
       </c>
       <c r="M4" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N4" s="42"/>
     </row>
@@ -5937,9 +5930,7 @@
       <c r="A5" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B5" s="42"/>
       <c r="C5" s="21" t="s">
         <v>379</v>
       </c>
@@ -5973,9 +5964,7 @@
       <c r="A6" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B6" s="42"/>
       <c r="C6" s="21" t="s">
         <v>380</v>
       </c>
@@ -6013,9 +6002,7 @@
       <c r="A7" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="42"/>
       <c r="C7" s="42" t="s">
         <v>89</v>
       </c>
@@ -6031,7 +6018,7 @@
         <v>91</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>197</v>
@@ -6043,7 +6030,7 @@
         <v>197</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N7" s="42" t="s">
         <v>196</v>
@@ -6053,9 +6040,7 @@
       <c r="A8" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
         <v>186</v>
       </c>
@@ -6069,7 +6054,7 @@
       <c r="G8" s="43"/>
       <c r="H8" s="42"/>
       <c r="I8" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J8" s="42" t="s">
         <v>197</v>
@@ -6081,7 +6066,7 @@
         <v>197</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N8" s="42"/>
     </row>
@@ -6089,9 +6074,7 @@
       <c r="A9" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B9" s="42"/>
       <c r="C9" s="43" t="s">
         <v>186</v>
       </c>
@@ -6105,7 +6088,7 @@
       <c r="G9" s="43"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J9" s="42" t="s">
         <v>197</v>
@@ -6117,7 +6100,7 @@
         <v>197</v>
       </c>
       <c r="M9" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N9" s="42"/>
     </row>
@@ -6125,9 +6108,7 @@
       <c r="A10" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B10" s="42"/>
       <c r="C10" s="43" t="s">
         <v>186</v>
       </c>
@@ -6143,7 +6124,7 @@
       <c r="G10" s="43"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J10" s="42" t="s">
         <v>197</v>
@@ -6155,7 +6136,7 @@
         <v>197</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N10" s="42"/>
     </row>
@@ -6163,9 +6144,7 @@
       <c r="A11" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B11" s="42"/>
       <c r="C11" s="43" t="s">
         <v>186</v>
       </c>
@@ -6181,7 +6160,7 @@
       <c r="G11" s="43"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>197</v>
@@ -6193,7 +6172,7 @@
         <v>197</v>
       </c>
       <c r="M11" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N11" s="42"/>
     </row>
@@ -6201,9 +6180,7 @@
       <c r="A12" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
         <v>186</v>
       </c>
@@ -6219,7 +6196,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>197</v>
@@ -6231,7 +6208,7 @@
         <v>197</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N12" s="42"/>
     </row>
@@ -6239,9 +6216,7 @@
       <c r="A13" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B13" s="42"/>
       <c r="C13" s="43" t="s">
         <v>186</v>
       </c>
@@ -6277,9 +6252,7 @@
       <c r="A14" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
         <v>89</v>
       </c>
@@ -6297,7 +6270,7 @@
         <v>91</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J14" s="42" t="s">
         <v>197</v>
@@ -6309,7 +6282,7 @@
         <v>197</v>
       </c>
       <c r="M14" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N14" s="42" t="s">
         <v>196</v>
@@ -6319,9 +6292,7 @@
       <c r="A15" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B15" s="42"/>
       <c r="C15" s="43" t="s">
         <v>186</v>
       </c>
@@ -6337,7 +6308,7 @@
       <c r="G15" s="43"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J15" s="42" t="s">
         <v>197</v>
@@ -6349,7 +6320,7 @@
         <v>197</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N15" s="42"/>
     </row>
@@ -6357,9 +6328,7 @@
       <c r="A16" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B16" s="42"/>
       <c r="C16" s="43" t="s">
         <v>186</v>
       </c>
@@ -6375,7 +6344,7 @@
       <c r="G16" s="43"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J16" s="42" t="s">
         <v>197</v>
@@ -6387,7 +6356,7 @@
         <v>197</v>
       </c>
       <c r="M16" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N16" s="42"/>
     </row>
@@ -6411,7 +6380,7 @@
       <c r="G17" s="43"/>
       <c r="H17" s="42"/>
       <c r="I17" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>197</v>
@@ -6423,7 +6392,7 @@
         <v>197</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N17" s="42"/>
     </row>
@@ -6449,7 +6418,7 @@
       <c r="G18" s="43"/>
       <c r="H18" s="42"/>
       <c r="I18" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J18" s="42" t="s">
         <v>197</v>
@@ -6461,7 +6430,7 @@
         <v>197</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N18" s="42"/>
     </row>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{88AB60E0-AEE7-4C6C-91BC-2369E2A3E51A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{87035C1D-E6EA-43AD-9B2B-D0F6B1B0DE68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20790" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22680" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="418">
   <si>
     <t>Accept</t>
   </si>
@@ -218,9 +218,6 @@
     <t>MR.</t>
   </si>
   <si>
-    <t>14725836952</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>fresh
 new-user
 new-shipping
@@ -380,15 +374,6 @@
     <t>invalidUserID</t>
   </si>
   <si>
-    <t>Try to register with password mismatch.</t>
-  </si>
-  <si>
-    <t>passwordMismatch</t>
-  </si>
-  <si>
-    <t>Try to register with invalid password.</t>
-  </si>
-  <si>
     <t>invalidUserPassword</t>
   </si>
   <si>
@@ -488,27 +473,7 @@
     <t xml:space="preserve">ThankyouValidation: Thank you for registering. </t>
   </si>
   <si>
-    <t>EmailValidation:An account already exists for this email address.</t>
-  </si>
-  <si>
-    <t>firstNameValidation:Please enter a First Name
-lastNameValidation:Please enter a Last Name
-EmailValidation:Please enter an Email Address
-PasswordValidation:Please enter a Password
-PasswordConfValidation:Please enter a Password Again</t>
-  </si>
-  <si>
     <t>EmailValidation:Please enter valid email address.</t>
-  </si>
-  <si>
-    <t>PasswordConfValidation:The Password and Confirmation Password do not match</t>
-  </si>
-  <si>
-    <t>PasswordValidation:Please enter a strong Password of at least 6 characters
-PasswordConfValidation:The Password and Confirmation Password do not match</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>Please enter a valid email Address</t>
@@ -906,12 +871,6 @@
     <t>REG-04</t>
   </si>
   <si>
-    <t>REG-05</t>
-  </si>
-  <si>
-    <t>REG-06</t>
-  </si>
-  <si>
     <t>P3</t>
   </si>
   <si>
@@ -925,15 +884,6 @@
   </si>
   <si>
     <t>$101.99</t>
-  </si>
-  <si>
-    <t>Racor Bike Stand, Steel, Black</t>
-  </si>
-  <si>
-    <t>http://stage.com/oshstorefront/Osh-Categories/Home/Storage%2C-Organization%2C-%26-Housekeeping/Garage-Organization/Shelving-%26-Brackets/Racor-Bike-Stand%2C-Steel%2C-Black/p/6060230</t>
-  </si>
-  <si>
-    <t>The Racor 4-Bike Gravity Bike Stand offers a convenient way to store up to 4 bicycles while freeing up floor space. The stand features adjustable arms to accommodate virtually any style of bike and are vinyl coated to protect a bike's finish. An anchor can be used to secure the stand to the wall for added reliability and support.</t>
   </si>
   <si>
     <t>U-01</t>
@@ -1242,21 +1192,6 @@
     <t>CRT-17</t>
   </si>
   <si>
-    <t>Richelieu Oil Rubbed Bronze Contemporary Tuscany Pull 12''</t>
-  </si>
-  <si>
-    <t>http://stage.com/oshstorefront/Osh-Categories/Tools-%26-Hardware/Hardware/Cabinet-Hardware/Pulls-%26-Knobs/Richelieu-Oil-Rubbed-Bronze-Contemporary-Tuscany-Pull-12%26%2339%26%2339/p/8246936</t>
-  </si>
-  <si>
-    <t>Richelieu Hardware is an innovator in craftsmanship design and style for your kitchen. Our unique products will bring together functionality, aesthetics, ergonomics, in all kinds of styles and finishes for your home.</t>
-  </si>
-  <si>
-    <t>8246936</t>
-  </si>
-  <si>
-    <t>7783624</t>
-  </si>
-  <si>
     <t>crt0050@OSH-automation.com</t>
   </si>
   <si>
@@ -1375,21 +1310,6 @@
   </si>
   <si>
     <t>ChromeG</t>
-  </si>
-  <si>
-    <t>http://stage.com/oshstorefront/Osh-Categories/Electrical/Rough-Electrical/Breakers-and-Fuses/Cooper-Bussmann-Fast-Acting-Electronic-Fuse%2C-0-75-amp/p/7078629</t>
-  </si>
-  <si>
-    <t>Cooper Bussmann Fast Acting Electronic Fuse, 0.75 amp</t>
-  </si>
-  <si>
-    <t>7078629</t>
-  </si>
-  <si>
-    <t>Fast Acting Electronic Fuse, 0.75 amp.</t>
-  </si>
-  <si>
-    <t>$3.49</t>
   </si>
   <si>
     <t>$6.98</t>
@@ -1451,6 +1371,22 @@
   </si>
   <si>
     <t>Sleeveless</t>
+  </si>
+  <si>
+    <t>4725836952</t>
+  </si>
+  <si>
+    <t>EmailValidation:Username already taken.</t>
+  </si>
+  <si>
+    <t>firstNameValidation:Please enter your first name
+lastNameValidation:Please enter your last name
+EmailValidation:Please enter your email address.
+PasswordValidation:Please enter a password with at least 8 characters
+PasswordConfValidation:Please enter a password with at least 8 characters</t>
+  </si>
+  <si>
+    <t>Enter no data to validate the error messages</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1433,7 @@
       <name val="Monospace"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1519,12 +1455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,7 +1633,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1744,9 +1674,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1790,9 +1717,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1905,27 +1829,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2286,32 +2189,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="68"/>
+      <c r="A2" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B3" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B4" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2334,17 +2237,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="40"/>
-    <col min="3" max="3" width="37.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="38"/>
+    <col min="3" max="3" width="37.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51" style="37" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="40" customFormat="1">
+    <row r="1" spans="1:6" s="38" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>51</v>
@@ -2359,103 +2262,103 @@
         <v>9</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="D4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="C5" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="41" t="s">
-        <v>156</v>
+      <c r="C6" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="39" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2477,19 +2380,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="9.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="9.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="45" customFormat="1">
+    <row r="1" spans="1:8" s="43" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>51</v>
@@ -2513,790 +2416,790 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="47" customFormat="1">
-      <c r="A2" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="32" t="s">
+    <row r="2" spans="1:8" s="45" customFormat="1">
+      <c r="A2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="45" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="45" customFormat="1">
+      <c r="A4" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="45" customFormat="1">
+      <c r="A5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="45" customFormat="1">
+      <c r="A6" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="45" customFormat="1">
+      <c r="A7" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="45" customFormat="1">
+      <c r="A8" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="45" customFormat="1">
+      <c r="A9" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="45" customFormat="1">
+      <c r="A10" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="47" customFormat="1">
-      <c r="A3" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="32" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="47" customFormat="1">
-      <c r="A4" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="32" t="s">
+      <c r="D27" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="47" customFormat="1">
-      <c r="A5" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="32" t="s">
+      <c r="D28" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="47" customFormat="1">
-      <c r="A6" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="32" t="s">
+      <c r="D29" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="47" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="32" t="s">
+      <c r="D30" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="47" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="32" t="s">
+      <c r="D31" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="47" customFormat="1">
-      <c r="A9" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="32" t="s">
+      <c r="D32" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="47" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F26" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F27" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F28" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="65" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="60" t="s">
-        <v>403</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F32" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="F33" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>395</v>
+      <c r="D33" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3312,18 +3215,18 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="10.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="10.140625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3334,7 +3237,7 @@
         <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>33</v>
@@ -3343,792 +3246,792 @@
         <v>32</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C17" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="F17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
+      <c r="F18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="17" t="s">
+      <c r="F19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
+      <c r="F20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C21" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
+      <c r="F21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="F22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="C23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
+      <c r="F23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="17" t="s">
+      <c r="F24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="17" t="s">
+      <c r="F25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C26" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="F26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="F27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="C28" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="F28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="C29" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E29" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="F29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="C30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="F30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="F31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="C32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="F32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C33" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="F33" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="C34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="F34" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="C35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E35" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="58" t="s">
-        <v>384</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>393</v>
+      <c r="F35" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G35" s="57" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4145,10 +4048,10 @@
   <sheetPr codeName="Sheet20">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4162,165 +4065,79 @@
     <col min="10" max="10" width="50.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:11">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="45">
-      <c r="A2" s="27" t="s">
+      <c r="F1" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>428</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="J2" s="54" t="s">
-        <v>435</v>
+      <c r="B2" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>410</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="75">
-      <c r="A3" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>417</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>421</v>
-      </c>
-      <c r="S3" s="31"/>
-    </row>
-    <row r="4" spans="1:19" ht="105">
-      <c r="A4" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="105">
-      <c r="A5" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="77" t="s">
-        <v>374</v>
-      </c>
-      <c r="K5" s="80" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4355,10 +4172,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>19</v>
@@ -4366,7 +4183,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>21</v>
@@ -4386,7 +4203,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
@@ -4477,7 +4294,9 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4517,7 +4336,7 @@
         <v>36</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4546,7 +4365,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>61</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4575,7 +4394,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>61</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4598,18 +4417,18 @@
         <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>61</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -4621,19 +4440,19 @@
         <v>60</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>61</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -4661,73 +4480,73 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="70" t="s">
-        <v>408</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="71" t="s">
-        <v>407</v>
-      </c>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="71" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="71" t="s">
-        <v>411</v>
-      </c>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="71" t="s">
-        <v>412</v>
-      </c>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="71" t="s">
-        <v>409</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="67" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4758,53 +4577,53 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6" style="51" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6" style="49" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
-      <c r="A1" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A2" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>54</v>
@@ -4813,31 +4632,31 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37" t="s">
-        <v>288</v>
+        <v>202</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A3" s="8" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>54</v>
@@ -4846,25 +4665,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37" t="s">
-        <v>289</v>
+        <v>203</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
@@ -4879,161 +4698,161 @@
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
-        <v>298</v>
+        <v>204</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60">
       <c r="A5" s="8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="60">
       <c r="A6" s="8" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38" t="s">
-        <v>300</v>
+        <v>202</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60">
       <c r="A7" s="8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37" t="s">
-        <v>291</v>
+        <v>202</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60">
       <c r="A8" s="8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
-        <v>292</v>
+        <v>202</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="A9" s="8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>54</v>
@@ -5042,31 +4861,31 @@
         <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37" t="s">
-        <v>293</v>
+        <v>202</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60">
       <c r="A10" s="8" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>54</v>
@@ -5075,25 +4894,25 @@
         <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37" t="s">
-        <v>294</v>
+        <v>202</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60">
       <c r="A11" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>50</v>
@@ -5108,301 +4927,301 @@
         <v>6</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37" t="s">
-        <v>295</v>
+        <v>202</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60">
       <c r="A12" s="8" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="60">
       <c r="A13" s="8" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" ht="60">
       <c r="A14" s="8" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" ht="60">
       <c r="A15" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="60">
       <c r="A16" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="60">
       <c r="A18" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="60">
       <c r="A19" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+        <v>202</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37" t="s">
-        <v>296</v>
+        <v>202</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5434,317 +5253,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>100</v>
+      <c r="G1" s="42" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="8" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="C2" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="36"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="8" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="36"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="165">
       <c r="A4" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="36"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" ht="30">
       <c r="A5" s="8" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B5" s="8"/>
-      <c r="C5" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="50" t="s">
+      <c r="C5" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="52"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="8" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="52"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="8" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="E7" s="50" t="s">
+      <c r="C7" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="52"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="8" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="C8" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="52"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" ht="120">
       <c r="A9" s="8" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="50" t="s">
+      <c r="C9" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="52"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="8" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="53"/>
+      <c r="F10" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="8" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="G11" s="53"/>
+      <c r="F11" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="8" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="G12" s="53"/>
+      <c r="F12" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="8" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="53"/>
+      <c r="F13" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="8" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="53"/>
+      <c r="F14" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="8" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>325</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="G15" s="53"/>
+      <c r="F15" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="53"/>
+      <c r="F16" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:7" ht="120">
       <c r="A17" s="8" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="53"/>
+      <c r="F17" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5770,8 +5589,8 @@
     <col min="3" max="3" width="26.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="12" customWidth="1"/>
     <col min="10" max="10" width="17" style="12" bestFit="1" customWidth="1"/>
@@ -5782,658 +5601,658 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="55" t="s">
+      <c r="A1" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="H1" s="35" t="s">
+      <c r="G1" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30">
+      <c r="A2" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N2" s="35"/>
+    </row>
+    <row r="3" spans="1:14" ht="45">
+      <c r="A3" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N3" s="35"/>
+    </row>
+    <row r="4" spans="1:14" ht="45">
+      <c r="A4" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" ht="60">
+      <c r="A5" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" ht="60">
+      <c r="A6" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45">
+      <c r="A7" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="35" t="s">
+      <c r="I7" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30">
+      <c r="A8" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="30">
+      <c r="A9" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="30">
-      <c r="A2" s="56" t="s">
+      <c r="E9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" ht="30">
+      <c r="A10" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" ht="45">
+      <c r="A11" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" ht="45">
+      <c r="A12" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" ht="60">
+      <c r="A13" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" ht="45">
+      <c r="A14" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N14" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="37" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="30">
+      <c r="A15" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N2" s="37"/>
-    </row>
-    <row r="3" spans="1:14" ht="45">
-      <c r="A3" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="37" t="s">
+      <c r="F15" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="30">
+      <c r="A16" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N3" s="37"/>
-    </row>
-    <row r="4" spans="1:14" ht="45">
-      <c r="A4" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="F16" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N16" s="35"/>
+    </row>
+    <row r="17" spans="1:14" ht="105">
+      <c r="A17" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" ht="60">
-      <c r="A5" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="N5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" ht="60">
-      <c r="A6" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" ht="105">
+      <c r="A18" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N8" s="37"/>
-    </row>
-    <row r="9" spans="1:14" ht="30">
-      <c r="A9" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M9" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" ht="30">
-      <c r="A10" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N10" s="37"/>
-    </row>
-    <row r="11" spans="1:14" ht="45">
-      <c r="A11" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M11" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" ht="45">
-      <c r="A12" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M12" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N12" s="37"/>
-    </row>
-    <row r="13" spans="1:14" ht="60">
-      <c r="A13" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="1:14" ht="45">
-      <c r="A14" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M14" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30">
-      <c r="A15" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M15" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N15" s="37"/>
-    </row>
-    <row r="16" spans="1:14" ht="30">
-      <c r="A16" s="56" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="J18" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="1:14" ht="105">
-      <c r="A17" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="1:14" ht="105">
-      <c r="A18" s="56" t="s">
-        <v>371</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>422</v>
-      </c>
-      <c r="N18" s="37"/>
+      <c r="K18" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="N18" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6457,42 +6276,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="26.5703125" style="39" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11" style="47" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="26.5703125" style="37" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" style="45" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.140625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="45" customFormat="1">
-      <c r="A1" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:5" s="43" customFormat="1">
+      <c r="A1" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>203</v>
+      <c r="D1" s="42" t="s">
+        <v>193</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="47" customFormat="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="45" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>204</v>
+        <v>95</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="E2" s="11">
         <v>12</v>
@@ -6500,16 +6319,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E3" s="11">
         <v>12</v>
@@ -6517,16 +6336,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E4" s="11">
         <v>12</v>
@@ -6543,136 +6362,104 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="40"/>
-    <col min="3" max="3" width="37.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="38"/>
+    <col min="3" max="3" width="37.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="40" customFormat="1">
-      <c r="A1" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:5" s="38" customFormat="1">
+      <c r="A1" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="E2" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="E3" s="19" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75">
+      <c r="A4" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75">
-      <c r="A4" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="E4" s="28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="C5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>150</v>
+      <c r="E5" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6694,18 +6481,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="1" width="6.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="37" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>51</v>
@@ -6714,52 +6501,52 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6782,20 +6569,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="39"/>
-    <col min="3" max="3" width="23" style="39" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="39"/>
-    <col min="6" max="6" width="13.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="39"/>
-    <col min="11" max="11" width="33.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="23" style="37" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="37"/>
+    <col min="6" max="6" width="13.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="37"/>
+    <col min="11" max="11" width="33.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>51</v>
@@ -6817,26 +6604,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>310</v>
+        <v>187</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/src/com/generic/config/DataSheet.xlsx
+++ b/src/com/generic/config/DataSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{87035C1D-E6EA-43AD-9B2B-D0F6B1B0DE68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3C7E4162-4515-404D-AF6D-A17819784696}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26460" yWindow="0" windowWidth="17790" windowHeight="5610" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SetupBrowsers" sheetId="42" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="451">
   <si>
     <t>Accept</t>
   </si>
@@ -242,9 +242,6 @@
 new-payment</t>
   </si>
   <si>
-    <t>1234567</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
@@ -476,22 +473,12 @@
     <t>EmailValidation:Please enter valid email address.</t>
   </si>
   <si>
-    <t>Please enter a valid email Address</t>
-  </si>
-  <si>
-    <t>The Username or Password you entered is incorrect.</t>
-  </si>
-  <si>
     <t>Try to login with wrong password</t>
   </si>
   <si>
     <t>wrongUserPassword</t>
   </si>
   <si>
-    <t>Please enter your email address or username
-Please enter your password</t>
-  </si>
-  <si>
     <t>LGN-1</t>
   </si>
   <si>
@@ -505,9 +492,6 @@
   </si>
   <si>
     <t>LGN-5</t>
-  </si>
-  <si>
-    <t>qylu@gmail.com</t>
   </si>
   <si>
     <t>CRT-01</t>
@@ -712,39 +696,6 @@
     <t>AC-09</t>
   </si>
   <si>
-    <t>tester001@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0012@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0014@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0015@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0016@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0017@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0018@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0019@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester00200@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0021@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>tester0022@OSH-automation.com</t>
-  </si>
-  <si>
     <t>COB-01</t>
   </si>
   <si>
@@ -787,12 +738,6 @@
     <t>COB-14</t>
   </si>
   <si>
-    <t>adbok0022@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>cart0022@OSH-automation.com</t>
-  </si>
-  <si>
     <t>AC-13</t>
   </si>
   <si>
@@ -827,36 +772,6 @@
   </si>
   <si>
     <t>AC-24</t>
-  </si>
-  <si>
-    <t>adbok0021@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>adbok0023@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>cart0021@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>cart0023@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>login0024@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>login0025@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>login0026@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>login0027@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>login0028@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>pymt0029@OSH-automation.com</t>
   </si>
   <si>
     <t>REG-01</t>
@@ -1192,9 +1107,6 @@
     <t>CRT-17</t>
   </si>
   <si>
-    <t>crt0050@OSH-automation.com</t>
-  </si>
-  <si>
     <t>U-26</t>
   </si>
   <si>
@@ -1214,33 +1126,6 @@
   </si>
   <si>
     <t>U-32</t>
-  </si>
-  <si>
-    <t>1234575</t>
-  </si>
-  <si>
-    <t>crt0051@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0052@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0053@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0054@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0055@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0056@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0057@OSH-automation.com</t>
-  </si>
-  <si>
-    <t>crt0058@OSH-automation.com</t>
   </si>
   <si>
     <t>U-33</t>
@@ -1387,6 +1272,220 @@
   </si>
   <si>
     <t>Enter no data to validate the error messages</t>
+  </si>
+  <si>
+    <t>mahelemy@gmail.com</t>
+  </si>
+  <si>
+    <t>Password11</t>
+  </si>
+  <si>
+    <t>tester_000@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_001@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_002@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_003@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_004@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_005@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_006@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_007@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_008@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_009@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0010@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0011@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0012@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0013@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0014@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0015@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0016@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0017@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0018@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0019@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0020@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0021@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0022@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0024@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0025@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0026@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0027@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0028@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0029@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0030@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0031@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0032@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0033@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0034@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0035@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0036@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0037@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0038@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0039@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0040@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0041@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0042@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0043@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0044@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0045@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0046@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0047@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0048@cbk.com</t>
+  </si>
+  <si>
+    <t>tester_0049@cbk.com</t>
+  </si>
+  <si>
+    <t>U-35</t>
+  </si>
+  <si>
+    <t>U-36</t>
+  </si>
+  <si>
+    <t>U-37</t>
+  </si>
+  <si>
+    <t>U-38</t>
+  </si>
+  <si>
+    <t>U-39</t>
+  </si>
+  <si>
+    <t>U-40</t>
+  </si>
+  <si>
+    <t>U-41</t>
+  </si>
+  <si>
+    <t>U-42</t>
+  </si>
+  <si>
+    <t>U-43</t>
+  </si>
+  <si>
+    <t>U-44</t>
+  </si>
+  <si>
+    <t>U-45</t>
+  </si>
+  <si>
+    <t>U-46</t>
+  </si>
+  <si>
+    <t>U-47</t>
+  </si>
+  <si>
+    <t>U-48</t>
+  </si>
+  <si>
+    <t>U-49</t>
+  </si>
+  <si>
+    <t>U-50</t>
+  </si>
+  <si>
+    <t>U-51</t>
+  </si>
+  <si>
+    <t>Sorry, this does not match our records. Check your spelling and try again.</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address.</t>
+  </si>
+  <si>
+    <t>Please enter your email address.
+Please enter your password.</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1532,7 @@
       <name val="Monospace"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,12 +1548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,7 +1726,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1744,9 +1837,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1792,10 +1882,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1830,6 +1916,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2189,32 +2276,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="B2" s="66"/>
+      <c r="A2" s="62" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="63"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2231,17 +2318,17 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="38"/>
-    <col min="3" max="3" width="37.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51" style="37" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
@@ -2262,103 +2349,95 @@
         <v>9</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B2" s="20"/>
       <c r="C2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="E3" s="16" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>142</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>263</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>106</v>
-      </c>
       <c r="E6" s="29"/>
-      <c r="F6" s="39" t="s">
-        <v>146</v>
+      <c r="F6" s="14" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2469,7 @@
     <col min="9" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="43" customFormat="1">
+    <row r="1" spans="1:8" s="42" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>66</v>
       </c>
@@ -2416,19 +2495,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="45" customFormat="1">
+    <row r="2" spans="1:8" s="44" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>58</v>
@@ -2437,46 +2516,46 @@
         <v>58</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="45" customFormat="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="44" customFormat="1">
       <c r="A3" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="44" customFormat="1">
+      <c r="A4" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="45" customFormat="1">
-      <c r="A4" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>58</v>
@@ -2485,22 +2564,22 @@
         <v>58</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="45" customFormat="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="44" customFormat="1">
       <c r="A5" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>58</v>
@@ -2509,22 +2588,22 @@
         <v>58</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="45" customFormat="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="44" customFormat="1">
       <c r="A6" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>58</v>
@@ -2533,22 +2612,22 @@
         <v>58</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="45" customFormat="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="44" customFormat="1">
       <c r="A7" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>58</v>
@@ -2557,22 +2636,22 @@
         <v>58</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="45" customFormat="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="44" customFormat="1">
       <c r="A8" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>58</v>
@@ -2581,22 +2660,22 @@
         <v>58</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="45" customFormat="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="44" customFormat="1">
       <c r="A9" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>58</v>
@@ -2605,22 +2684,22 @@
         <v>58</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="45" customFormat="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="44" customFormat="1">
       <c r="A10" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>58</v>
@@ -2629,22 +2708,22 @@
         <v>58</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>58</v>
@@ -2653,22 +2732,22 @@
         <v>58</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>58</v>
@@ -2677,22 +2756,22 @@
         <v>58</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>58</v>
@@ -2701,22 +2780,22 @@
         <v>58</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="20" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>58</v>
@@ -2725,22 +2804,22 @@
         <v>58</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>58</v>
@@ -2749,22 +2828,22 @@
         <v>58</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="20" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>58</v>
@@ -2773,22 +2852,22 @@
         <v>58</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="20" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>58</v>
@@ -2797,22 +2876,22 @@
         <v>58</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="20" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>58</v>
@@ -2821,22 +2900,22 @@
         <v>58</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="20" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>58</v>
@@ -2845,22 +2924,22 @@
         <v>58</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="20" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>58</v>
@@ -2869,22 +2948,22 @@
         <v>58</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="20" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
@@ -2893,22 +2972,22 @@
         <v>58</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>58</v>
@@ -2917,22 +2996,22 @@
         <v>58</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="20" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>58</v>
@@ -2941,265 +3020,265 @@
         <v>58</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="20" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="B25" s="58" t="s">
+      <c r="B32" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C32" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="63" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="58" t="s">
+      <c r="D32" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C33" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="63" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="63" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="58" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="58" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="63" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="58" t="s">
-        <v>384</v>
-      </c>
-      <c r="B33" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>344</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>375</v>
+      <c r="D33" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3213,54 +3292,57 @@
   <sheetPr codeName="Sheet19">
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="1" max="1" width="6" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="37"/>
+    <col min="5" max="5" width="9.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="16" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>0</v>
@@ -3269,21 +3351,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>152</v>
+        <v>381</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>0</v>
@@ -3292,21 +3374,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>214</v>
+        <v>381</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>0</v>
@@ -3315,21 +3397,21 @@
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>215</v>
+        <v>381</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
  